--- a/core/assets/levels/tut0.xlsx
+++ b/core/assets/levels/tut0.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Git\MangoSnoopers\core\assets\levels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ted/Documents/Repos/MangoSnoopers/core/assets/levels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195E9F32-34EA-4CD7-AF67-EB6931D2571C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="15240" windowHeight="6660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="61">
   <si>
     <t>Region</t>
   </si>
@@ -328,12 +327,18 @@
   <si>
     <t>Less</t>
   </si>
+  <si>
+    <t>Sun start</t>
+  </si>
+  <si>
+    <t>Sun end</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -760,50 +765,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.875" customWidth="1"/>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="23.375" customWidth="1"/>
-    <col min="10" max="10" width="15.625" customWidth="1"/>
-    <col min="11" max="11" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
     <col min="12" max="12" width="14.5" customWidth="1"/>
-    <col min="13" max="13" width="23.375" customWidth="1"/>
-    <col min="14" max="14" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="23.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" customWidth="1"/>
     <col min="15" max="15" width="14.5" customWidth="1"/>
     <col min="16" max="16" width="12.5" customWidth="1"/>
-    <col min="17" max="17" width="23.375" customWidth="1"/>
-    <col min="18" max="20" width="14.125" customWidth="1"/>
-    <col min="21" max="21" width="23.375" customWidth="1"/>
+    <col min="17" max="17" width="23.33203125" customWidth="1"/>
+    <col min="18" max="20" width="14.1640625" customWidth="1"/>
+    <col min="21" max="21" width="23.33203125" customWidth="1"/>
     <col min="22" max="24" width="13.5" customWidth="1"/>
-    <col min="25" max="25" width="23.375" customWidth="1"/>
+    <col min="25" max="25" width="23.33203125" customWidth="1"/>
     <col min="26" max="28" width="13.5" customWidth="1"/>
-    <col min="29" max="29" width="23.375" customWidth="1"/>
+    <col min="29" max="29" width="23.33203125" customWidth="1"/>
     <col min="30" max="32" width="13.5" customWidth="1"/>
-    <col min="33" max="33" width="23.375" customWidth="1"/>
-    <col min="34" max="34" width="15.625" customWidth="1"/>
-    <col min="35" max="35" width="14.875" customWidth="1"/>
+    <col min="33" max="33" width="23.33203125" customWidth="1"/>
+    <col min="34" max="34" width="15.6640625" customWidth="1"/>
+    <col min="35" max="35" width="14.83203125" customWidth="1"/>
     <col min="36" max="36" width="14.5" customWidth="1"/>
-    <col min="37" max="37" width="23.375" customWidth="1"/>
-    <col min="38" max="38" width="15.625" customWidth="1"/>
-    <col min="39" max="39" width="14.875" customWidth="1"/>
+    <col min="37" max="37" width="23.33203125" customWidth="1"/>
+    <col min="38" max="38" width="15.6640625" customWidth="1"/>
+    <col min="39" max="39" width="14.83203125" customWidth="1"/>
     <col min="40" max="44" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="16.5" customHeight="1">
+    <row r="1" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -925,7 +930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="16.5" customHeight="1">
+    <row r="2" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -974,7 +979,7 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
     </row>
-    <row r="3" spans="1:40" ht="16.5" customHeight="1">
+    <row r="3" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -1027,7 +1032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="16.5" customHeight="1">
+    <row r="4" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>53</v>
       </c>
@@ -1038,7 +1043,9 @@
         <v>51</v>
       </c>
       <c r="D4" s="17"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="4" t="s">
         <v>10</v>
@@ -1087,7 +1094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="16.5" customHeight="1">
+    <row r="5" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1138,7 +1145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="16.5" customHeight="1">
+    <row r="6" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -1189,7 +1196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="16.5" customHeight="1">
+    <row r="7" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
@@ -1241,7 +1248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="16.5" customHeight="1">
+    <row r="8" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1294,7 +1301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="16.5" customHeight="1">
+    <row r="9" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1345,7 +1352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="16.5" customHeight="1">
+    <row r="10" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1354,7 +1361,9 @@
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
         <v>10</v>
@@ -1403,7 +1412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="16.5" customHeight="1">
+    <row r="11" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1454,7 +1463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="16.5" customHeight="1">
+    <row r="12" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1512,7 +1521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="16.5" customHeight="1">
+    <row r="13" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1564,7 +1573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="16.5" customHeight="1">
+    <row r="14" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1620,7 +1629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="16.5" customHeight="1">
+    <row r="15" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -1674,7 +1683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="16.5" customHeight="1">
+    <row r="16" spans="1:40" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1734,7 +1743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:44" ht="16.5" customHeight="1">
+    <row r="17" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1786,7 +1795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:44" ht="16.5" customHeight="1">
+    <row r="18" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1844,7 +1853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:44" ht="16.5" customHeight="1">
+    <row r="19" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>22</v>
       </c>
@@ -1900,7 +1909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:44" ht="16.5" customHeight="1">
+    <row r="20" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -1956,7 +1965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:44" ht="16.5" customHeight="1">
+    <row r="21" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>23</v>
       </c>
@@ -2018,7 +2027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:44" ht="16.5" customHeight="1">
+    <row r="22" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
@@ -2082,7 +2091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:44" ht="16.5" customHeight="1">
+    <row r="23" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>25</v>
       </c>
@@ -2144,7 +2153,7 @@
       <c r="AM23" s="2"/>
       <c r="AN23" s="2"/>
     </row>
-    <row r="24" spans="1:44" ht="16.5" customHeight="1">
+    <row r="24" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>26</v>
       </c>
@@ -2188,7 +2197,7 @@
       <c r="AM24" s="2"/>
       <c r="AN24" s="2"/>
     </row>
-    <row r="25" spans="1:44" ht="16.5" customHeight="1">
+    <row r="25" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>27</v>
       </c>
@@ -2234,7 +2243,7 @@
       <c r="AM25" s="2"/>
       <c r="AN25" s="2"/>
     </row>
-    <row r="26" spans="1:44" ht="16.5" customHeight="1">
+    <row r="26" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>28</v>
       </c>
@@ -2287,7 +2296,7 @@
       <c r="AM26" s="2"/>
       <c r="AN26" s="2"/>
     </row>
-    <row r="27" spans="1:44" ht="16.5" customHeight="1">
+    <row r="27" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>30</v>
       </c>
@@ -2337,7 +2346,7 @@
       <c r="AQ27" s="2"/>
       <c r="AR27" s="2"/>
     </row>
-    <row r="28" spans="1:44" ht="16.5" customHeight="1">
+    <row r="28" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -2384,7 +2393,7 @@
       <c r="AQ28" s="2"/>
       <c r="AR28" s="2"/>
     </row>
-    <row r="29" spans="1:44" ht="16.5" customHeight="1">
+    <row r="29" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>31</v>
       </c>
@@ -2428,7 +2437,7 @@
       <c r="AQ29" s="2"/>
       <c r="AR29" s="2"/>
     </row>
-    <row r="30" spans="1:44" ht="16.5" customHeight="1">
+    <row r="30" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>32</v>
       </c>
@@ -2472,7 +2481,7 @@
       <c r="AQ30" s="2"/>
       <c r="AR30" s="2"/>
     </row>
-    <row r="31" spans="1:44" ht="16.5" customHeight="1">
+    <row r="31" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>33</v>
       </c>
@@ -2518,7 +2527,7 @@
       <c r="AQ31" s="2"/>
       <c r="AR31" s="2"/>
     </row>
-    <row r="32" spans="1:44" ht="16.5" customHeight="1">
+    <row r="32" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>34</v>
       </c>
@@ -2562,7 +2571,7 @@
       <c r="AQ32" s="2"/>
       <c r="AR32" s="2"/>
     </row>
-    <row r="33" spans="1:44" ht="16.5" customHeight="1">
+    <row r="33" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>35</v>
       </c>
@@ -2606,7 +2615,7 @@
       <c r="AQ33" s="2"/>
       <c r="AR33" s="2"/>
     </row>
-    <row r="34" spans="1:44" ht="16.5" customHeight="1">
+    <row r="34" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -2648,7 +2657,7 @@
       <c r="AQ34" s="2"/>
       <c r="AR34" s="2"/>
     </row>
-    <row r="35" spans="1:44" ht="16.5" customHeight="1">
+    <row r="35" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
         <v>36</v>
       </c>
@@ -2692,7 +2701,7 @@
       <c r="AQ35" s="2"/>
       <c r="AR35" s="2"/>
     </row>
-    <row r="36" spans="1:44" ht="16.5" customHeight="1">
+    <row r="36" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>37</v>
       </c>
@@ -2736,7 +2745,7 @@
       <c r="AQ36" s="2"/>
       <c r="AR36" s="2"/>
     </row>
-    <row r="37" spans="1:44" ht="16.5" customHeight="1">
+    <row r="37" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>38</v>
       </c>
@@ -2780,7 +2789,7 @@
       <c r="AQ37" s="2"/>
       <c r="AR37" s="2"/>
     </row>
-    <row r="38" spans="1:44" ht="16.5" customHeight="1">
+    <row r="38" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>39</v>
       </c>
@@ -2824,7 +2833,7 @@
       <c r="AQ38" s="2"/>
       <c r="AR38" s="2"/>
     </row>
-    <row r="39" spans="1:44" ht="16.5" customHeight="1">
+    <row r="39" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>40</v>
       </c>
@@ -2868,7 +2877,7 @@
       <c r="AQ39" s="2"/>
       <c r="AR39" s="2"/>
     </row>
-    <row r="40" spans="1:44" ht="16.5" customHeight="1">
+    <row r="40" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2910,7 +2919,7 @@
       <c r="AQ40" s="2"/>
       <c r="AR40" s="2"/>
     </row>
-    <row r="41" spans="1:44" ht="16.5" customHeight="1">
+    <row r="41" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>41</v>
       </c>
@@ -2954,7 +2963,7 @@
       <c r="AQ41" s="2"/>
       <c r="AR41" s="2"/>
     </row>
-    <row r="42" spans="1:44" ht="16.5" customHeight="1">
+    <row r="42" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>42</v>
       </c>
@@ -2998,7 +3007,7 @@
       <c r="AQ42" s="2"/>
       <c r="AR42" s="2"/>
     </row>
-    <row r="43" spans="1:44" ht="16.5" customHeight="1">
+    <row r="43" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>43</v>
       </c>
@@ -3042,7 +3051,7 @@
       <c r="AQ43" s="2"/>
       <c r="AR43" s="2"/>
     </row>
-    <row r="44" spans="1:44" ht="16.5" customHeight="1">
+    <row r="44" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>44</v>
       </c>
@@ -3086,7 +3095,7 @@
       <c r="AQ44" s="2"/>
       <c r="AR44" s="2"/>
     </row>
-    <row r="45" spans="1:44" ht="16.5" customHeight="1">
+    <row r="45" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>45</v>
       </c>
@@ -3130,7 +3139,7 @@
       <c r="AQ45" s="2"/>
       <c r="AR45" s="2"/>
     </row>
-    <row r="46" spans="1:44" ht="16.5" customHeight="1">
+    <row r="46" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -3172,7 +3181,7 @@
       <c r="AQ46" s="2"/>
       <c r="AR46" s="2"/>
     </row>
-    <row r="47" spans="1:44" ht="16.5" customHeight="1">
+    <row r="47" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>46</v>
       </c>
@@ -3216,7 +3225,7 @@
       <c r="AQ47" s="2"/>
       <c r="AR47" s="2"/>
     </row>
-    <row r="48" spans="1:44" ht="16.5" customHeight="1">
+    <row r="48" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>47</v>
       </c>
@@ -3260,7 +3269,7 @@
       <c r="AQ48" s="2"/>
       <c r="AR48" s="2"/>
     </row>
-    <row r="49" spans="1:44" ht="16.5" customHeight="1">
+    <row r="49" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>48</v>
       </c>
@@ -3304,7 +3313,7 @@
       <c r="AQ49" s="2"/>
       <c r="AR49" s="2"/>
     </row>
-    <row r="50" spans="1:44" ht="16.5" customHeight="1">
+    <row r="50" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -3346,7 +3355,7 @@
       <c r="AQ50" s="2"/>
       <c r="AR50" s="2"/>
     </row>
-    <row r="51" spans="1:44" ht="16.5" customHeight="1">
+    <row r="51" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3388,7 +3397,7 @@
       <c r="AQ51" s="2"/>
       <c r="AR51" s="2"/>
     </row>
-    <row r="52" spans="1:44" ht="16.5" customHeight="1">
+    <row r="52" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3430,7 +3439,7 @@
       <c r="AQ52" s="2"/>
       <c r="AR52" s="2"/>
     </row>
-    <row r="53" spans="1:44" ht="16.5" customHeight="1">
+    <row r="53" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3476,7 +3485,7 @@
       <c r="AQ53" s="2"/>
       <c r="AR53" s="2"/>
     </row>
-    <row r="54" spans="1:44" ht="16.5" customHeight="1">
+    <row r="54" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3522,7 +3531,7 @@
       <c r="AQ54" s="2"/>
       <c r="AR54" s="2"/>
     </row>
-    <row r="55" spans="1:44" ht="16.5" customHeight="1">
+    <row r="55" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3568,7 +3577,7 @@
       <c r="AQ55" s="2"/>
       <c r="AR55" s="2"/>
     </row>
-    <row r="56" spans="1:44" ht="16.5" customHeight="1">
+    <row r="56" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3614,7 +3623,7 @@
       <c r="AQ56" s="2"/>
       <c r="AR56" s="2"/>
     </row>
-    <row r="57" spans="1:44" ht="16.5" customHeight="1">
+    <row r="57" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3660,7 +3669,7 @@
       <c r="AQ57" s="2"/>
       <c r="AR57" s="2"/>
     </row>
-    <row r="58" spans="1:44" ht="16.5" customHeight="1">
+    <row r="58" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3706,7 +3715,7 @@
       <c r="AQ58" s="2"/>
       <c r="AR58" s="2"/>
     </row>
-    <row r="59" spans="1:44" ht="16.5" customHeight="1">
+    <row r="59" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3752,7 +3761,7 @@
       <c r="AQ59" s="2"/>
       <c r="AR59" s="2"/>
     </row>
-    <row r="60" spans="1:44" ht="16.5" customHeight="1">
+    <row r="60" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3798,7 +3807,7 @@
       <c r="AQ60" s="2"/>
       <c r="AR60" s="2"/>
     </row>
-    <row r="61" spans="1:44" ht="16.5" customHeight="1">
+    <row r="61" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3844,7 +3853,7 @@
       <c r="AQ61" s="2"/>
       <c r="AR61" s="2"/>
     </row>
-    <row r="62" spans="1:44" ht="16.5" customHeight="1">
+    <row r="62" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3890,7 +3899,7 @@
       <c r="AQ62" s="2"/>
       <c r="AR62" s="2"/>
     </row>
-    <row r="63" spans="1:44" ht="16.5" customHeight="1">
+    <row r="63" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3936,7 +3945,7 @@
       <c r="AQ63" s="2"/>
       <c r="AR63" s="2"/>
     </row>
-    <row r="64" spans="1:44" ht="16.5" customHeight="1">
+    <row r="64" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3982,7 +3991,7 @@
       <c r="AQ64" s="2"/>
       <c r="AR64" s="2"/>
     </row>
-    <row r="65" spans="1:44" ht="16.5" customHeight="1">
+    <row r="65" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4028,7 +4037,7 @@
       <c r="AQ65" s="2"/>
       <c r="AR65" s="2"/>
     </row>
-    <row r="66" spans="1:44" ht="16.5" customHeight="1">
+    <row r="66" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4074,7 +4083,7 @@
       <c r="AQ66" s="2"/>
       <c r="AR66" s="2"/>
     </row>
-    <row r="67" spans="1:44" ht="16.5" customHeight="1">
+    <row r="67" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4120,7 +4129,7 @@
       <c r="AQ67" s="2"/>
       <c r="AR67" s="2"/>
     </row>
-    <row r="68" spans="1:44" ht="16.5" customHeight="1">
+    <row r="68" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4166,7 +4175,7 @@
       <c r="AQ68" s="2"/>
       <c r="AR68" s="2"/>
     </row>
-    <row r="69" spans="1:44" ht="16.5" customHeight="1">
+    <row r="69" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4212,7 +4221,7 @@
       <c r="AQ69" s="2"/>
       <c r="AR69" s="2"/>
     </row>
-    <row r="70" spans="1:44" ht="16.5" customHeight="1">
+    <row r="70" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4258,7 +4267,7 @@
       <c r="AQ70" s="2"/>
       <c r="AR70" s="2"/>
     </row>
-    <row r="71" spans="1:44" ht="16.5" customHeight="1">
+    <row r="71" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4304,7 +4313,7 @@
       <c r="AQ71" s="2"/>
       <c r="AR71" s="2"/>
     </row>
-    <row r="72" spans="1:44" ht="16.5" customHeight="1">
+    <row r="72" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4350,7 +4359,7 @@
       <c r="AQ72" s="2"/>
       <c r="AR72" s="2"/>
     </row>
-    <row r="73" spans="1:44" ht="16.5" customHeight="1">
+    <row r="73" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4396,7 +4405,7 @@
       <c r="AQ73" s="2"/>
       <c r="AR73" s="2"/>
     </row>
-    <row r="74" spans="1:44" ht="16.5" customHeight="1">
+    <row r="74" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4442,7 +4451,7 @@
       <c r="AQ74" s="2"/>
       <c r="AR74" s="2"/>
     </row>
-    <row r="75" spans="1:44" ht="16.5" customHeight="1">
+    <row r="75" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4488,7 +4497,7 @@
       <c r="AQ75" s="2"/>
       <c r="AR75" s="2"/>
     </row>
-    <row r="76" spans="1:44" ht="16.5" customHeight="1">
+    <row r="76" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4534,7 +4543,7 @@
       <c r="AQ76" s="2"/>
       <c r="AR76" s="2"/>
     </row>
-    <row r="77" spans="1:44" ht="16.5" customHeight="1">
+    <row r="77" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4580,7 +4589,7 @@
       <c r="AQ77" s="2"/>
       <c r="AR77" s="2"/>
     </row>
-    <row r="78" spans="1:44" ht="16.5" customHeight="1">
+    <row r="78" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4626,7 +4635,7 @@
       <c r="AQ78" s="2"/>
       <c r="AR78" s="2"/>
     </row>
-    <row r="79" spans="1:44" ht="16.5" customHeight="1">
+    <row r="79" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4672,7 +4681,7 @@
       <c r="AQ79" s="2"/>
       <c r="AR79" s="2"/>
     </row>
-    <row r="80" spans="1:44" ht="16.5" customHeight="1">
+    <row r="80" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4718,7 +4727,7 @@
       <c r="AQ80" s="2"/>
       <c r="AR80" s="2"/>
     </row>
-    <row r="81" spans="1:44" ht="16.5" customHeight="1">
+    <row r="81" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4764,7 +4773,7 @@
       <c r="AQ81" s="2"/>
       <c r="AR81" s="2"/>
     </row>
-    <row r="82" spans="1:44" ht="16.5" customHeight="1">
+    <row r="82" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4810,7 +4819,7 @@
       <c r="AQ82" s="2"/>
       <c r="AR82" s="2"/>
     </row>
-    <row r="83" spans="1:44" ht="16.5" customHeight="1">
+    <row r="83" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4856,7 +4865,7 @@
       <c r="AQ83" s="2"/>
       <c r="AR83" s="2"/>
     </row>
-    <row r="84" spans="1:44" ht="16.5" customHeight="1">
+    <row r="84" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4902,7 +4911,7 @@
       <c r="AQ84" s="2"/>
       <c r="AR84" s="2"/>
     </row>
-    <row r="85" spans="1:44" ht="16.5" customHeight="1">
+    <row r="85" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4948,7 +4957,7 @@
       <c r="AQ85" s="2"/>
       <c r="AR85" s="2"/>
     </row>
-    <row r="86" spans="1:44" ht="16.5" customHeight="1">
+    <row r="86" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4994,7 +5003,7 @@
       <c r="AQ86" s="2"/>
       <c r="AR86" s="2"/>
     </row>
-    <row r="87" spans="1:44" ht="16.5" customHeight="1">
+    <row r="87" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5040,7 +5049,7 @@
       <c r="AQ87" s="2"/>
       <c r="AR87" s="2"/>
     </row>
-    <row r="88" spans="1:44" ht="16.5" customHeight="1">
+    <row r="88" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5086,7 +5095,7 @@
       <c r="AQ88" s="2"/>
       <c r="AR88" s="2"/>
     </row>
-    <row r="89" spans="1:44" ht="16.5" customHeight="1">
+    <row r="89" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5132,7 +5141,7 @@
       <c r="AQ89" s="2"/>
       <c r="AR89" s="2"/>
     </row>
-    <row r="90" spans="1:44" ht="16.5" customHeight="1">
+    <row r="90" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5178,7 +5187,7 @@
       <c r="AQ90" s="2"/>
       <c r="AR90" s="2"/>
     </row>
-    <row r="91" spans="1:44" ht="16.5" customHeight="1">
+    <row r="91" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5224,7 +5233,7 @@
       <c r="AQ91" s="2"/>
       <c r="AR91" s="2"/>
     </row>
-    <row r="92" spans="1:44" ht="16.5" customHeight="1">
+    <row r="92" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5270,7 +5279,7 @@
       <c r="AQ92" s="2"/>
       <c r="AR92" s="2"/>
     </row>
-    <row r="93" spans="1:44" ht="16.5" customHeight="1">
+    <row r="93" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5316,7 +5325,7 @@
       <c r="AQ93" s="2"/>
       <c r="AR93" s="2"/>
     </row>
-    <row r="94" spans="1:44" ht="16.5" customHeight="1">
+    <row r="94" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5362,7 +5371,7 @@
       <c r="AQ94" s="2"/>
       <c r="AR94" s="2"/>
     </row>
-    <row r="95" spans="1:44" ht="16.5" customHeight="1">
+    <row r="95" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5408,7 +5417,7 @@
       <c r="AQ95" s="2"/>
       <c r="AR95" s="2"/>
     </row>
-    <row r="96" spans="1:44" ht="16.5" customHeight="1">
+    <row r="96" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5454,7 +5463,7 @@
       <c r="AQ96" s="2"/>
       <c r="AR96" s="2"/>
     </row>
-    <row r="97" spans="1:44" ht="16.5" customHeight="1">
+    <row r="97" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5500,7 +5509,7 @@
       <c r="AQ97" s="2"/>
       <c r="AR97" s="2"/>
     </row>
-    <row r="98" spans="1:44" ht="16.5" customHeight="1">
+    <row r="98" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5546,7 +5555,7 @@
       <c r="AQ98" s="2"/>
       <c r="AR98" s="2"/>
     </row>
-    <row r="99" spans="1:44" ht="16.5" customHeight="1">
+    <row r="99" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5592,7 +5601,7 @@
       <c r="AQ99" s="2"/>
       <c r="AR99" s="2"/>
     </row>
-    <row r="100" spans="1:44" ht="16.5" customHeight="1">
+    <row r="100" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5638,7 +5647,7 @@
       <c r="AQ100" s="2"/>
       <c r="AR100" s="2"/>
     </row>
-    <row r="101" spans="1:44" ht="16.5" customHeight="1">
+    <row r="101" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5684,7 +5693,7 @@
       <c r="AQ101" s="2"/>
       <c r="AR101" s="2"/>
     </row>
-    <row r="102" spans="1:44" ht="16.5" customHeight="1">
+    <row r="102" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5730,7 +5739,7 @@
       <c r="AQ102" s="2"/>
       <c r="AR102" s="2"/>
     </row>
-    <row r="103" spans="1:44" ht="16.5" customHeight="1">
+    <row r="103" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5776,7 +5785,7 @@
       <c r="AQ103" s="2"/>
       <c r="AR103" s="2"/>
     </row>
-    <row r="104" spans="1:44" ht="16.5" customHeight="1">
+    <row r="104" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5822,7 +5831,7 @@
       <c r="AQ104" s="2"/>
       <c r="AR104" s="2"/>
     </row>
-    <row r="105" spans="1:44" ht="16.5" customHeight="1">
+    <row r="105" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5868,7 +5877,7 @@
       <c r="AQ105" s="2"/>
       <c r="AR105" s="2"/>
     </row>
-    <row r="106" spans="1:44" ht="16.5" customHeight="1">
+    <row r="106" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5914,7 +5923,7 @@
       <c r="AQ106" s="2"/>
       <c r="AR106" s="2"/>
     </row>
-    <row r="107" spans="1:44" ht="16.5" customHeight="1">
+    <row r="107" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5960,7 +5969,7 @@
       <c r="AQ107" s="2"/>
       <c r="AR107" s="2"/>
     </row>
-    <row r="108" spans="1:44" ht="16.5" customHeight="1">
+    <row r="108" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6006,7 +6015,7 @@
       <c r="AQ108" s="2"/>
       <c r="AR108" s="2"/>
     </row>
-    <row r="109" spans="1:44" ht="16.5" customHeight="1">
+    <row r="109" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6052,7 +6061,7 @@
       <c r="AQ109" s="2"/>
       <c r="AR109" s="2"/>
     </row>
-    <row r="110" spans="1:44" ht="16.5" customHeight="1">
+    <row r="110" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6098,7 +6107,7 @@
       <c r="AQ110" s="2"/>
       <c r="AR110" s="2"/>
     </row>
-    <row r="111" spans="1:44" ht="16.5" customHeight="1">
+    <row r="111" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6144,7 +6153,7 @@
       <c r="AQ111" s="2"/>
       <c r="AR111" s="2"/>
     </row>
-    <row r="112" spans="1:44" ht="16.5" customHeight="1">
+    <row r="112" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6190,7 +6199,7 @@
       <c r="AQ112" s="2"/>
       <c r="AR112" s="2"/>
     </row>
-    <row r="113" spans="1:44" ht="16.5" customHeight="1">
+    <row r="113" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6236,7 +6245,7 @@
       <c r="AQ113" s="2"/>
       <c r="AR113" s="2"/>
     </row>
-    <row r="114" spans="1:44" ht="16.5" customHeight="1">
+    <row r="114" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6282,7 +6291,7 @@
       <c r="AQ114" s="2"/>
       <c r="AR114" s="2"/>
     </row>
-    <row r="115" spans="1:44" ht="16.5" customHeight="1">
+    <row r="115" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6328,7 +6337,7 @@
       <c r="AQ115" s="2"/>
       <c r="AR115" s="2"/>
     </row>
-    <row r="116" spans="1:44" ht="16.5" customHeight="1">
+    <row r="116" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6374,7 +6383,7 @@
       <c r="AQ116" s="2"/>
       <c r="AR116" s="2"/>
     </row>
-    <row r="117" spans="1:44" ht="16.5" customHeight="1">
+    <row r="117" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6420,7 +6429,7 @@
       <c r="AQ117" s="2"/>
       <c r="AR117" s="2"/>
     </row>
-    <row r="118" spans="1:44" ht="16.5" customHeight="1">
+    <row r="118" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6466,7 +6475,7 @@
       <c r="AQ118" s="2"/>
       <c r="AR118" s="2"/>
     </row>
-    <row r="119" spans="1:44" ht="16.5" customHeight="1">
+    <row r="119" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6512,7 +6521,7 @@
       <c r="AQ119" s="2"/>
       <c r="AR119" s="2"/>
     </row>
-    <row r="120" spans="1:44" ht="16.5" customHeight="1">
+    <row r="120" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6558,7 +6567,7 @@
       <c r="AQ120" s="2"/>
       <c r="AR120" s="2"/>
     </row>
-    <row r="121" spans="1:44" ht="16.5" customHeight="1">
+    <row r="121" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6604,7 +6613,7 @@
       <c r="AQ121" s="2"/>
       <c r="AR121" s="2"/>
     </row>
-    <row r="122" spans="1:44" ht="16.5" customHeight="1">
+    <row r="122" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6650,7 +6659,7 @@
       <c r="AQ122" s="2"/>
       <c r="AR122" s="2"/>
     </row>
-    <row r="123" spans="1:44" ht="16.5" customHeight="1">
+    <row r="123" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6696,7 +6705,7 @@
       <c r="AQ123" s="2"/>
       <c r="AR123" s="2"/>
     </row>
-    <row r="124" spans="1:44" ht="16.5" customHeight="1">
+    <row r="124" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6742,7 +6751,7 @@
       <c r="AQ124" s="2"/>
       <c r="AR124" s="2"/>
     </row>
-    <row r="125" spans="1:44" ht="16.5" customHeight="1">
+    <row r="125" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6788,7 +6797,7 @@
       <c r="AQ125" s="2"/>
       <c r="AR125" s="2"/>
     </row>
-    <row r="126" spans="1:44" ht="16.5" customHeight="1">
+    <row r="126" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6834,7 +6843,7 @@
       <c r="AQ126" s="2"/>
       <c r="AR126" s="2"/>
     </row>
-    <row r="127" spans="1:44" ht="16.5" customHeight="1">
+    <row r="127" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6880,7 +6889,7 @@
       <c r="AQ127" s="2"/>
       <c r="AR127" s="2"/>
     </row>
-    <row r="128" spans="1:44" ht="16.5" customHeight="1">
+    <row r="128" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6926,7 +6935,7 @@
       <c r="AQ128" s="2"/>
       <c r="AR128" s="2"/>
     </row>
-    <row r="129" spans="1:44" ht="16.5" customHeight="1">
+    <row r="129" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6972,7 +6981,7 @@
       <c r="AQ129" s="2"/>
       <c r="AR129" s="2"/>
     </row>
-    <row r="130" spans="1:44" ht="16.5" customHeight="1">
+    <row r="130" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -7018,7 +7027,7 @@
       <c r="AQ130" s="2"/>
       <c r="AR130" s="2"/>
     </row>
-    <row r="131" spans="1:44" ht="16.5" customHeight="1">
+    <row r="131" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -7064,7 +7073,7 @@
       <c r="AQ131" s="2"/>
       <c r="AR131" s="2"/>
     </row>
-    <row r="132" spans="1:44" ht="16.5" customHeight="1">
+    <row r="132" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -7110,7 +7119,7 @@
       <c r="AQ132" s="2"/>
       <c r="AR132" s="2"/>
     </row>
-    <row r="133" spans="1:44" ht="16.5" customHeight="1">
+    <row r="133" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -7156,7 +7165,7 @@
       <c r="AQ133" s="2"/>
       <c r="AR133" s="2"/>
     </row>
-    <row r="134" spans="1:44" ht="16.5" customHeight="1">
+    <row r="134" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -7202,7 +7211,7 @@
       <c r="AQ134" s="2"/>
       <c r="AR134" s="2"/>
     </row>
-    <row r="135" spans="1:44" ht="16.5" customHeight="1">
+    <row r="135" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -7248,7 +7257,7 @@
       <c r="AQ135" s="2"/>
       <c r="AR135" s="2"/>
     </row>
-    <row r="136" spans="1:44" ht="16.5" customHeight="1">
+    <row r="136" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -7294,7 +7303,7 @@
       <c r="AQ136" s="2"/>
       <c r="AR136" s="2"/>
     </row>
-    <row r="137" spans="1:44" ht="16.5" customHeight="1">
+    <row r="137" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -7340,7 +7349,7 @@
       <c r="AQ137" s="2"/>
       <c r="AR137" s="2"/>
     </row>
-    <row r="138" spans="1:44" ht="16.5" customHeight="1">
+    <row r="138" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -7386,7 +7395,7 @@
       <c r="AQ138" s="2"/>
       <c r="AR138" s="2"/>
     </row>
-    <row r="139" spans="1:44" ht="16.5" customHeight="1">
+    <row r="139" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -7432,7 +7441,7 @@
       <c r="AQ139" s="2"/>
       <c r="AR139" s="2"/>
     </row>
-    <row r="140" spans="1:44" ht="16.5" customHeight="1">
+    <row r="140" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -7478,7 +7487,7 @@
       <c r="AQ140" s="2"/>
       <c r="AR140" s="2"/>
     </row>
-    <row r="141" spans="1:44" ht="16.5" customHeight="1">
+    <row r="141" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -7524,7 +7533,7 @@
       <c r="AQ141" s="2"/>
       <c r="AR141" s="2"/>
     </row>
-    <row r="142" spans="1:44" ht="16.5" customHeight="1">
+    <row r="142" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -7570,7 +7579,7 @@
       <c r="AQ142" s="2"/>
       <c r="AR142" s="2"/>
     </row>
-    <row r="143" spans="1:44" ht="16.5" customHeight="1">
+    <row r="143" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -7616,7 +7625,7 @@
       <c r="AQ143" s="2"/>
       <c r="AR143" s="2"/>
     </row>
-    <row r="144" spans="1:44" ht="16.5" customHeight="1">
+    <row r="144" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -7662,7 +7671,7 @@
       <c r="AQ144" s="2"/>
       <c r="AR144" s="2"/>
     </row>
-    <row r="145" spans="1:44" ht="16.5" customHeight="1">
+    <row r="145" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -7708,7 +7717,7 @@
       <c r="AQ145" s="2"/>
       <c r="AR145" s="2"/>
     </row>
-    <row r="146" spans="1:44" ht="16.5" customHeight="1">
+    <row r="146" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -7754,7 +7763,7 @@
       <c r="AQ146" s="2"/>
       <c r="AR146" s="2"/>
     </row>
-    <row r="147" spans="1:44" ht="16.5" customHeight="1">
+    <row r="147" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -7800,7 +7809,7 @@
       <c r="AQ147" s="2"/>
       <c r="AR147" s="2"/>
     </row>
-    <row r="148" spans="1:44" ht="16.5" customHeight="1">
+    <row r="148" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -7846,7 +7855,7 @@
       <c r="AQ148" s="2"/>
       <c r="AR148" s="2"/>
     </row>
-    <row r="149" spans="1:44" ht="16.5" customHeight="1">
+    <row r="149" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -7892,7 +7901,7 @@
       <c r="AQ149" s="2"/>
       <c r="AR149" s="2"/>
     </row>
-    <row r="150" spans="1:44" ht="16.5" customHeight="1">
+    <row r="150" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -7938,7 +7947,7 @@
       <c r="AQ150" s="2"/>
       <c r="AR150" s="2"/>
     </row>
-    <row r="151" spans="1:44" ht="16.5" customHeight="1">
+    <row r="151" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -7984,7 +7993,7 @@
       <c r="AQ151" s="2"/>
       <c r="AR151" s="2"/>
     </row>
-    <row r="152" spans="1:44" ht="16.5" customHeight="1">
+    <row r="152" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -8030,7 +8039,7 @@
       <c r="AQ152" s="2"/>
       <c r="AR152" s="2"/>
     </row>
-    <row r="153" spans="1:44" ht="16.5" customHeight="1">
+    <row r="153" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -8076,7 +8085,7 @@
       <c r="AQ153" s="2"/>
       <c r="AR153" s="2"/>
     </row>
-    <row r="154" spans="1:44" ht="16.5" customHeight="1">
+    <row r="154" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -8122,7 +8131,7 @@
       <c r="AQ154" s="2"/>
       <c r="AR154" s="2"/>
     </row>
-    <row r="155" spans="1:44" ht="16.5" customHeight="1">
+    <row r="155" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -8168,7 +8177,7 @@
       <c r="AQ155" s="2"/>
       <c r="AR155" s="2"/>
     </row>
-    <row r="156" spans="1:44" ht="16.5" customHeight="1">
+    <row r="156" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -8214,7 +8223,7 @@
       <c r="AQ156" s="2"/>
       <c r="AR156" s="2"/>
     </row>
-    <row r="157" spans="1:44" ht="16.5" customHeight="1">
+    <row r="157" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -8260,7 +8269,7 @@
       <c r="AQ157" s="2"/>
       <c r="AR157" s="2"/>
     </row>
-    <row r="158" spans="1:44" ht="16.5" customHeight="1">
+    <row r="158" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -8306,7 +8315,7 @@
       <c r="AQ158" s="2"/>
       <c r="AR158" s="2"/>
     </row>
-    <row r="159" spans="1:44" ht="16.5" customHeight="1">
+    <row r="159" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -8352,7 +8361,7 @@
       <c r="AQ159" s="2"/>
       <c r="AR159" s="2"/>
     </row>
-    <row r="160" spans="1:44" ht="16.5" customHeight="1">
+    <row r="160" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -8398,7 +8407,7 @@
       <c r="AQ160" s="2"/>
       <c r="AR160" s="2"/>
     </row>
-    <row r="161" spans="1:44" ht="16.5" customHeight="1">
+    <row r="161" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -8444,7 +8453,7 @@
       <c r="AQ161" s="2"/>
       <c r="AR161" s="2"/>
     </row>
-    <row r="162" spans="1:44" ht="16.5" customHeight="1">
+    <row r="162" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -8490,7 +8499,7 @@
       <c r="AQ162" s="2"/>
       <c r="AR162" s="2"/>
     </row>
-    <row r="163" spans="1:44" ht="16.5" customHeight="1">
+    <row r="163" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -8536,7 +8545,7 @@
       <c r="AQ163" s="2"/>
       <c r="AR163" s="2"/>
     </row>
-    <row r="164" spans="1:44" ht="16.5" customHeight="1">
+    <row r="164" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -8582,7 +8591,7 @@
       <c r="AQ164" s="2"/>
       <c r="AR164" s="2"/>
     </row>
-    <row r="165" spans="1:44" ht="16.5" customHeight="1">
+    <row r="165" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -8628,7 +8637,7 @@
       <c r="AQ165" s="2"/>
       <c r="AR165" s="2"/>
     </row>
-    <row r="166" spans="1:44" ht="16.5" customHeight="1">
+    <row r="166" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -8674,7 +8683,7 @@
       <c r="AQ166" s="2"/>
       <c r="AR166" s="2"/>
     </row>
-    <row r="167" spans="1:44" ht="16.5" customHeight="1">
+    <row r="167" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -8720,7 +8729,7 @@
       <c r="AQ167" s="2"/>
       <c r="AR167" s="2"/>
     </row>
-    <row r="168" spans="1:44" ht="16.5" customHeight="1">
+    <row r="168" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -8766,7 +8775,7 @@
       <c r="AQ168" s="2"/>
       <c r="AR168" s="2"/>
     </row>
-    <row r="169" spans="1:44" ht="16.5" customHeight="1">
+    <row r="169" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -8812,7 +8821,7 @@
       <c r="AQ169" s="2"/>
       <c r="AR169" s="2"/>
     </row>
-    <row r="170" spans="1:44" ht="16.5" customHeight="1">
+    <row r="170" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -8858,7 +8867,7 @@
       <c r="AQ170" s="2"/>
       <c r="AR170" s="2"/>
     </row>
-    <row r="171" spans="1:44" ht="16.5" customHeight="1">
+    <row r="171" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -8904,7 +8913,7 @@
       <c r="AQ171" s="2"/>
       <c r="AR171" s="2"/>
     </row>
-    <row r="172" spans="1:44" ht="16.5" customHeight="1">
+    <row r="172" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -8950,7 +8959,7 @@
       <c r="AQ172" s="2"/>
       <c r="AR172" s="2"/>
     </row>
-    <row r="173" spans="1:44" ht="16.5" customHeight="1">
+    <row r="173" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -8996,7 +9005,7 @@
       <c r="AQ173" s="2"/>
       <c r="AR173" s="2"/>
     </row>
-    <row r="174" spans="1:44" ht="16.5" customHeight="1">
+    <row r="174" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -9042,7 +9051,7 @@
       <c r="AQ174" s="2"/>
       <c r="AR174" s="2"/>
     </row>
-    <row r="175" spans="1:44" ht="16.5" customHeight="1">
+    <row r="175" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -9088,7 +9097,7 @@
       <c r="AQ175" s="2"/>
       <c r="AR175" s="2"/>
     </row>
-    <row r="176" spans="1:44" ht="16.5" customHeight="1">
+    <row r="176" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -9134,7 +9143,7 @@
       <c r="AQ176" s="2"/>
       <c r="AR176" s="2"/>
     </row>
-    <row r="177" spans="1:44" ht="16.5" customHeight="1">
+    <row r="177" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -9180,7 +9189,7 @@
       <c r="AQ177" s="2"/>
       <c r="AR177" s="2"/>
     </row>
-    <row r="178" spans="1:44" ht="16.5" customHeight="1">
+    <row r="178" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -9226,7 +9235,7 @@
       <c r="AQ178" s="2"/>
       <c r="AR178" s="2"/>
     </row>
-    <row r="179" spans="1:44" ht="16.5" customHeight="1">
+    <row r="179" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -9272,7 +9281,7 @@
       <c r="AQ179" s="2"/>
       <c r="AR179" s="2"/>
     </row>
-    <row r="180" spans="1:44" ht="16.5" customHeight="1">
+    <row r="180" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -9318,7 +9327,7 @@
       <c r="AQ180" s="2"/>
       <c r="AR180" s="2"/>
     </row>
-    <row r="181" spans="1:44" ht="16.5" customHeight="1">
+    <row r="181" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -9364,7 +9373,7 @@
       <c r="AQ181" s="2"/>
       <c r="AR181" s="2"/>
     </row>
-    <row r="182" spans="1:44" ht="16.5" customHeight="1">
+    <row r="182" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -9410,7 +9419,7 @@
       <c r="AQ182" s="2"/>
       <c r="AR182" s="2"/>
     </row>
-    <row r="183" spans="1:44" ht="16.5" customHeight="1">
+    <row r="183" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -9456,7 +9465,7 @@
       <c r="AQ183" s="2"/>
       <c r="AR183" s="2"/>
     </row>
-    <row r="184" spans="1:44" ht="16.5" customHeight="1">
+    <row r="184" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -9502,7 +9511,7 @@
       <c r="AQ184" s="2"/>
       <c r="AR184" s="2"/>
     </row>
-    <row r="185" spans="1:44" ht="16.5" customHeight="1">
+    <row r="185" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -9548,7 +9557,7 @@
       <c r="AQ185" s="2"/>
       <c r="AR185" s="2"/>
     </row>
-    <row r="186" spans="1:44" ht="16.5" customHeight="1">
+    <row r="186" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -9594,7 +9603,7 @@
       <c r="AQ186" s="2"/>
       <c r="AR186" s="2"/>
     </row>
-    <row r="187" spans="1:44" ht="16.5" customHeight="1">
+    <row r="187" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -9640,7 +9649,7 @@
       <c r="AQ187" s="2"/>
       <c r="AR187" s="2"/>
     </row>
-    <row r="188" spans="1:44" ht="16.5" customHeight="1">
+    <row r="188" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -9686,7 +9695,7 @@
       <c r="AQ188" s="2"/>
       <c r="AR188" s="2"/>
     </row>
-    <row r="189" spans="1:44" ht="16.5" customHeight="1">
+    <row r="189" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -9732,7 +9741,7 @@
       <c r="AQ189" s="2"/>
       <c r="AR189" s="2"/>
     </row>
-    <row r="190" spans="1:44" ht="16.5" customHeight="1">
+    <row r="190" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -9778,7 +9787,7 @@
       <c r="AQ190" s="2"/>
       <c r="AR190" s="2"/>
     </row>
-    <row r="191" spans="1:44" ht="16.5" customHeight="1">
+    <row r="191" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -9824,7 +9833,7 @@
       <c r="AQ191" s="2"/>
       <c r="AR191" s="2"/>
     </row>
-    <row r="192" spans="1:44" ht="16.5" customHeight="1">
+    <row r="192" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -9870,7 +9879,7 @@
       <c r="AQ192" s="2"/>
       <c r="AR192" s="2"/>
     </row>
-    <row r="193" spans="1:44" ht="16.5" customHeight="1">
+    <row r="193" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -9916,7 +9925,7 @@
       <c r="AQ193" s="2"/>
       <c r="AR193" s="2"/>
     </row>
-    <row r="194" spans="1:44" ht="16.5" customHeight="1">
+    <row r="194" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -9962,7 +9971,7 @@
       <c r="AQ194" s="2"/>
       <c r="AR194" s="2"/>
     </row>
-    <row r="195" spans="1:44" ht="16.5" customHeight="1">
+    <row r="195" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -10008,7 +10017,7 @@
       <c r="AQ195" s="2"/>
       <c r="AR195" s="2"/>
     </row>
-    <row r="196" spans="1:44" ht="16.5" customHeight="1">
+    <row r="196" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -10054,7 +10063,7 @@
       <c r="AQ196" s="2"/>
       <c r="AR196" s="2"/>
     </row>
-    <row r="197" spans="1:44" ht="16.5" customHeight="1">
+    <row r="197" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -10100,7 +10109,7 @@
       <c r="AQ197" s="2"/>
       <c r="AR197" s="2"/>
     </row>
-    <row r="198" spans="1:44" ht="16.5" customHeight="1">
+    <row r="198" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -10146,7 +10155,7 @@
       <c r="AQ198" s="2"/>
       <c r="AR198" s="2"/>
     </row>
-    <row r="199" spans="1:44" ht="16.5" customHeight="1">
+    <row r="199" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -10192,7 +10201,7 @@
       <c r="AQ199" s="2"/>
       <c r="AR199" s="2"/>
     </row>
-    <row r="200" spans="1:44" ht="16.5" customHeight="1">
+    <row r="200" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -10238,7 +10247,7 @@
       <c r="AQ200" s="2"/>
       <c r="AR200" s="2"/>
     </row>
-    <row r="201" spans="1:44" ht="16.5" customHeight="1">
+    <row r="201" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -10284,7 +10293,7 @@
       <c r="AQ201" s="2"/>
       <c r="AR201" s="2"/>
     </row>
-    <row r="202" spans="1:44" ht="16.5" customHeight="1">
+    <row r="202" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -10330,7 +10339,7 @@
       <c r="AQ202" s="2"/>
       <c r="AR202" s="2"/>
     </row>
-    <row r="203" spans="1:44" ht="16.5" customHeight="1">
+    <row r="203" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -10376,7 +10385,7 @@
       <c r="AQ203" s="2"/>
       <c r="AR203" s="2"/>
     </row>
-    <row r="204" spans="1:44" ht="16.5" customHeight="1">
+    <row r="204" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -10422,7 +10431,7 @@
       <c r="AQ204" s="2"/>
       <c r="AR204" s="2"/>
     </row>
-    <row r="205" spans="1:44" ht="16.5" customHeight="1">
+    <row r="205" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -10468,7 +10477,7 @@
       <c r="AQ205" s="2"/>
       <c r="AR205" s="2"/>
     </row>
-    <row r="206" spans="1:44" ht="16.5" customHeight="1">
+    <row r="206" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -10514,7 +10523,7 @@
       <c r="AQ206" s="2"/>
       <c r="AR206" s="2"/>
     </row>
-    <row r="207" spans="1:44" ht="16.5" customHeight="1">
+    <row r="207" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -10560,7 +10569,7 @@
       <c r="AQ207" s="2"/>
       <c r="AR207" s="2"/>
     </row>
-    <row r="208" spans="1:44" ht="16.5" customHeight="1">
+    <row r="208" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -10606,7 +10615,7 @@
       <c r="AQ208" s="2"/>
       <c r="AR208" s="2"/>
     </row>
-    <row r="209" spans="1:44" ht="16.5" customHeight="1">
+    <row r="209" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -10652,7 +10661,7 @@
       <c r="AQ209" s="2"/>
       <c r="AR209" s="2"/>
     </row>
-    <row r="210" spans="1:44" ht="16.5" customHeight="1">
+    <row r="210" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -10698,7 +10707,7 @@
       <c r="AQ210" s="2"/>
       <c r="AR210" s="2"/>
     </row>
-    <row r="211" spans="1:44" ht="16.5" customHeight="1">
+    <row r="211" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -10744,7 +10753,7 @@
       <c r="AQ211" s="2"/>
       <c r="AR211" s="2"/>
     </row>
-    <row r="212" spans="1:44" ht="16.5" customHeight="1">
+    <row r="212" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -10790,7 +10799,7 @@
       <c r="AQ212" s="2"/>
       <c r="AR212" s="2"/>
     </row>
-    <row r="213" spans="1:44" ht="16.5" customHeight="1">
+    <row r="213" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -10836,7 +10845,7 @@
       <c r="AQ213" s="2"/>
       <c r="AR213" s="2"/>
     </row>
-    <row r="214" spans="1:44" ht="16.5" customHeight="1">
+    <row r="214" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -10882,7 +10891,7 @@
       <c r="AQ214" s="2"/>
       <c r="AR214" s="2"/>
     </row>
-    <row r="215" spans="1:44" ht="16.5" customHeight="1">
+    <row r="215" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -10928,7 +10937,7 @@
       <c r="AQ215" s="2"/>
       <c r="AR215" s="2"/>
     </row>
-    <row r="216" spans="1:44" ht="16.5" customHeight="1">
+    <row r="216" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -10974,7 +10983,7 @@
       <c r="AQ216" s="2"/>
       <c r="AR216" s="2"/>
     </row>
-    <row r="217" spans="1:44" ht="16.5" customHeight="1">
+    <row r="217" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -11020,7 +11029,7 @@
       <c r="AQ217" s="2"/>
       <c r="AR217" s="2"/>
     </row>
-    <row r="218" spans="1:44" ht="16.5" customHeight="1">
+    <row r="218" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -11066,7 +11075,7 @@
       <c r="AQ218" s="2"/>
       <c r="AR218" s="2"/>
     </row>
-    <row r="219" spans="1:44" ht="16.5" customHeight="1">
+    <row r="219" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -11112,7 +11121,7 @@
       <c r="AQ219" s="2"/>
       <c r="AR219" s="2"/>
     </row>
-    <row r="220" spans="1:44" ht="16.5" customHeight="1">
+    <row r="220" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -11158,7 +11167,7 @@
       <c r="AQ220" s="2"/>
       <c r="AR220" s="2"/>
     </row>
-    <row r="221" spans="1:44" ht="16.5" customHeight="1">
+    <row r="221" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -11204,7 +11213,7 @@
       <c r="AQ221" s="2"/>
       <c r="AR221" s="2"/>
     </row>
-    <row r="222" spans="1:44" ht="16.5" customHeight="1">
+    <row r="222" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -11250,7 +11259,7 @@
       <c r="AQ222" s="2"/>
       <c r="AR222" s="2"/>
     </row>
-    <row r="223" spans="1:44" ht="16.5" customHeight="1">
+    <row r="223" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -11296,7 +11305,7 @@
       <c r="AQ223" s="2"/>
       <c r="AR223" s="2"/>
     </row>
-    <row r="224" spans="1:44" ht="16.5" customHeight="1">
+    <row r="224" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -11342,7 +11351,7 @@
       <c r="AQ224" s="2"/>
       <c r="AR224" s="2"/>
     </row>
-    <row r="225" spans="1:44" ht="16.5" customHeight="1">
+    <row r="225" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -11388,7 +11397,7 @@
       <c r="AQ225" s="2"/>
       <c r="AR225" s="2"/>
     </row>
-    <row r="226" spans="1:44" ht="16.5" customHeight="1">
+    <row r="226" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -11434,7 +11443,7 @@
       <c r="AQ226" s="2"/>
       <c r="AR226" s="2"/>
     </row>
-    <row r="227" spans="1:44" ht="16.5" customHeight="1">
+    <row r="227" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -11480,7 +11489,7 @@
       <c r="AQ227" s="2"/>
       <c r="AR227" s="2"/>
     </row>
-    <row r="228" spans="1:44" ht="16.5" customHeight="1">
+    <row r="228" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -11526,7 +11535,7 @@
       <c r="AQ228" s="2"/>
       <c r="AR228" s="2"/>
     </row>
-    <row r="229" spans="1:44" ht="16.5" customHeight="1">
+    <row r="229" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -11572,7 +11581,7 @@
       <c r="AQ229" s="2"/>
       <c r="AR229" s="2"/>
     </row>
-    <row r="230" spans="1:44" ht="16.5" customHeight="1">
+    <row r="230" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -11618,7 +11627,7 @@
       <c r="AQ230" s="2"/>
       <c r="AR230" s="2"/>
     </row>
-    <row r="231" spans="1:44" ht="16.5" customHeight="1">
+    <row r="231" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -11664,7 +11673,7 @@
       <c r="AQ231" s="2"/>
       <c r="AR231" s="2"/>
     </row>
-    <row r="232" spans="1:44" ht="16.5" customHeight="1">
+    <row r="232" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -11710,7 +11719,7 @@
       <c r="AQ232" s="2"/>
       <c r="AR232" s="2"/>
     </row>
-    <row r="233" spans="1:44" ht="16.5" customHeight="1">
+    <row r="233" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -11756,7 +11765,7 @@
       <c r="AQ233" s="2"/>
       <c r="AR233" s="2"/>
     </row>
-    <row r="234" spans="1:44" ht="16.5" customHeight="1">
+    <row r="234" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -11802,7 +11811,7 @@
       <c r="AQ234" s="2"/>
       <c r="AR234" s="2"/>
     </row>
-    <row r="235" spans="1:44" ht="16.5" customHeight="1">
+    <row r="235" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -11848,7 +11857,7 @@
       <c r="AQ235" s="2"/>
       <c r="AR235" s="2"/>
     </row>
-    <row r="236" spans="1:44" ht="16.5" customHeight="1">
+    <row r="236" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -11894,7 +11903,7 @@
       <c r="AQ236" s="2"/>
       <c r="AR236" s="2"/>
     </row>
-    <row r="237" spans="1:44" ht="16.5" customHeight="1">
+    <row r="237" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -11940,7 +11949,7 @@
       <c r="AQ237" s="2"/>
       <c r="AR237" s="2"/>
     </row>
-    <row r="238" spans="1:44" ht="16.5" customHeight="1">
+    <row r="238" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -11986,7 +11995,7 @@
       <c r="AQ238" s="2"/>
       <c r="AR238" s="2"/>
     </row>
-    <row r="239" spans="1:44" ht="16.5" customHeight="1">
+    <row r="239" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -12032,7 +12041,7 @@
       <c r="AQ239" s="2"/>
       <c r="AR239" s="2"/>
     </row>
-    <row r="240" spans="1:44" ht="16.5" customHeight="1">
+    <row r="240" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -12078,7 +12087,7 @@
       <c r="AQ240" s="2"/>
       <c r="AR240" s="2"/>
     </row>
-    <row r="241" spans="1:44" ht="16.5" customHeight="1">
+    <row r="241" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -12124,7 +12133,7 @@
       <c r="AQ241" s="2"/>
       <c r="AR241" s="2"/>
     </row>
-    <row r="242" spans="1:44" ht="16.5" customHeight="1">
+    <row r="242" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -12170,7 +12179,7 @@
       <c r="AQ242" s="2"/>
       <c r="AR242" s="2"/>
     </row>
-    <row r="243" spans="1:44" ht="16.5" customHeight="1">
+    <row r="243" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -12216,7 +12225,7 @@
       <c r="AQ243" s="2"/>
       <c r="AR243" s="2"/>
     </row>
-    <row r="244" spans="1:44" ht="16.5" customHeight="1">
+    <row r="244" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -12262,7 +12271,7 @@
       <c r="AQ244" s="2"/>
       <c r="AR244" s="2"/>
     </row>
-    <row r="245" spans="1:44" ht="16.5" customHeight="1">
+    <row r="245" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -12308,7 +12317,7 @@
       <c r="AQ245" s="2"/>
       <c r="AR245" s="2"/>
     </row>
-    <row r="246" spans="1:44" ht="16.5" customHeight="1">
+    <row r="246" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -12354,7 +12363,7 @@
       <c r="AQ246" s="2"/>
       <c r="AR246" s="2"/>
     </row>
-    <row r="247" spans="1:44" ht="16.5" customHeight="1">
+    <row r="247" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -12400,7 +12409,7 @@
       <c r="AQ247" s="2"/>
       <c r="AR247" s="2"/>
     </row>
-    <row r="248" spans="1:44" ht="16.5" customHeight="1">
+    <row r="248" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -12446,7 +12455,7 @@
       <c r="AQ248" s="2"/>
       <c r="AR248" s="2"/>
     </row>
-    <row r="249" spans="1:44" ht="16.5" customHeight="1">
+    <row r="249" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -12492,7 +12501,7 @@
       <c r="AQ249" s="2"/>
       <c r="AR249" s="2"/>
     </row>
-    <row r="250" spans="1:44" ht="16.5" customHeight="1">
+    <row r="250" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -12538,7 +12547,7 @@
       <c r="AQ250" s="2"/>
       <c r="AR250" s="2"/>
     </row>
-    <row r="251" spans="1:44" ht="16.5" customHeight="1">
+    <row r="251" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -12584,7 +12593,7 @@
       <c r="AQ251" s="2"/>
       <c r="AR251" s="2"/>
     </row>
-    <row r="252" spans="1:44" ht="16.5" customHeight="1">
+    <row r="252" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -12630,7 +12639,7 @@
       <c r="AQ252" s="2"/>
       <c r="AR252" s="2"/>
     </row>
-    <row r="253" spans="1:44" ht="16.5" customHeight="1">
+    <row r="253" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -12676,7 +12685,7 @@
       <c r="AQ253" s="2"/>
       <c r="AR253" s="2"/>
     </row>
-    <row r="254" spans="1:44" ht="16.5" customHeight="1">
+    <row r="254" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -12722,7 +12731,7 @@
       <c r="AQ254" s="2"/>
       <c r="AR254" s="2"/>
     </row>
-    <row r="255" spans="1:44" ht="16.5" customHeight="1">
+    <row r="255" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -12768,7 +12777,7 @@
       <c r="AQ255" s="2"/>
       <c r="AR255" s="2"/>
     </row>
-    <row r="256" spans="1:44" ht="16.5" customHeight="1">
+    <row r="256" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -12814,7 +12823,7 @@
       <c r="AQ256" s="2"/>
       <c r="AR256" s="2"/>
     </row>
-    <row r="257" spans="1:44" ht="16.5" customHeight="1">
+    <row r="257" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -12860,7 +12869,7 @@
       <c r="AQ257" s="2"/>
       <c r="AR257" s="2"/>
     </row>
-    <row r="258" spans="1:44" ht="16.5" customHeight="1">
+    <row r="258" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -12906,7 +12915,7 @@
       <c r="AQ258" s="2"/>
       <c r="AR258" s="2"/>
     </row>
-    <row r="259" spans="1:44" ht="16.5" customHeight="1">
+    <row r="259" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -12952,7 +12961,7 @@
       <c r="AQ259" s="2"/>
       <c r="AR259" s="2"/>
     </row>
-    <row r="260" spans="1:44" ht="16.5" customHeight="1">
+    <row r="260" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -12998,7 +13007,7 @@
       <c r="AQ260" s="2"/>
       <c r="AR260" s="2"/>
     </row>
-    <row r="261" spans="1:44" ht="16.5" customHeight="1">
+    <row r="261" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -13044,7 +13053,7 @@
       <c r="AQ261" s="2"/>
       <c r="AR261" s="2"/>
     </row>
-    <row r="262" spans="1:44" ht="16.5" customHeight="1">
+    <row r="262" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -13090,7 +13099,7 @@
       <c r="AQ262" s="2"/>
       <c r="AR262" s="2"/>
     </row>
-    <row r="263" spans="1:44" ht="16.5" customHeight="1">
+    <row r="263" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -13136,7 +13145,7 @@
       <c r="AQ263" s="2"/>
       <c r="AR263" s="2"/>
     </row>
-    <row r="264" spans="1:44" ht="16.5" customHeight="1">
+    <row r="264" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -13182,7 +13191,7 @@
       <c r="AQ264" s="2"/>
       <c r="AR264" s="2"/>
     </row>
-    <row r="265" spans="1:44" ht="16.5" customHeight="1">
+    <row r="265" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -13228,7 +13237,7 @@
       <c r="AQ265" s="2"/>
       <c r="AR265" s="2"/>
     </row>
-    <row r="266" spans="1:44" ht="16.5" customHeight="1">
+    <row r="266" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -13274,7 +13283,7 @@
       <c r="AQ266" s="2"/>
       <c r="AR266" s="2"/>
     </row>
-    <row r="267" spans="1:44" ht="16.5" customHeight="1">
+    <row r="267" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -13320,7 +13329,7 @@
       <c r="AQ267" s="2"/>
       <c r="AR267" s="2"/>
     </row>
-    <row r="268" spans="1:44" ht="16.5" customHeight="1">
+    <row r="268" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -13366,7 +13375,7 @@
       <c r="AQ268" s="2"/>
       <c r="AR268" s="2"/>
     </row>
-    <row r="269" spans="1:44" ht="16.5" customHeight="1">
+    <row r="269" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -13412,7 +13421,7 @@
       <c r="AQ269" s="2"/>
       <c r="AR269" s="2"/>
     </row>
-    <row r="270" spans="1:44" ht="16.5" customHeight="1">
+    <row r="270" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -13458,7 +13467,7 @@
       <c r="AQ270" s="2"/>
       <c r="AR270" s="2"/>
     </row>
-    <row r="271" spans="1:44" ht="16.5" customHeight="1">
+    <row r="271" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -13504,7 +13513,7 @@
       <c r="AQ271" s="2"/>
       <c r="AR271" s="2"/>
     </row>
-    <row r="272" spans="1:44" ht="16.5" customHeight="1">
+    <row r="272" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -13550,7 +13559,7 @@
       <c r="AQ272" s="2"/>
       <c r="AR272" s="2"/>
     </row>
-    <row r="273" spans="1:44" ht="16.5" customHeight="1">
+    <row r="273" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -13596,7 +13605,7 @@
       <c r="AQ273" s="2"/>
       <c r="AR273" s="2"/>
     </row>
-    <row r="274" spans="1:44" ht="16.5" customHeight="1">
+    <row r="274" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -13642,7 +13651,7 @@
       <c r="AQ274" s="2"/>
       <c r="AR274" s="2"/>
     </row>
-    <row r="275" spans="1:44" ht="16.5" customHeight="1">
+    <row r="275" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -13688,7 +13697,7 @@
       <c r="AQ275" s="2"/>
       <c r="AR275" s="2"/>
     </row>
-    <row r="276" spans="1:44" ht="16.5" customHeight="1">
+    <row r="276" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -13734,7 +13743,7 @@
       <c r="AQ276" s="2"/>
       <c r="AR276" s="2"/>
     </row>
-    <row r="277" spans="1:44" ht="16.5" customHeight="1">
+    <row r="277" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -13780,7 +13789,7 @@
       <c r="AQ277" s="2"/>
       <c r="AR277" s="2"/>
     </row>
-    <row r="278" spans="1:44" ht="16.5" customHeight="1">
+    <row r="278" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -13826,7 +13835,7 @@
       <c r="AQ278" s="2"/>
       <c r="AR278" s="2"/>
     </row>
-    <row r="279" spans="1:44" ht="16.5" customHeight="1">
+    <row r="279" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -13872,7 +13881,7 @@
       <c r="AQ279" s="2"/>
       <c r="AR279" s="2"/>
     </row>
-    <row r="280" spans="1:44" ht="16.5" customHeight="1">
+    <row r="280" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -13918,7 +13927,7 @@
       <c r="AQ280" s="2"/>
       <c r="AR280" s="2"/>
     </row>
-    <row r="281" spans="1:44" ht="16.5" customHeight="1">
+    <row r="281" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -13964,7 +13973,7 @@
       <c r="AQ281" s="2"/>
       <c r="AR281" s="2"/>
     </row>
-    <row r="282" spans="1:44" ht="16.5" customHeight="1">
+    <row r="282" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -14010,7 +14019,7 @@
       <c r="AQ282" s="2"/>
       <c r="AR282" s="2"/>
     </row>
-    <row r="283" spans="1:44" ht="16.5" customHeight="1">
+    <row r="283" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -14056,7 +14065,7 @@
       <c r="AQ283" s="2"/>
       <c r="AR283" s="2"/>
     </row>
-    <row r="284" spans="1:44" ht="16.5" customHeight="1">
+    <row r="284" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -14102,7 +14111,7 @@
       <c r="AQ284" s="2"/>
       <c r="AR284" s="2"/>
     </row>
-    <row r="285" spans="1:44" ht="16.5" customHeight="1">
+    <row r="285" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -14148,7 +14157,7 @@
       <c r="AQ285" s="2"/>
       <c r="AR285" s="2"/>
     </row>
-    <row r="286" spans="1:44" ht="16.5" customHeight="1">
+    <row r="286" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -14194,7 +14203,7 @@
       <c r="AQ286" s="2"/>
       <c r="AR286" s="2"/>
     </row>
-    <row r="287" spans="1:44" ht="16.5" customHeight="1">
+    <row r="287" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -14240,7 +14249,7 @@
       <c r="AQ287" s="2"/>
       <c r="AR287" s="2"/>
     </row>
-    <row r="288" spans="1:44" ht="16.5" customHeight="1">
+    <row r="288" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -14286,7 +14295,7 @@
       <c r="AQ288" s="2"/>
       <c r="AR288" s="2"/>
     </row>
-    <row r="289" spans="1:44" ht="16.5" customHeight="1">
+    <row r="289" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -14332,7 +14341,7 @@
       <c r="AQ289" s="2"/>
       <c r="AR289" s="2"/>
     </row>
-    <row r="290" spans="1:44" ht="16.5" customHeight="1">
+    <row r="290" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -14378,7 +14387,7 @@
       <c r="AQ290" s="2"/>
       <c r="AR290" s="2"/>
     </row>
-    <row r="291" spans="1:44" ht="16.5" customHeight="1">
+    <row r="291" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -14424,7 +14433,7 @@
       <c r="AQ291" s="2"/>
       <c r="AR291" s="2"/>
     </row>
-    <row r="292" spans="1:44" ht="16.5" customHeight="1">
+    <row r="292" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -14470,7 +14479,7 @@
       <c r="AQ292" s="2"/>
       <c r="AR292" s="2"/>
     </row>
-    <row r="293" spans="1:44" ht="16.5" customHeight="1">
+    <row r="293" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -14516,7 +14525,7 @@
       <c r="AQ293" s="2"/>
       <c r="AR293" s="2"/>
     </row>
-    <row r="294" spans="1:44" ht="16.5" customHeight="1">
+    <row r="294" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -14562,7 +14571,7 @@
       <c r="AQ294" s="2"/>
       <c r="AR294" s="2"/>
     </row>
-    <row r="295" spans="1:44" ht="16.5" customHeight="1">
+    <row r="295" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -14608,7 +14617,7 @@
       <c r="AQ295" s="2"/>
       <c r="AR295" s="2"/>
     </row>
-    <row r="296" spans="1:44" ht="16.5" customHeight="1">
+    <row r="296" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -14654,7 +14663,7 @@
       <c r="AQ296" s="2"/>
       <c r="AR296" s="2"/>
     </row>
-    <row r="297" spans="1:44" ht="16.5" customHeight="1">
+    <row r="297" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -14700,7 +14709,7 @@
       <c r="AQ297" s="2"/>
       <c r="AR297" s="2"/>
     </row>
-    <row r="298" spans="1:44" ht="16.5" customHeight="1">
+    <row r="298" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -14746,7 +14755,7 @@
       <c r="AQ298" s="2"/>
       <c r="AR298" s="2"/>
     </row>
-    <row r="299" spans="1:44" ht="16.5" customHeight="1">
+    <row r="299" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -14792,7 +14801,7 @@
       <c r="AQ299" s="2"/>
       <c r="AR299" s="2"/>
     </row>
-    <row r="300" spans="1:44" ht="16.5" customHeight="1">
+    <row r="300" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -14838,7 +14847,7 @@
       <c r="AQ300" s="2"/>
       <c r="AR300" s="2"/>
     </row>
-    <row r="301" spans="1:44" ht="16.5" customHeight="1">
+    <row r="301" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -14884,7 +14893,7 @@
       <c r="AQ301" s="2"/>
       <c r="AR301" s="2"/>
     </row>
-    <row r="302" spans="1:44" ht="16.5" customHeight="1">
+    <row r="302" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -14930,7 +14939,7 @@
       <c r="AQ302" s="2"/>
       <c r="AR302" s="2"/>
     </row>
-    <row r="303" spans="1:44" ht="16.5" customHeight="1">
+    <row r="303" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -14976,7 +14985,7 @@
       <c r="AQ303" s="2"/>
       <c r="AR303" s="2"/>
     </row>
-    <row r="304" spans="1:44" ht="16.5" customHeight="1">
+    <row r="304" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -15022,7 +15031,7 @@
       <c r="AQ304" s="2"/>
       <c r="AR304" s="2"/>
     </row>
-    <row r="305" spans="1:44" ht="16.5" customHeight="1">
+    <row r="305" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -15068,7 +15077,7 @@
       <c r="AQ305" s="2"/>
       <c r="AR305" s="2"/>
     </row>
-    <row r="306" spans="1:44" ht="16.5" customHeight="1">
+    <row r="306" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -15114,7 +15123,7 @@
       <c r="AQ306" s="2"/>
       <c r="AR306" s="2"/>
     </row>
-    <row r="307" spans="1:44" ht="16.5" customHeight="1">
+    <row r="307" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -15160,7 +15169,7 @@
       <c r="AQ307" s="2"/>
       <c r="AR307" s="2"/>
     </row>
-    <row r="308" spans="1:44" ht="16.5" customHeight="1">
+    <row r="308" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -15206,7 +15215,7 @@
       <c r="AQ308" s="2"/>
       <c r="AR308" s="2"/>
     </row>
-    <row r="309" spans="1:44" ht="16.5" customHeight="1">
+    <row r="309" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -15252,7 +15261,7 @@
       <c r="AQ309" s="2"/>
       <c r="AR309" s="2"/>
     </row>
-    <row r="310" spans="1:44" ht="16.5" customHeight="1">
+    <row r="310" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -15298,7 +15307,7 @@
       <c r="AQ310" s="2"/>
       <c r="AR310" s="2"/>
     </row>
-    <row r="311" spans="1:44" ht="16.5" customHeight="1">
+    <row r="311" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -15344,7 +15353,7 @@
       <c r="AQ311" s="2"/>
       <c r="AR311" s="2"/>
     </row>
-    <row r="312" spans="1:44" ht="16.5" customHeight="1">
+    <row r="312" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -15390,7 +15399,7 @@
       <c r="AQ312" s="2"/>
       <c r="AR312" s="2"/>
     </row>
-    <row r="313" spans="1:44" ht="16.5" customHeight="1">
+    <row r="313" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -15436,7 +15445,7 @@
       <c r="AQ313" s="2"/>
       <c r="AR313" s="2"/>
     </row>
-    <row r="314" spans="1:44" ht="16.5" customHeight="1">
+    <row r="314" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -15482,7 +15491,7 @@
       <c r="AQ314" s="2"/>
       <c r="AR314" s="2"/>
     </row>
-    <row r="315" spans="1:44" ht="16.5" customHeight="1">
+    <row r="315" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -15528,7 +15537,7 @@
       <c r="AQ315" s="2"/>
       <c r="AR315" s="2"/>
     </row>
-    <row r="316" spans="1:44" ht="16.5" customHeight="1">
+    <row r="316" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -15574,7 +15583,7 @@
       <c r="AQ316" s="2"/>
       <c r="AR316" s="2"/>
     </row>
-    <row r="317" spans="1:44" ht="16.5" customHeight="1">
+    <row r="317" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -15620,7 +15629,7 @@
       <c r="AQ317" s="2"/>
       <c r="AR317" s="2"/>
     </row>
-    <row r="318" spans="1:44" ht="16.5" customHeight="1">
+    <row r="318" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -15666,7 +15675,7 @@
       <c r="AQ318" s="2"/>
       <c r="AR318" s="2"/>
     </row>
-    <row r="319" spans="1:44" ht="16.5" customHeight="1">
+    <row r="319" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -15712,7 +15721,7 @@
       <c r="AQ319" s="2"/>
       <c r="AR319" s="2"/>
     </row>
-    <row r="320" spans="1:44" ht="16.5" customHeight="1">
+    <row r="320" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -15758,7 +15767,7 @@
       <c r="AQ320" s="2"/>
       <c r="AR320" s="2"/>
     </row>
-    <row r="321" spans="1:44" ht="16.5" customHeight="1">
+    <row r="321" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -15804,7 +15813,7 @@
       <c r="AQ321" s="2"/>
       <c r="AR321" s="2"/>
     </row>
-    <row r="322" spans="1:44" ht="16.5" customHeight="1">
+    <row r="322" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -15850,7 +15859,7 @@
       <c r="AQ322" s="2"/>
       <c r="AR322" s="2"/>
     </row>
-    <row r="323" spans="1:44" ht="16.5" customHeight="1">
+    <row r="323" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -15896,7 +15905,7 @@
       <c r="AQ323" s="2"/>
       <c r="AR323" s="2"/>
     </row>
-    <row r="324" spans="1:44" ht="16.5" customHeight="1">
+    <row r="324" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -15942,7 +15951,7 @@
       <c r="AQ324" s="2"/>
       <c r="AR324" s="2"/>
     </row>
-    <row r="325" spans="1:44" ht="16.5" customHeight="1">
+    <row r="325" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -15988,7 +15997,7 @@
       <c r="AQ325" s="2"/>
       <c r="AR325" s="2"/>
     </row>
-    <row r="326" spans="1:44" ht="16.5" customHeight="1">
+    <row r="326" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -16034,7 +16043,7 @@
       <c r="AQ326" s="2"/>
       <c r="AR326" s="2"/>
     </row>
-    <row r="327" spans="1:44" ht="16.5" customHeight="1">
+    <row r="327" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -16080,7 +16089,7 @@
       <c r="AQ327" s="2"/>
       <c r="AR327" s="2"/>
     </row>
-    <row r="328" spans="1:44" ht="16.5" customHeight="1">
+    <row r="328" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -16126,7 +16135,7 @@
       <c r="AQ328" s="2"/>
       <c r="AR328" s="2"/>
     </row>
-    <row r="329" spans="1:44" ht="16.5" customHeight="1">
+    <row r="329" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -16172,7 +16181,7 @@
       <c r="AQ329" s="2"/>
       <c r="AR329" s="2"/>
     </row>
-    <row r="330" spans="1:44" ht="16.5" customHeight="1">
+    <row r="330" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -16218,7 +16227,7 @@
       <c r="AQ330" s="2"/>
       <c r="AR330" s="2"/>
     </row>
-    <row r="331" spans="1:44" ht="16.5" customHeight="1">
+    <row r="331" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -16264,7 +16273,7 @@
       <c r="AQ331" s="2"/>
       <c r="AR331" s="2"/>
     </row>
-    <row r="332" spans="1:44" ht="16.5" customHeight="1">
+    <row r="332" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -16310,7 +16319,7 @@
       <c r="AQ332" s="2"/>
       <c r="AR332" s="2"/>
     </row>
-    <row r="333" spans="1:44" ht="16.5" customHeight="1">
+    <row r="333" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -16356,7 +16365,7 @@
       <c r="AQ333" s="2"/>
       <c r="AR333" s="2"/>
     </row>
-    <row r="334" spans="1:44" ht="16.5" customHeight="1">
+    <row r="334" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -16402,7 +16411,7 @@
       <c r="AQ334" s="2"/>
       <c r="AR334" s="2"/>
     </row>
-    <row r="335" spans="1:44" ht="16.5" customHeight="1">
+    <row r="335" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -16448,7 +16457,7 @@
       <c r="AQ335" s="2"/>
       <c r="AR335" s="2"/>
     </row>
-    <row r="336" spans="1:44" ht="16.5" customHeight="1">
+    <row r="336" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -16494,7 +16503,7 @@
       <c r="AQ336" s="2"/>
       <c r="AR336" s="2"/>
     </row>
-    <row r="337" spans="1:44" ht="16.5" customHeight="1">
+    <row r="337" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -16540,7 +16549,7 @@
       <c r="AQ337" s="2"/>
       <c r="AR337" s="2"/>
     </row>
-    <row r="338" spans="1:44" ht="16.5" customHeight="1">
+    <row r="338" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -16586,7 +16595,7 @@
       <c r="AQ338" s="2"/>
       <c r="AR338" s="2"/>
     </row>
-    <row r="339" spans="1:44" ht="16.5" customHeight="1">
+    <row r="339" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -16632,7 +16641,7 @@
       <c r="AQ339" s="2"/>
       <c r="AR339" s="2"/>
     </row>
-    <row r="340" spans="1:44" ht="16.5" customHeight="1">
+    <row r="340" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -16678,7 +16687,7 @@
       <c r="AQ340" s="2"/>
       <c r="AR340" s="2"/>
     </row>
-    <row r="341" spans="1:44" ht="16.5" customHeight="1">
+    <row r="341" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -16724,7 +16733,7 @@
       <c r="AQ341" s="2"/>
       <c r="AR341" s="2"/>
     </row>
-    <row r="342" spans="1:44" ht="16.5" customHeight="1">
+    <row r="342" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -16770,7 +16779,7 @@
       <c r="AQ342" s="2"/>
       <c r="AR342" s="2"/>
     </row>
-    <row r="343" spans="1:44" ht="16.5" customHeight="1">
+    <row r="343" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -16816,7 +16825,7 @@
       <c r="AQ343" s="2"/>
       <c r="AR343" s="2"/>
     </row>
-    <row r="344" spans="1:44" ht="16.5" customHeight="1">
+    <row r="344" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -16862,7 +16871,7 @@
       <c r="AQ344" s="2"/>
       <c r="AR344" s="2"/>
     </row>
-    <row r="345" spans="1:44" ht="16.5" customHeight="1">
+    <row r="345" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -16908,7 +16917,7 @@
       <c r="AQ345" s="2"/>
       <c r="AR345" s="2"/>
     </row>
-    <row r="346" spans="1:44" ht="16.5" customHeight="1">
+    <row r="346" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -16954,7 +16963,7 @@
       <c r="AQ346" s="2"/>
       <c r="AR346" s="2"/>
     </row>
-    <row r="347" spans="1:44" ht="16.5" customHeight="1">
+    <row r="347" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -17000,7 +17009,7 @@
       <c r="AQ347" s="2"/>
       <c r="AR347" s="2"/>
     </row>
-    <row r="348" spans="1:44" ht="16.5" customHeight="1">
+    <row r="348" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -17046,7 +17055,7 @@
       <c r="AQ348" s="2"/>
       <c r="AR348" s="2"/>
     </row>
-    <row r="349" spans="1:44" ht="16.5" customHeight="1">
+    <row r="349" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -17092,7 +17101,7 @@
       <c r="AQ349" s="2"/>
       <c r="AR349" s="2"/>
     </row>
-    <row r="350" spans="1:44" ht="16.5" customHeight="1">
+    <row r="350" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -17138,7 +17147,7 @@
       <c r="AQ350" s="2"/>
       <c r="AR350" s="2"/>
     </row>
-    <row r="351" spans="1:44" ht="16.5" customHeight="1">
+    <row r="351" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -17184,7 +17193,7 @@
       <c r="AQ351" s="2"/>
       <c r="AR351" s="2"/>
     </row>
-    <row r="352" spans="1:44" ht="16.5" customHeight="1">
+    <row r="352" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -17230,7 +17239,7 @@
       <c r="AQ352" s="2"/>
       <c r="AR352" s="2"/>
     </row>
-    <row r="353" spans="1:44" ht="16.5" customHeight="1">
+    <row r="353" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -17276,7 +17285,7 @@
       <c r="AQ353" s="2"/>
       <c r="AR353" s="2"/>
     </row>
-    <row r="354" spans="1:44" ht="16.5" customHeight="1">
+    <row r="354" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -17322,7 +17331,7 @@
       <c r="AQ354" s="2"/>
       <c r="AR354" s="2"/>
     </row>
-    <row r="355" spans="1:44" ht="16.5" customHeight="1">
+    <row r="355" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -17368,7 +17377,7 @@
       <c r="AQ355" s="2"/>
       <c r="AR355" s="2"/>
     </row>
-    <row r="356" spans="1:44" ht="16.5" customHeight="1">
+    <row r="356" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -17414,7 +17423,7 @@
       <c r="AQ356" s="2"/>
       <c r="AR356" s="2"/>
     </row>
-    <row r="357" spans="1:44" ht="16.5" customHeight="1">
+    <row r="357" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -17460,7 +17469,7 @@
       <c r="AQ357" s="2"/>
       <c r="AR357" s="2"/>
     </row>
-    <row r="358" spans="1:44" ht="16.5" customHeight="1">
+    <row r="358" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -17506,7 +17515,7 @@
       <c r="AQ358" s="2"/>
       <c r="AR358" s="2"/>
     </row>
-    <row r="359" spans="1:44" ht="16.5" customHeight="1">
+    <row r="359" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -17552,7 +17561,7 @@
       <c r="AQ359" s="2"/>
       <c r="AR359" s="2"/>
     </row>
-    <row r="360" spans="1:44" ht="16.5" customHeight="1">
+    <row r="360" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -17598,7 +17607,7 @@
       <c r="AQ360" s="2"/>
       <c r="AR360" s="2"/>
     </row>
-    <row r="361" spans="1:44" ht="16.5" customHeight="1">
+    <row r="361" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -17644,7 +17653,7 @@
       <c r="AQ361" s="2"/>
       <c r="AR361" s="2"/>
     </row>
-    <row r="362" spans="1:44" ht="16.5" customHeight="1">
+    <row r="362" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -17690,7 +17699,7 @@
       <c r="AQ362" s="2"/>
       <c r="AR362" s="2"/>
     </row>
-    <row r="363" spans="1:44" ht="16.5" customHeight="1">
+    <row r="363" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -17736,7 +17745,7 @@
       <c r="AQ363" s="2"/>
       <c r="AR363" s="2"/>
     </row>
-    <row r="364" spans="1:44" ht="16.5" customHeight="1">
+    <row r="364" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -17782,7 +17791,7 @@
       <c r="AQ364" s="2"/>
       <c r="AR364" s="2"/>
     </row>
-    <row r="365" spans="1:44" ht="16.5" customHeight="1">
+    <row r="365" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -17828,7 +17837,7 @@
       <c r="AQ365" s="2"/>
       <c r="AR365" s="2"/>
     </row>
-    <row r="366" spans="1:44" ht="16.5" customHeight="1">
+    <row r="366" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -17874,7 +17883,7 @@
       <c r="AQ366" s="2"/>
       <c r="AR366" s="2"/>
     </row>
-    <row r="367" spans="1:44" ht="16.5" customHeight="1">
+    <row r="367" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -17920,7 +17929,7 @@
       <c r="AQ367" s="2"/>
       <c r="AR367" s="2"/>
     </row>
-    <row r="368" spans="1:44" ht="16.5" customHeight="1">
+    <row r="368" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -17966,7 +17975,7 @@
       <c r="AQ368" s="2"/>
       <c r="AR368" s="2"/>
     </row>
-    <row r="369" spans="1:44" ht="16.5" customHeight="1">
+    <row r="369" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -18012,7 +18021,7 @@
       <c r="AQ369" s="2"/>
       <c r="AR369" s="2"/>
     </row>
-    <row r="370" spans="1:44" ht="16.5" customHeight="1">
+    <row r="370" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -18058,7 +18067,7 @@
       <c r="AQ370" s="2"/>
       <c r="AR370" s="2"/>
     </row>
-    <row r="371" spans="1:44" ht="16.5" customHeight="1">
+    <row r="371" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -18104,7 +18113,7 @@
       <c r="AQ371" s="2"/>
       <c r="AR371" s="2"/>
     </row>
-    <row r="372" spans="1:44" ht="16.5" customHeight="1">
+    <row r="372" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -18150,7 +18159,7 @@
       <c r="AQ372" s="2"/>
       <c r="AR372" s="2"/>
     </row>
-    <row r="373" spans="1:44" ht="16.5" customHeight="1">
+    <row r="373" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -18196,7 +18205,7 @@
       <c r="AQ373" s="2"/>
       <c r="AR373" s="2"/>
     </row>
-    <row r="374" spans="1:44" ht="16.5" customHeight="1">
+    <row r="374" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -18242,7 +18251,7 @@
       <c r="AQ374" s="2"/>
       <c r="AR374" s="2"/>
     </row>
-    <row r="375" spans="1:44" ht="16.5" customHeight="1">
+    <row r="375" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -18288,7 +18297,7 @@
       <c r="AQ375" s="2"/>
       <c r="AR375" s="2"/>
     </row>
-    <row r="376" spans="1:44" ht="16.5" customHeight="1">
+    <row r="376" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -18334,7 +18343,7 @@
       <c r="AQ376" s="2"/>
       <c r="AR376" s="2"/>
     </row>
-    <row r="377" spans="1:44" ht="16.5" customHeight="1">
+    <row r="377" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -18380,7 +18389,7 @@
       <c r="AQ377" s="2"/>
       <c r="AR377" s="2"/>
     </row>
-    <row r="378" spans="1:44" ht="16.5" customHeight="1">
+    <row r="378" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -18426,7 +18435,7 @@
       <c r="AQ378" s="2"/>
       <c r="AR378" s="2"/>
     </row>
-    <row r="379" spans="1:44" ht="16.5" customHeight="1">
+    <row r="379" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -18472,7 +18481,7 @@
       <c r="AQ379" s="2"/>
       <c r="AR379" s="2"/>
     </row>
-    <row r="380" spans="1:44" ht="16.5" customHeight="1">
+    <row r="380" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -18518,7 +18527,7 @@
       <c r="AQ380" s="2"/>
       <c r="AR380" s="2"/>
     </row>
-    <row r="381" spans="1:44" ht="16.5" customHeight="1">
+    <row r="381" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -18564,7 +18573,7 @@
       <c r="AQ381" s="2"/>
       <c r="AR381" s="2"/>
     </row>
-    <row r="382" spans="1:44" ht="16.5" customHeight="1">
+    <row r="382" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -18610,7 +18619,7 @@
       <c r="AQ382" s="2"/>
       <c r="AR382" s="2"/>
     </row>
-    <row r="383" spans="1:44" ht="16.5" customHeight="1">
+    <row r="383" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -18656,7 +18665,7 @@
       <c r="AQ383" s="2"/>
       <c r="AR383" s="2"/>
     </row>
-    <row r="384" spans="1:44" ht="16.5" customHeight="1">
+    <row r="384" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -18702,7 +18711,7 @@
       <c r="AQ384" s="2"/>
       <c r="AR384" s="2"/>
     </row>
-    <row r="385" spans="1:44" ht="16.5" customHeight="1">
+    <row r="385" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -18748,7 +18757,7 @@
       <c r="AQ385" s="2"/>
       <c r="AR385" s="2"/>
     </row>
-    <row r="386" spans="1:44" ht="16.5" customHeight="1">
+    <row r="386" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -18794,7 +18803,7 @@
       <c r="AQ386" s="2"/>
       <c r="AR386" s="2"/>
     </row>
-    <row r="387" spans="1:44" ht="16.5" customHeight="1">
+    <row r="387" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -18840,7 +18849,7 @@
       <c r="AQ387" s="2"/>
       <c r="AR387" s="2"/>
     </row>
-    <row r="388" spans="1:44" ht="16.5" customHeight="1">
+    <row r="388" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -18886,7 +18895,7 @@
       <c r="AQ388" s="2"/>
       <c r="AR388" s="2"/>
     </row>
-    <row r="389" spans="1:44" ht="16.5" customHeight="1">
+    <row r="389" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -18932,7 +18941,7 @@
       <c r="AQ389" s="2"/>
       <c r="AR389" s="2"/>
     </row>
-    <row r="390" spans="1:44" ht="16.5" customHeight="1">
+    <row r="390" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -18978,7 +18987,7 @@
       <c r="AQ390" s="2"/>
       <c r="AR390" s="2"/>
     </row>
-    <row r="391" spans="1:44" ht="16.5" customHeight="1">
+    <row r="391" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -19024,7 +19033,7 @@
       <c r="AQ391" s="2"/>
       <c r="AR391" s="2"/>
     </row>
-    <row r="392" spans="1:44" ht="16.5" customHeight="1">
+    <row r="392" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -19070,7 +19079,7 @@
       <c r="AQ392" s="2"/>
       <c r="AR392" s="2"/>
     </row>
-    <row r="393" spans="1:44" ht="16.5" customHeight="1">
+    <row r="393" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -19116,7 +19125,7 @@
       <c r="AQ393" s="2"/>
       <c r="AR393" s="2"/>
     </row>
-    <row r="394" spans="1:44" ht="16.5" customHeight="1">
+    <row r="394" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -19162,7 +19171,7 @@
       <c r="AQ394" s="2"/>
       <c r="AR394" s="2"/>
     </row>
-    <row r="395" spans="1:44" ht="16.5" customHeight="1">
+    <row r="395" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -19208,7 +19217,7 @@
       <c r="AQ395" s="2"/>
       <c r="AR395" s="2"/>
     </row>
-    <row r="396" spans="1:44" ht="16.5" customHeight="1">
+    <row r="396" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -19254,7 +19263,7 @@
       <c r="AQ396" s="2"/>
       <c r="AR396" s="2"/>
     </row>
-    <row r="397" spans="1:44" ht="16.5" customHeight="1">
+    <row r="397" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -19300,7 +19309,7 @@
       <c r="AQ397" s="2"/>
       <c r="AR397" s="2"/>
     </row>
-    <row r="398" spans="1:44" ht="16.5" customHeight="1">
+    <row r="398" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -19346,7 +19355,7 @@
       <c r="AQ398" s="2"/>
       <c r="AR398" s="2"/>
     </row>
-    <row r="399" spans="1:44" ht="16.5" customHeight="1">
+    <row r="399" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -19392,7 +19401,7 @@
       <c r="AQ399" s="2"/>
       <c r="AR399" s="2"/>
     </row>
-    <row r="400" spans="1:44" ht="16.5" customHeight="1">
+    <row r="400" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -19438,7 +19447,7 @@
       <c r="AQ400" s="2"/>
       <c r="AR400" s="2"/>
     </row>
-    <row r="401" spans="1:44" ht="16.5" customHeight="1">
+    <row r="401" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -19484,7 +19493,7 @@
       <c r="AQ401" s="2"/>
       <c r="AR401" s="2"/>
     </row>
-    <row r="402" spans="1:44" ht="16.5" customHeight="1">
+    <row r="402" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -19530,7 +19539,7 @@
       <c r="AQ402" s="2"/>
       <c r="AR402" s="2"/>
     </row>
-    <row r="403" spans="1:44" ht="16.5" customHeight="1">
+    <row r="403" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -19576,7 +19585,7 @@
       <c r="AQ403" s="2"/>
       <c r="AR403" s="2"/>
     </row>
-    <row r="404" spans="1:44" ht="16.5" customHeight="1">
+    <row r="404" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -19622,7 +19631,7 @@
       <c r="AQ404" s="2"/>
       <c r="AR404" s="2"/>
     </row>
-    <row r="405" spans="1:44" ht="16.5" customHeight="1">
+    <row r="405" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -19668,7 +19677,7 @@
       <c r="AQ405" s="2"/>
       <c r="AR405" s="2"/>
     </row>
-    <row r="406" spans="1:44" ht="16.5" customHeight="1">
+    <row r="406" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -19714,7 +19723,7 @@
       <c r="AQ406" s="2"/>
       <c r="AR406" s="2"/>
     </row>
-    <row r="407" spans="1:44" ht="16.5" customHeight="1">
+    <row r="407" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -19760,7 +19769,7 @@
       <c r="AQ407" s="2"/>
       <c r="AR407" s="2"/>
     </row>
-    <row r="408" spans="1:44" ht="16.5" customHeight="1">
+    <row r="408" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -19806,7 +19815,7 @@
       <c r="AQ408" s="2"/>
       <c r="AR408" s="2"/>
     </row>
-    <row r="409" spans="1:44" ht="16.5" customHeight="1">
+    <row r="409" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -19852,7 +19861,7 @@
       <c r="AQ409" s="2"/>
       <c r="AR409" s="2"/>
     </row>
-    <row r="410" spans="1:44" ht="16.5" customHeight="1">
+    <row r="410" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -19898,7 +19907,7 @@
       <c r="AQ410" s="2"/>
       <c r="AR410" s="2"/>
     </row>
-    <row r="411" spans="1:44" ht="16.5" customHeight="1">
+    <row r="411" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -19944,7 +19953,7 @@
       <c r="AQ411" s="2"/>
       <c r="AR411" s="2"/>
     </row>
-    <row r="412" spans="1:44" ht="16.5" customHeight="1">
+    <row r="412" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -19990,7 +19999,7 @@
       <c r="AQ412" s="2"/>
       <c r="AR412" s="2"/>
     </row>
-    <row r="413" spans="1:44" ht="16.5" customHeight="1">
+    <row r="413" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -20036,7 +20045,7 @@
       <c r="AQ413" s="2"/>
       <c r="AR413" s="2"/>
     </row>
-    <row r="414" spans="1:44" ht="16.5" customHeight="1">
+    <row r="414" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -20082,7 +20091,7 @@
       <c r="AQ414" s="2"/>
       <c r="AR414" s="2"/>
     </row>
-    <row r="415" spans="1:44" ht="16.5" customHeight="1">
+    <row r="415" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -20128,7 +20137,7 @@
       <c r="AQ415" s="2"/>
       <c r="AR415" s="2"/>
     </row>
-    <row r="416" spans="1:44" ht="16.5" customHeight="1">
+    <row r="416" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -20174,7 +20183,7 @@
       <c r="AQ416" s="2"/>
       <c r="AR416" s="2"/>
     </row>
-    <row r="417" spans="1:44" ht="16.5" customHeight="1">
+    <row r="417" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -20220,7 +20229,7 @@
       <c r="AQ417" s="2"/>
       <c r="AR417" s="2"/>
     </row>
-    <row r="418" spans="1:44" ht="16.5" customHeight="1">
+    <row r="418" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -20266,7 +20275,7 @@
       <c r="AQ418" s="2"/>
       <c r="AR418" s="2"/>
     </row>
-    <row r="419" spans="1:44" ht="16.5" customHeight="1">
+    <row r="419" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -20312,7 +20321,7 @@
       <c r="AQ419" s="2"/>
       <c r="AR419" s="2"/>
     </row>
-    <row r="420" spans="1:44" ht="16.5" customHeight="1">
+    <row r="420" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -20358,7 +20367,7 @@
       <c r="AQ420" s="2"/>
       <c r="AR420" s="2"/>
     </row>
-    <row r="421" spans="1:44" ht="16.5" customHeight="1">
+    <row r="421" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -20404,7 +20413,7 @@
       <c r="AQ421" s="2"/>
       <c r="AR421" s="2"/>
     </row>
-    <row r="422" spans="1:44" ht="16.5" customHeight="1">
+    <row r="422" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -20450,7 +20459,7 @@
       <c r="AQ422" s="2"/>
       <c r="AR422" s="2"/>
     </row>
-    <row r="423" spans="1:44" ht="16.5" customHeight="1">
+    <row r="423" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -20496,7 +20505,7 @@
       <c r="AQ423" s="2"/>
       <c r="AR423" s="2"/>
     </row>
-    <row r="424" spans="1:44" ht="16.5" customHeight="1">
+    <row r="424" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -20542,7 +20551,7 @@
       <c r="AQ424" s="2"/>
       <c r="AR424" s="2"/>
     </row>
-    <row r="425" spans="1:44" ht="16.5" customHeight="1">
+    <row r="425" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -20588,7 +20597,7 @@
       <c r="AQ425" s="2"/>
       <c r="AR425" s="2"/>
     </row>
-    <row r="426" spans="1:44" ht="16.5" customHeight="1">
+    <row r="426" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -20634,7 +20643,7 @@
       <c r="AQ426" s="2"/>
       <c r="AR426" s="2"/>
     </row>
-    <row r="427" spans="1:44" ht="16.5" customHeight="1">
+    <row r="427" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -20680,7 +20689,7 @@
       <c r="AQ427" s="2"/>
       <c r="AR427" s="2"/>
     </row>
-    <row r="428" spans="1:44" ht="16.5" customHeight="1">
+    <row r="428" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -20726,7 +20735,7 @@
       <c r="AQ428" s="2"/>
       <c r="AR428" s="2"/>
     </row>
-    <row r="429" spans="1:44" ht="16.5" customHeight="1">
+    <row r="429" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -20772,7 +20781,7 @@
       <c r="AQ429" s="2"/>
       <c r="AR429" s="2"/>
     </row>
-    <row r="430" spans="1:44" ht="16.5" customHeight="1">
+    <row r="430" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -20818,7 +20827,7 @@
       <c r="AQ430" s="2"/>
       <c r="AR430" s="2"/>
     </row>
-    <row r="431" spans="1:44" ht="16.5" customHeight="1">
+    <row r="431" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -20864,7 +20873,7 @@
       <c r="AQ431" s="2"/>
       <c r="AR431" s="2"/>
     </row>
-    <row r="432" spans="1:44" ht="16.5" customHeight="1">
+    <row r="432" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -20910,7 +20919,7 @@
       <c r="AQ432" s="2"/>
       <c r="AR432" s="2"/>
     </row>
-    <row r="433" spans="1:44" ht="16.5" customHeight="1">
+    <row r="433" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -20956,7 +20965,7 @@
       <c r="AQ433" s="2"/>
       <c r="AR433" s="2"/>
     </row>
-    <row r="434" spans="1:44" ht="16.5" customHeight="1">
+    <row r="434" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -21002,7 +21011,7 @@
       <c r="AQ434" s="2"/>
       <c r="AR434" s="2"/>
     </row>
-    <row r="435" spans="1:44" ht="16.5" customHeight="1">
+    <row r="435" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -21048,7 +21057,7 @@
       <c r="AQ435" s="2"/>
       <c r="AR435" s="2"/>
     </row>
-    <row r="436" spans="1:44" ht="16.5" customHeight="1">
+    <row r="436" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -21094,7 +21103,7 @@
       <c r="AQ436" s="2"/>
       <c r="AR436" s="2"/>
     </row>
-    <row r="437" spans="1:44" ht="16.5" customHeight="1">
+    <row r="437" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -21140,7 +21149,7 @@
       <c r="AQ437" s="2"/>
       <c r="AR437" s="2"/>
     </row>
-    <row r="438" spans="1:44" ht="16.5" customHeight="1">
+    <row r="438" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -21186,7 +21195,7 @@
       <c r="AQ438" s="2"/>
       <c r="AR438" s="2"/>
     </row>
-    <row r="439" spans="1:44" ht="16.5" customHeight="1">
+    <row r="439" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -21232,7 +21241,7 @@
       <c r="AQ439" s="2"/>
       <c r="AR439" s="2"/>
     </row>
-    <row r="440" spans="1:44" ht="16.5" customHeight="1">
+    <row r="440" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -21278,7 +21287,7 @@
       <c r="AQ440" s="2"/>
       <c r="AR440" s="2"/>
     </row>
-    <row r="441" spans="1:44" ht="16.5" customHeight="1">
+    <row r="441" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -21324,7 +21333,7 @@
       <c r="AQ441" s="2"/>
       <c r="AR441" s="2"/>
     </row>
-    <row r="442" spans="1:44" ht="16.5" customHeight="1">
+    <row r="442" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -21370,7 +21379,7 @@
       <c r="AQ442" s="2"/>
       <c r="AR442" s="2"/>
     </row>
-    <row r="443" spans="1:44" ht="16.5" customHeight="1">
+    <row r="443" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -21416,7 +21425,7 @@
       <c r="AQ443" s="2"/>
       <c r="AR443" s="2"/>
     </row>
-    <row r="444" spans="1:44" ht="16.5" customHeight="1">
+    <row r="444" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -21462,7 +21471,7 @@
       <c r="AQ444" s="2"/>
       <c r="AR444" s="2"/>
     </row>
-    <row r="445" spans="1:44" ht="16.5" customHeight="1">
+    <row r="445" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -21508,7 +21517,7 @@
       <c r="AQ445" s="2"/>
       <c r="AR445" s="2"/>
     </row>
-    <row r="446" spans="1:44" ht="16.5" customHeight="1">
+    <row r="446" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -21554,7 +21563,7 @@
       <c r="AQ446" s="2"/>
       <c r="AR446" s="2"/>
     </row>
-    <row r="447" spans="1:44" ht="16.5" customHeight="1">
+    <row r="447" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -21600,7 +21609,7 @@
       <c r="AQ447" s="2"/>
       <c r="AR447" s="2"/>
     </row>
-    <row r="448" spans="1:44" ht="16.5" customHeight="1">
+    <row r="448" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -21646,7 +21655,7 @@
       <c r="AQ448" s="2"/>
       <c r="AR448" s="2"/>
     </row>
-    <row r="449" spans="1:44" ht="16.5" customHeight="1">
+    <row r="449" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -21692,7 +21701,7 @@
       <c r="AQ449" s="2"/>
       <c r="AR449" s="2"/>
     </row>
-    <row r="450" spans="1:44" ht="16.5" customHeight="1">
+    <row r="450" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -21738,7 +21747,7 @@
       <c r="AQ450" s="2"/>
       <c r="AR450" s="2"/>
     </row>
-    <row r="451" spans="1:44" ht="16.5" customHeight="1">
+    <row r="451" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -21784,7 +21793,7 @@
       <c r="AQ451" s="2"/>
       <c r="AR451" s="2"/>
     </row>
-    <row r="452" spans="1:44" ht="16.5" customHeight="1">
+    <row r="452" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -21830,7 +21839,7 @@
       <c r="AQ452" s="2"/>
       <c r="AR452" s="2"/>
     </row>
-    <row r="453" spans="1:44" ht="16.5" customHeight="1">
+    <row r="453" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -21876,7 +21885,7 @@
       <c r="AQ453" s="2"/>
       <c r="AR453" s="2"/>
     </row>
-    <row r="454" spans="1:44" ht="16.5" customHeight="1">
+    <row r="454" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -21922,7 +21931,7 @@
       <c r="AQ454" s="2"/>
       <c r="AR454" s="2"/>
     </row>
-    <row r="455" spans="1:44" ht="16.5" customHeight="1">
+    <row r="455" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -21968,7 +21977,7 @@
       <c r="AQ455" s="2"/>
       <c r="AR455" s="2"/>
     </row>
-    <row r="456" spans="1:44" ht="16.5" customHeight="1">
+    <row r="456" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -22014,7 +22023,7 @@
       <c r="AQ456" s="2"/>
       <c r="AR456" s="2"/>
     </row>
-    <row r="457" spans="1:44" ht="16.5" customHeight="1">
+    <row r="457" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -22060,7 +22069,7 @@
       <c r="AQ457" s="2"/>
       <c r="AR457" s="2"/>
     </row>
-    <row r="458" spans="1:44" ht="16.5" customHeight="1">
+    <row r="458" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -22106,7 +22115,7 @@
       <c r="AQ458" s="2"/>
       <c r="AR458" s="2"/>
     </row>
-    <row r="459" spans="1:44" ht="16.5" customHeight="1">
+    <row r="459" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -22152,7 +22161,7 @@
       <c r="AQ459" s="2"/>
       <c r="AR459" s="2"/>
     </row>
-    <row r="460" spans="1:44" ht="16.5" customHeight="1">
+    <row r="460" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -22198,7 +22207,7 @@
       <c r="AQ460" s="2"/>
       <c r="AR460" s="2"/>
     </row>
-    <row r="461" spans="1:44" ht="16.5" customHeight="1">
+    <row r="461" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -22244,7 +22253,7 @@
       <c r="AQ461" s="2"/>
       <c r="AR461" s="2"/>
     </row>
-    <row r="462" spans="1:44" ht="16.5" customHeight="1">
+    <row r="462" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -22290,7 +22299,7 @@
       <c r="AQ462" s="2"/>
       <c r="AR462" s="2"/>
     </row>
-    <row r="463" spans="1:44" ht="16.5" customHeight="1">
+    <row r="463" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -22336,7 +22345,7 @@
       <c r="AQ463" s="2"/>
       <c r="AR463" s="2"/>
     </row>
-    <row r="464" spans="1:44" ht="16.5" customHeight="1">
+    <row r="464" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -22382,7 +22391,7 @@
       <c r="AQ464" s="2"/>
       <c r="AR464" s="2"/>
     </row>
-    <row r="465" spans="1:44" ht="16.5" customHeight="1">
+    <row r="465" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -22428,7 +22437,7 @@
       <c r="AQ465" s="2"/>
       <c r="AR465" s="2"/>
     </row>
-    <row r="466" spans="1:44" ht="16.5" customHeight="1">
+    <row r="466" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -22474,7 +22483,7 @@
       <c r="AQ466" s="2"/>
       <c r="AR466" s="2"/>
     </row>
-    <row r="467" spans="1:44" ht="16.5" customHeight="1">
+    <row r="467" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -22520,7 +22529,7 @@
       <c r="AQ467" s="2"/>
       <c r="AR467" s="2"/>
     </row>
-    <row r="468" spans="1:44" ht="16.5" customHeight="1">
+    <row r="468" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -22566,7 +22575,7 @@
       <c r="AQ468" s="2"/>
       <c r="AR468" s="2"/>
     </row>
-    <row r="469" spans="1:44" ht="16.5" customHeight="1">
+    <row r="469" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -22612,7 +22621,7 @@
       <c r="AQ469" s="2"/>
       <c r="AR469" s="2"/>
     </row>
-    <row r="470" spans="1:44" ht="16.5" customHeight="1">
+    <row r="470" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -22658,7 +22667,7 @@
       <c r="AQ470" s="2"/>
       <c r="AR470" s="2"/>
     </row>
-    <row r="471" spans="1:44" ht="16.5" customHeight="1">
+    <row r="471" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -22704,7 +22713,7 @@
       <c r="AQ471" s="2"/>
       <c r="AR471" s="2"/>
     </row>
-    <row r="472" spans="1:44" ht="16.5" customHeight="1">
+    <row r="472" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -22750,7 +22759,7 @@
       <c r="AQ472" s="2"/>
       <c r="AR472" s="2"/>
     </row>
-    <row r="473" spans="1:44" ht="16.5" customHeight="1">
+    <row r="473" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -22796,7 +22805,7 @@
       <c r="AQ473" s="2"/>
       <c r="AR473" s="2"/>
     </row>
-    <row r="474" spans="1:44" ht="16.5" customHeight="1">
+    <row r="474" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -22842,7 +22851,7 @@
       <c r="AQ474" s="2"/>
       <c r="AR474" s="2"/>
     </row>
-    <row r="475" spans="1:44" ht="16.5" customHeight="1">
+    <row r="475" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -22888,7 +22897,7 @@
       <c r="AQ475" s="2"/>
       <c r="AR475" s="2"/>
     </row>
-    <row r="476" spans="1:44" ht="16.5" customHeight="1">
+    <row r="476" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -22934,7 +22943,7 @@
       <c r="AQ476" s="2"/>
       <c r="AR476" s="2"/>
     </row>
-    <row r="477" spans="1:44" ht="16.5" customHeight="1">
+    <row r="477" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -22980,7 +22989,7 @@
       <c r="AQ477" s="2"/>
       <c r="AR477" s="2"/>
     </row>
-    <row r="478" spans="1:44" ht="16.5" customHeight="1">
+    <row r="478" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -23026,7 +23035,7 @@
       <c r="AQ478" s="2"/>
       <c r="AR478" s="2"/>
     </row>
-    <row r="479" spans="1:44" ht="16.5" customHeight="1">
+    <row r="479" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -23072,7 +23081,7 @@
       <c r="AQ479" s="2"/>
       <c r="AR479" s="2"/>
     </row>
-    <row r="480" spans="1:44" ht="16.5" customHeight="1">
+    <row r="480" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -23118,7 +23127,7 @@
       <c r="AQ480" s="2"/>
       <c r="AR480" s="2"/>
     </row>
-    <row r="481" spans="1:44" ht="16.5" customHeight="1">
+    <row r="481" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -23164,7 +23173,7 @@
       <c r="AQ481" s="2"/>
       <c r="AR481" s="2"/>
     </row>
-    <row r="482" spans="1:44" ht="16.5" customHeight="1">
+    <row r="482" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -23210,7 +23219,7 @@
       <c r="AQ482" s="2"/>
       <c r="AR482" s="2"/>
     </row>
-    <row r="483" spans="1:44" ht="16.5" customHeight="1">
+    <row r="483" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -23256,7 +23265,7 @@
       <c r="AQ483" s="2"/>
       <c r="AR483" s="2"/>
     </row>
-    <row r="484" spans="1:44" ht="16.5" customHeight="1">
+    <row r="484" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -23302,7 +23311,7 @@
       <c r="AQ484" s="2"/>
       <c r="AR484" s="2"/>
     </row>
-    <row r="485" spans="1:44" ht="16.5" customHeight="1">
+    <row r="485" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -23348,7 +23357,7 @@
       <c r="AQ485" s="2"/>
       <c r="AR485" s="2"/>
     </row>
-    <row r="486" spans="1:44" ht="16.5" customHeight="1">
+    <row r="486" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -23394,7 +23403,7 @@
       <c r="AQ486" s="2"/>
       <c r="AR486" s="2"/>
     </row>
-    <row r="487" spans="1:44" ht="16.5" customHeight="1">
+    <row r="487" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -23440,7 +23449,7 @@
       <c r="AQ487" s="2"/>
       <c r="AR487" s="2"/>
     </row>
-    <row r="488" spans="1:44" ht="16.5" customHeight="1">
+    <row r="488" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -23486,7 +23495,7 @@
       <c r="AQ488" s="2"/>
       <c r="AR488" s="2"/>
     </row>
-    <row r="489" spans="1:44" ht="16.5" customHeight="1">
+    <row r="489" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -23532,7 +23541,7 @@
       <c r="AQ489" s="2"/>
       <c r="AR489" s="2"/>
     </row>
-    <row r="490" spans="1:44" ht="16.5" customHeight="1">
+    <row r="490" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -23578,7 +23587,7 @@
       <c r="AQ490" s="2"/>
       <c r="AR490" s="2"/>
     </row>
-    <row r="491" spans="1:44" ht="16.5" customHeight="1">
+    <row r="491" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -23624,7 +23633,7 @@
       <c r="AQ491" s="2"/>
       <c r="AR491" s="2"/>
     </row>
-    <row r="492" spans="1:44" ht="16.5" customHeight="1">
+    <row r="492" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -23670,7 +23679,7 @@
       <c r="AQ492" s="2"/>
       <c r="AR492" s="2"/>
     </row>
-    <row r="493" spans="1:44" ht="16.5" customHeight="1">
+    <row r="493" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -23716,7 +23725,7 @@
       <c r="AQ493" s="2"/>
       <c r="AR493" s="2"/>
     </row>
-    <row r="494" spans="1:44" ht="16.5" customHeight="1">
+    <row r="494" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -23762,7 +23771,7 @@
       <c r="AQ494" s="2"/>
       <c r="AR494" s="2"/>
     </row>
-    <row r="495" spans="1:44" ht="16.5" customHeight="1">
+    <row r="495" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -23808,7 +23817,7 @@
       <c r="AQ495" s="2"/>
       <c r="AR495" s="2"/>
     </row>
-    <row r="496" spans="1:44" ht="16.5" customHeight="1">
+    <row r="496" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -23854,7 +23863,7 @@
       <c r="AQ496" s="2"/>
       <c r="AR496" s="2"/>
     </row>
-    <row r="497" spans="1:44" ht="16.5" customHeight="1">
+    <row r="497" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -23900,7 +23909,7 @@
       <c r="AQ497" s="2"/>
       <c r="AR497" s="2"/>
     </row>
-    <row r="498" spans="1:44" ht="16.5" customHeight="1">
+    <row r="498" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -23946,7 +23955,7 @@
       <c r="AQ498" s="2"/>
       <c r="AR498" s="2"/>
     </row>
-    <row r="499" spans="1:44" ht="16.5" customHeight="1">
+    <row r="499" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -23992,7 +24001,7 @@
       <c r="AQ499" s="2"/>
       <c r="AR499" s="2"/>
     </row>
-    <row r="500" spans="1:44" ht="16.5" customHeight="1">
+    <row r="500" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -24038,7 +24047,7 @@
       <c r="AQ500" s="2"/>
       <c r="AR500" s="2"/>
     </row>
-    <row r="501" spans="1:44" ht="16.5" customHeight="1">
+    <row r="501" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -24084,7 +24093,7 @@
       <c r="AQ501" s="2"/>
       <c r="AR501" s="2"/>
     </row>
-    <row r="502" spans="1:44" ht="16.5" customHeight="1">
+    <row r="502" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -24130,7 +24139,7 @@
       <c r="AQ502" s="2"/>
       <c r="AR502" s="2"/>
     </row>
-    <row r="503" spans="1:44" ht="16.5" customHeight="1">
+    <row r="503" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -24176,7 +24185,7 @@
       <c r="AQ503" s="2"/>
       <c r="AR503" s="2"/>
     </row>
-    <row r="504" spans="1:44" ht="16.5" customHeight="1">
+    <row r="504" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -24222,7 +24231,7 @@
       <c r="AQ504" s="2"/>
       <c r="AR504" s="2"/>
     </row>
-    <row r="505" spans="1:44" ht="16.5" customHeight="1">
+    <row r="505" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -24268,7 +24277,7 @@
       <c r="AQ505" s="2"/>
       <c r="AR505" s="2"/>
     </row>
-    <row r="506" spans="1:44" ht="16.5" customHeight="1">
+    <row r="506" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -24314,7 +24323,7 @@
       <c r="AQ506" s="2"/>
       <c r="AR506" s="2"/>
     </row>
-    <row r="507" spans="1:44" ht="16.5" customHeight="1">
+    <row r="507" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -24360,7 +24369,7 @@
       <c r="AQ507" s="2"/>
       <c r="AR507" s="2"/>
     </row>
-    <row r="508" spans="1:44" ht="16.5" customHeight="1">
+    <row r="508" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -24406,7 +24415,7 @@
       <c r="AQ508" s="2"/>
       <c r="AR508" s="2"/>
     </row>
-    <row r="509" spans="1:44" ht="16.5" customHeight="1">
+    <row r="509" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -24452,7 +24461,7 @@
       <c r="AQ509" s="2"/>
       <c r="AR509" s="2"/>
     </row>
-    <row r="510" spans="1:44" ht="16.5" customHeight="1">
+    <row r="510" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -24498,7 +24507,7 @@
       <c r="AQ510" s="2"/>
       <c r="AR510" s="2"/>
     </row>
-    <row r="511" spans="1:44" ht="16.5" customHeight="1">
+    <row r="511" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -24544,7 +24553,7 @@
       <c r="AQ511" s="2"/>
       <c r="AR511" s="2"/>
     </row>
-    <row r="512" spans="1:44" ht="16.5" customHeight="1">
+    <row r="512" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -24590,7 +24599,7 @@
       <c r="AQ512" s="2"/>
       <c r="AR512" s="2"/>
     </row>
-    <row r="513" spans="1:44" ht="16.5" customHeight="1">
+    <row r="513" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -24636,7 +24645,7 @@
       <c r="AQ513" s="2"/>
       <c r="AR513" s="2"/>
     </row>
-    <row r="514" spans="1:44" ht="16.5" customHeight="1">
+    <row r="514" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -24682,7 +24691,7 @@
       <c r="AQ514" s="2"/>
       <c r="AR514" s="2"/>
     </row>
-    <row r="515" spans="1:44" ht="16.5" customHeight="1">
+    <row r="515" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -24728,7 +24737,7 @@
       <c r="AQ515" s="2"/>
       <c r="AR515" s="2"/>
     </row>
-    <row r="516" spans="1:44" ht="16.5" customHeight="1">
+    <row r="516" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -24774,7 +24783,7 @@
       <c r="AQ516" s="2"/>
       <c r="AR516" s="2"/>
     </row>
-    <row r="517" spans="1:44" ht="16.5" customHeight="1">
+    <row r="517" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -24820,7 +24829,7 @@
       <c r="AQ517" s="2"/>
       <c r="AR517" s="2"/>
     </row>
-    <row r="518" spans="1:44" ht="16.5" customHeight="1">
+    <row r="518" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -24866,7 +24875,7 @@
       <c r="AQ518" s="2"/>
       <c r="AR518" s="2"/>
     </row>
-    <row r="519" spans="1:44" ht="16.5" customHeight="1">
+    <row r="519" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -24912,7 +24921,7 @@
       <c r="AQ519" s="2"/>
       <c r="AR519" s="2"/>
     </row>
-    <row r="520" spans="1:44" ht="16.5" customHeight="1">
+    <row r="520" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -24958,7 +24967,7 @@
       <c r="AQ520" s="2"/>
       <c r="AR520" s="2"/>
     </row>
-    <row r="521" spans="1:44" ht="16.5" customHeight="1">
+    <row r="521" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -25004,7 +25013,7 @@
       <c r="AQ521" s="2"/>
       <c r="AR521" s="2"/>
     </row>
-    <row r="522" spans="1:44" ht="16.5" customHeight="1">
+    <row r="522" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -25050,7 +25059,7 @@
       <c r="AQ522" s="2"/>
       <c r="AR522" s="2"/>
     </row>
-    <row r="523" spans="1:44" ht="16.5" customHeight="1">
+    <row r="523" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -25096,7 +25105,7 @@
       <c r="AQ523" s="2"/>
       <c r="AR523" s="2"/>
     </row>
-    <row r="524" spans="1:44" ht="16.5" customHeight="1">
+    <row r="524" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -25142,7 +25151,7 @@
       <c r="AQ524" s="2"/>
       <c r="AR524" s="2"/>
     </row>
-    <row r="525" spans="1:44" ht="16.5" customHeight="1">
+    <row r="525" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -25188,7 +25197,7 @@
       <c r="AQ525" s="2"/>
       <c r="AR525" s="2"/>
     </row>
-    <row r="526" spans="1:44" ht="16.5" customHeight="1">
+    <row r="526" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -25234,7 +25243,7 @@
       <c r="AQ526" s="2"/>
       <c r="AR526" s="2"/>
     </row>
-    <row r="527" spans="1:44" ht="16.5" customHeight="1">
+    <row r="527" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -25280,7 +25289,7 @@
       <c r="AQ527" s="2"/>
       <c r="AR527" s="2"/>
     </row>
-    <row r="528" spans="1:44" ht="16.5" customHeight="1">
+    <row r="528" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -25326,7 +25335,7 @@
       <c r="AQ528" s="2"/>
       <c r="AR528" s="2"/>
     </row>
-    <row r="529" spans="1:44" ht="16.5" customHeight="1">
+    <row r="529" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -25372,7 +25381,7 @@
       <c r="AQ529" s="2"/>
       <c r="AR529" s="2"/>
     </row>
-    <row r="530" spans="1:44" ht="16.5" customHeight="1">
+    <row r="530" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -25418,7 +25427,7 @@
       <c r="AQ530" s="2"/>
       <c r="AR530" s="2"/>
     </row>
-    <row r="531" spans="1:44" ht="16.5" customHeight="1">
+    <row r="531" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -25464,7 +25473,7 @@
       <c r="AQ531" s="2"/>
       <c r="AR531" s="2"/>
     </row>
-    <row r="532" spans="1:44" ht="16.5" customHeight="1">
+    <row r="532" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -25510,7 +25519,7 @@
       <c r="AQ532" s="2"/>
       <c r="AR532" s="2"/>
     </row>
-    <row r="533" spans="1:44" ht="16.5" customHeight="1">
+    <row r="533" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -25556,7 +25565,7 @@
       <c r="AQ533" s="2"/>
       <c r="AR533" s="2"/>
     </row>
-    <row r="534" spans="1:44" ht="16.5" customHeight="1">
+    <row r="534" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -25602,7 +25611,7 @@
       <c r="AQ534" s="2"/>
       <c r="AR534" s="2"/>
     </row>
-    <row r="535" spans="1:44" ht="16.5" customHeight="1">
+    <row r="535" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -25648,7 +25657,7 @@
       <c r="AQ535" s="2"/>
       <c r="AR535" s="2"/>
     </row>
-    <row r="536" spans="1:44" ht="16.5" customHeight="1">
+    <row r="536" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -25694,7 +25703,7 @@
       <c r="AQ536" s="2"/>
       <c r="AR536" s="2"/>
     </row>
-    <row r="537" spans="1:44" ht="16.5" customHeight="1">
+    <row r="537" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -25740,7 +25749,7 @@
       <c r="AQ537" s="2"/>
       <c r="AR537" s="2"/>
     </row>
-    <row r="538" spans="1:44" ht="16.5" customHeight="1">
+    <row r="538" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -25786,7 +25795,7 @@
       <c r="AQ538" s="2"/>
       <c r="AR538" s="2"/>
     </row>
-    <row r="539" spans="1:44" ht="16.5" customHeight="1">
+    <row r="539" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -25832,7 +25841,7 @@
       <c r="AQ539" s="2"/>
       <c r="AR539" s="2"/>
     </row>
-    <row r="540" spans="1:44" ht="16.5" customHeight="1">
+    <row r="540" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -25878,7 +25887,7 @@
       <c r="AQ540" s="2"/>
       <c r="AR540" s="2"/>
     </row>
-    <row r="541" spans="1:44" ht="16.5" customHeight="1">
+    <row r="541" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -25924,7 +25933,7 @@
       <c r="AQ541" s="2"/>
       <c r="AR541" s="2"/>
     </row>
-    <row r="542" spans="1:44" ht="16.5" customHeight="1">
+    <row r="542" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -25970,7 +25979,7 @@
       <c r="AQ542" s="2"/>
       <c r="AR542" s="2"/>
     </row>
-    <row r="543" spans="1:44" ht="16.5" customHeight="1">
+    <row r="543" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -26016,7 +26025,7 @@
       <c r="AQ543" s="2"/>
       <c r="AR543" s="2"/>
     </row>
-    <row r="544" spans="1:44" ht="16.5" customHeight="1">
+    <row r="544" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -26062,7 +26071,7 @@
       <c r="AQ544" s="2"/>
       <c r="AR544" s="2"/>
     </row>
-    <row r="545" spans="1:44" ht="16.5" customHeight="1">
+    <row r="545" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -26108,7 +26117,7 @@
       <c r="AQ545" s="2"/>
       <c r="AR545" s="2"/>
     </row>
-    <row r="546" spans="1:44" ht="16.5" customHeight="1">
+    <row r="546" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -26154,7 +26163,7 @@
       <c r="AQ546" s="2"/>
       <c r="AR546" s="2"/>
     </row>
-    <row r="547" spans="1:44" ht="16.5" customHeight="1">
+    <row r="547" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -26200,7 +26209,7 @@
       <c r="AQ547" s="2"/>
       <c r="AR547" s="2"/>
     </row>
-    <row r="548" spans="1:44" ht="16.5" customHeight="1">
+    <row r="548" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -26246,7 +26255,7 @@
       <c r="AQ548" s="2"/>
       <c r="AR548" s="2"/>
     </row>
-    <row r="549" spans="1:44" ht="16.5" customHeight="1">
+    <row r="549" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -26292,7 +26301,7 @@
       <c r="AQ549" s="2"/>
       <c r="AR549" s="2"/>
     </row>
-    <row r="550" spans="1:44" ht="16.5" customHeight="1">
+    <row r="550" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -26338,7 +26347,7 @@
       <c r="AQ550" s="2"/>
       <c r="AR550" s="2"/>
     </row>
-    <row r="551" spans="1:44" ht="16.5" customHeight="1">
+    <row r="551" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -26384,7 +26393,7 @@
       <c r="AQ551" s="2"/>
       <c r="AR551" s="2"/>
     </row>
-    <row r="552" spans="1:44" ht="16.5" customHeight="1">
+    <row r="552" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -26430,7 +26439,7 @@
       <c r="AQ552" s="2"/>
       <c r="AR552" s="2"/>
     </row>
-    <row r="553" spans="1:44" ht="16.5" customHeight="1">
+    <row r="553" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -26476,7 +26485,7 @@
       <c r="AQ553" s="2"/>
       <c r="AR553" s="2"/>
     </row>
-    <row r="554" spans="1:44" ht="16.5" customHeight="1">
+    <row r="554" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -26522,7 +26531,7 @@
       <c r="AQ554" s="2"/>
       <c r="AR554" s="2"/>
     </row>
-    <row r="555" spans="1:44" ht="16.5" customHeight="1">
+    <row r="555" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -26568,7 +26577,7 @@
       <c r="AQ555" s="2"/>
       <c r="AR555" s="2"/>
     </row>
-    <row r="556" spans="1:44" ht="16.5" customHeight="1">
+    <row r="556" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -26614,7 +26623,7 @@
       <c r="AQ556" s="2"/>
       <c r="AR556" s="2"/>
     </row>
-    <row r="557" spans="1:44" ht="16.5" customHeight="1">
+    <row r="557" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -26660,7 +26669,7 @@
       <c r="AQ557" s="2"/>
       <c r="AR557" s="2"/>
     </row>
-    <row r="558" spans="1:44" ht="16.5" customHeight="1">
+    <row r="558" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -26706,7 +26715,7 @@
       <c r="AQ558" s="2"/>
       <c r="AR558" s="2"/>
     </row>
-    <row r="559" spans="1:44" ht="16.5" customHeight="1">
+    <row r="559" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -26752,7 +26761,7 @@
       <c r="AQ559" s="2"/>
       <c r="AR559" s="2"/>
     </row>
-    <row r="560" spans="1:44" ht="16.5" customHeight="1">
+    <row r="560" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -26798,7 +26807,7 @@
       <c r="AQ560" s="2"/>
       <c r="AR560" s="2"/>
     </row>
-    <row r="561" spans="1:44" ht="16.5" customHeight="1">
+    <row r="561" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -26844,7 +26853,7 @@
       <c r="AQ561" s="2"/>
       <c r="AR561" s="2"/>
     </row>
-    <row r="562" spans="1:44" ht="16.5" customHeight="1">
+    <row r="562" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -26890,7 +26899,7 @@
       <c r="AQ562" s="2"/>
       <c r="AR562" s="2"/>
     </row>
-    <row r="563" spans="1:44" ht="16.5" customHeight="1">
+    <row r="563" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -26936,7 +26945,7 @@
       <c r="AQ563" s="2"/>
       <c r="AR563" s="2"/>
     </row>
-    <row r="564" spans="1:44" ht="16.5" customHeight="1">
+    <row r="564" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -26982,7 +26991,7 @@
       <c r="AQ564" s="2"/>
       <c r="AR564" s="2"/>
     </row>
-    <row r="565" spans="1:44" ht="16.5" customHeight="1">
+    <row r="565" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -27028,7 +27037,7 @@
       <c r="AQ565" s="2"/>
       <c r="AR565" s="2"/>
     </row>
-    <row r="566" spans="1:44" ht="16.5" customHeight="1">
+    <row r="566" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -27074,7 +27083,7 @@
       <c r="AQ566" s="2"/>
       <c r="AR566" s="2"/>
     </row>
-    <row r="567" spans="1:44" ht="16.5" customHeight="1">
+    <row r="567" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -27120,7 +27129,7 @@
       <c r="AQ567" s="2"/>
       <c r="AR567" s="2"/>
     </row>
-    <row r="568" spans="1:44" ht="16.5" customHeight="1">
+    <row r="568" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -27166,7 +27175,7 @@
       <c r="AQ568" s="2"/>
       <c r="AR568" s="2"/>
     </row>
-    <row r="569" spans="1:44" ht="16.5" customHeight="1">
+    <row r="569" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -27212,7 +27221,7 @@
       <c r="AQ569" s="2"/>
       <c r="AR569" s="2"/>
     </row>
-    <row r="570" spans="1:44" ht="16.5" customHeight="1">
+    <row r="570" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -27258,7 +27267,7 @@
       <c r="AQ570" s="2"/>
       <c r="AR570" s="2"/>
     </row>
-    <row r="571" spans="1:44" ht="16.5" customHeight="1">
+    <row r="571" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -27304,7 +27313,7 @@
       <c r="AQ571" s="2"/>
       <c r="AR571" s="2"/>
     </row>
-    <row r="572" spans="1:44" ht="16.5" customHeight="1">
+    <row r="572" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -27350,7 +27359,7 @@
       <c r="AQ572" s="2"/>
       <c r="AR572" s="2"/>
     </row>
-    <row r="573" spans="1:44" ht="16.5" customHeight="1">
+    <row r="573" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -27396,7 +27405,7 @@
       <c r="AQ573" s="2"/>
       <c r="AR573" s="2"/>
     </row>
-    <row r="574" spans="1:44" ht="16.5" customHeight="1">
+    <row r="574" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -27442,7 +27451,7 @@
       <c r="AQ574" s="2"/>
       <c r="AR574" s="2"/>
     </row>
-    <row r="575" spans="1:44" ht="16.5" customHeight="1">
+    <row r="575" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -27488,7 +27497,7 @@
       <c r="AQ575" s="2"/>
       <c r="AR575" s="2"/>
     </row>
-    <row r="576" spans="1:44" ht="16.5" customHeight="1">
+    <row r="576" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -27534,7 +27543,7 @@
       <c r="AQ576" s="2"/>
       <c r="AR576" s="2"/>
     </row>
-    <row r="577" spans="1:44" ht="16.5" customHeight="1">
+    <row r="577" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -27580,7 +27589,7 @@
       <c r="AQ577" s="2"/>
       <c r="AR577" s="2"/>
     </row>
-    <row r="578" spans="1:44" ht="16.5" customHeight="1">
+    <row r="578" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -27626,7 +27635,7 @@
       <c r="AQ578" s="2"/>
       <c r="AR578" s="2"/>
     </row>
-    <row r="579" spans="1:44" ht="16.5" customHeight="1">
+    <row r="579" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -27672,7 +27681,7 @@
       <c r="AQ579" s="2"/>
       <c r="AR579" s="2"/>
     </row>
-    <row r="580" spans="1:44" ht="16.5" customHeight="1">
+    <row r="580" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -27718,7 +27727,7 @@
       <c r="AQ580" s="2"/>
       <c r="AR580" s="2"/>
     </row>
-    <row r="581" spans="1:44" ht="16.5" customHeight="1">
+    <row r="581" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -27764,7 +27773,7 @@
       <c r="AQ581" s="2"/>
       <c r="AR581" s="2"/>
     </row>
-    <row r="582" spans="1:44" ht="16.5" customHeight="1">
+    <row r="582" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -27810,7 +27819,7 @@
       <c r="AQ582" s="2"/>
       <c r="AR582" s="2"/>
     </row>
-    <row r="583" spans="1:44" ht="16.5" customHeight="1">
+    <row r="583" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -27856,7 +27865,7 @@
       <c r="AQ583" s="2"/>
       <c r="AR583" s="2"/>
     </row>
-    <row r="584" spans="1:44" ht="16.5" customHeight="1">
+    <row r="584" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -27902,7 +27911,7 @@
       <c r="AQ584" s="2"/>
       <c r="AR584" s="2"/>
     </row>
-    <row r="585" spans="1:44" ht="16.5" customHeight="1">
+    <row r="585" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -27948,7 +27957,7 @@
       <c r="AQ585" s="2"/>
       <c r="AR585" s="2"/>
     </row>
-    <row r="586" spans="1:44" ht="16.5" customHeight="1">
+    <row r="586" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -27994,7 +28003,7 @@
       <c r="AQ586" s="2"/>
       <c r="AR586" s="2"/>
     </row>
-    <row r="587" spans="1:44" ht="16.5" customHeight="1">
+    <row r="587" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -28040,7 +28049,7 @@
       <c r="AQ587" s="2"/>
       <c r="AR587" s="2"/>
     </row>
-    <row r="588" spans="1:44" ht="16.5" customHeight="1">
+    <row r="588" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -28086,7 +28095,7 @@
       <c r="AQ588" s="2"/>
       <c r="AR588" s="2"/>
     </row>
-    <row r="589" spans="1:44" ht="16.5" customHeight="1">
+    <row r="589" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -28132,7 +28141,7 @@
       <c r="AQ589" s="2"/>
       <c r="AR589" s="2"/>
     </row>
-    <row r="590" spans="1:44" ht="16.5" customHeight="1">
+    <row r="590" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -28178,7 +28187,7 @@
       <c r="AQ590" s="2"/>
       <c r="AR590" s="2"/>
     </row>
-    <row r="591" spans="1:44" ht="16.5" customHeight="1">
+    <row r="591" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -28224,7 +28233,7 @@
       <c r="AQ591" s="2"/>
       <c r="AR591" s="2"/>
     </row>
-    <row r="592" spans="1:44" ht="16.5" customHeight="1">
+    <row r="592" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -28270,7 +28279,7 @@
       <c r="AQ592" s="2"/>
       <c r="AR592" s="2"/>
     </row>
-    <row r="593" spans="1:44" ht="16.5" customHeight="1">
+    <row r="593" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -28316,7 +28325,7 @@
       <c r="AQ593" s="2"/>
       <c r="AR593" s="2"/>
     </row>
-    <row r="594" spans="1:44" ht="16.5" customHeight="1">
+    <row r="594" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -28362,7 +28371,7 @@
       <c r="AQ594" s="2"/>
       <c r="AR594" s="2"/>
     </row>
-    <row r="595" spans="1:44" ht="16.5" customHeight="1">
+    <row r="595" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -28408,7 +28417,7 @@
       <c r="AQ595" s="2"/>
       <c r="AR595" s="2"/>
     </row>
-    <row r="596" spans="1:44" ht="16.5" customHeight="1">
+    <row r="596" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -28454,7 +28463,7 @@
       <c r="AQ596" s="2"/>
       <c r="AR596" s="2"/>
     </row>
-    <row r="597" spans="1:44" ht="16.5" customHeight="1">
+    <row r="597" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -28500,7 +28509,7 @@
       <c r="AQ597" s="2"/>
       <c r="AR597" s="2"/>
     </row>
-    <row r="598" spans="1:44" ht="16.5" customHeight="1">
+    <row r="598" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -28546,7 +28555,7 @@
       <c r="AQ598" s="2"/>
       <c r="AR598" s="2"/>
     </row>
-    <row r="599" spans="1:44" ht="16.5" customHeight="1">
+    <row r="599" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -28592,7 +28601,7 @@
       <c r="AQ599" s="2"/>
       <c r="AR599" s="2"/>
     </row>
-    <row r="600" spans="1:44" ht="16.5" customHeight="1">
+    <row r="600" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -28638,7 +28647,7 @@
       <c r="AQ600" s="2"/>
       <c r="AR600" s="2"/>
     </row>
-    <row r="601" spans="1:44" ht="16.5" customHeight="1">
+    <row r="601" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -28684,7 +28693,7 @@
       <c r="AQ601" s="2"/>
       <c r="AR601" s="2"/>
     </row>
-    <row r="602" spans="1:44" ht="16.5" customHeight="1">
+    <row r="602" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -28730,7 +28739,7 @@
       <c r="AQ602" s="2"/>
       <c r="AR602" s="2"/>
     </row>
-    <row r="603" spans="1:44" ht="16.5" customHeight="1">
+    <row r="603" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -28776,7 +28785,7 @@
       <c r="AQ603" s="2"/>
       <c r="AR603" s="2"/>
     </row>
-    <row r="604" spans="1:44" ht="16.5" customHeight="1">
+    <row r="604" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -28822,7 +28831,7 @@
       <c r="AQ604" s="2"/>
       <c r="AR604" s="2"/>
     </row>
-    <row r="605" spans="1:44" ht="16.5" customHeight="1">
+    <row r="605" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -28868,7 +28877,7 @@
       <c r="AQ605" s="2"/>
       <c r="AR605" s="2"/>
     </row>
-    <row r="606" spans="1:44" ht="16.5" customHeight="1">
+    <row r="606" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -28914,7 +28923,7 @@
       <c r="AQ606" s="2"/>
       <c r="AR606" s="2"/>
     </row>
-    <row r="607" spans="1:44" ht="16.5" customHeight="1">
+    <row r="607" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -28960,7 +28969,7 @@
       <c r="AQ607" s="2"/>
       <c r="AR607" s="2"/>
     </row>
-    <row r="608" spans="1:44" ht="16.5" customHeight="1">
+    <row r="608" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -29006,7 +29015,7 @@
       <c r="AQ608" s="2"/>
       <c r="AR608" s="2"/>
     </row>
-    <row r="609" spans="1:44" ht="16.5" customHeight="1">
+    <row r="609" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -29052,7 +29061,7 @@
       <c r="AQ609" s="2"/>
       <c r="AR609" s="2"/>
     </row>
-    <row r="610" spans="1:44" ht="16.5" customHeight="1">
+    <row r="610" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -29098,7 +29107,7 @@
       <c r="AQ610" s="2"/>
       <c r="AR610" s="2"/>
     </row>
-    <row r="611" spans="1:44" ht="16.5" customHeight="1">
+    <row r="611" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -29144,7 +29153,7 @@
       <c r="AQ611" s="2"/>
       <c r="AR611" s="2"/>
     </row>
-    <row r="612" spans="1:44" ht="16.5" customHeight="1">
+    <row r="612" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -29190,7 +29199,7 @@
       <c r="AQ612" s="2"/>
       <c r="AR612" s="2"/>
     </row>
-    <row r="613" spans="1:44" ht="16.5" customHeight="1">
+    <row r="613" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -29236,7 +29245,7 @@
       <c r="AQ613" s="2"/>
       <c r="AR613" s="2"/>
     </row>
-    <row r="614" spans="1:44" ht="16.5" customHeight="1">
+    <row r="614" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -29282,7 +29291,7 @@
       <c r="AQ614" s="2"/>
       <c r="AR614" s="2"/>
     </row>
-    <row r="615" spans="1:44" ht="16.5" customHeight="1">
+    <row r="615" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -29328,7 +29337,7 @@
       <c r="AQ615" s="2"/>
       <c r="AR615" s="2"/>
     </row>
-    <row r="616" spans="1:44" ht="16.5" customHeight="1">
+    <row r="616" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -29374,7 +29383,7 @@
       <c r="AQ616" s="2"/>
       <c r="AR616" s="2"/>
     </row>
-    <row r="617" spans="1:44" ht="16.5" customHeight="1">
+    <row r="617" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -29420,7 +29429,7 @@
       <c r="AQ617" s="2"/>
       <c r="AR617" s="2"/>
     </row>
-    <row r="618" spans="1:44" ht="16.5" customHeight="1">
+    <row r="618" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -29466,7 +29475,7 @@
       <c r="AQ618" s="2"/>
       <c r="AR618" s="2"/>
     </row>
-    <row r="619" spans="1:44" ht="16.5" customHeight="1">
+    <row r="619" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -29512,7 +29521,7 @@
       <c r="AQ619" s="2"/>
       <c r="AR619" s="2"/>
     </row>
-    <row r="620" spans="1:44" ht="16.5" customHeight="1">
+    <row r="620" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -29558,7 +29567,7 @@
       <c r="AQ620" s="2"/>
       <c r="AR620" s="2"/>
     </row>
-    <row r="621" spans="1:44" ht="16.5" customHeight="1">
+    <row r="621" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -29604,7 +29613,7 @@
       <c r="AQ621" s="2"/>
       <c r="AR621" s="2"/>
     </row>
-    <row r="622" spans="1:44" ht="16.5" customHeight="1">
+    <row r="622" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -29650,7 +29659,7 @@
       <c r="AQ622" s="2"/>
       <c r="AR622" s="2"/>
     </row>
-    <row r="623" spans="1:44" ht="16.5" customHeight="1">
+    <row r="623" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -29696,7 +29705,7 @@
       <c r="AQ623" s="2"/>
       <c r="AR623" s="2"/>
     </row>
-    <row r="624" spans="1:44" ht="16.5" customHeight="1">
+    <row r="624" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -29742,7 +29751,7 @@
       <c r="AQ624" s="2"/>
       <c r="AR624" s="2"/>
     </row>
-    <row r="625" spans="1:44" ht="16.5" customHeight="1">
+    <row r="625" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -29788,7 +29797,7 @@
       <c r="AQ625" s="2"/>
       <c r="AR625" s="2"/>
     </row>
-    <row r="626" spans="1:44" ht="16.5" customHeight="1">
+    <row r="626" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -29834,7 +29843,7 @@
       <c r="AQ626" s="2"/>
       <c r="AR626" s="2"/>
     </row>
-    <row r="627" spans="1:44" ht="16.5" customHeight="1">
+    <row r="627" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -29880,7 +29889,7 @@
       <c r="AQ627" s="2"/>
       <c r="AR627" s="2"/>
     </row>
-    <row r="628" spans="1:44" ht="16.5" customHeight="1">
+    <row r="628" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -29926,7 +29935,7 @@
       <c r="AQ628" s="2"/>
       <c r="AR628" s="2"/>
     </row>
-    <row r="629" spans="1:44" ht="16.5" customHeight="1">
+    <row r="629" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -29972,7 +29981,7 @@
       <c r="AQ629" s="2"/>
       <c r="AR629" s="2"/>
     </row>
-    <row r="630" spans="1:44" ht="16.5" customHeight="1">
+    <row r="630" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -30018,7 +30027,7 @@
       <c r="AQ630" s="2"/>
       <c r="AR630" s="2"/>
     </row>
-    <row r="631" spans="1:44" ht="16.5" customHeight="1">
+    <row r="631" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -30064,7 +30073,7 @@
       <c r="AQ631" s="2"/>
       <c r="AR631" s="2"/>
     </row>
-    <row r="632" spans="1:44" ht="16.5" customHeight="1">
+    <row r="632" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -30110,7 +30119,7 @@
       <c r="AQ632" s="2"/>
       <c r="AR632" s="2"/>
     </row>
-    <row r="633" spans="1:44" ht="16.5" customHeight="1">
+    <row r="633" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -30156,7 +30165,7 @@
       <c r="AQ633" s="2"/>
       <c r="AR633" s="2"/>
     </row>
-    <row r="634" spans="1:44" ht="16.5" customHeight="1">
+    <row r="634" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -30202,7 +30211,7 @@
       <c r="AQ634" s="2"/>
       <c r="AR634" s="2"/>
     </row>
-    <row r="635" spans="1:44" ht="16.5" customHeight="1">
+    <row r="635" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -30248,7 +30257,7 @@
       <c r="AQ635" s="2"/>
       <c r="AR635" s="2"/>
     </row>
-    <row r="636" spans="1:44" ht="16.5" customHeight="1">
+    <row r="636" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -30294,7 +30303,7 @@
       <c r="AQ636" s="2"/>
       <c r="AR636" s="2"/>
     </row>
-    <row r="637" spans="1:44" ht="16.5" customHeight="1">
+    <row r="637" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -30340,7 +30349,7 @@
       <c r="AQ637" s="2"/>
       <c r="AR637" s="2"/>
     </row>
-    <row r="638" spans="1:44" ht="16.5" customHeight="1">
+    <row r="638" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -30386,7 +30395,7 @@
       <c r="AQ638" s="2"/>
       <c r="AR638" s="2"/>
     </row>
-    <row r="639" spans="1:44" ht="16.5" customHeight="1">
+    <row r="639" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -30432,7 +30441,7 @@
       <c r="AQ639" s="2"/>
       <c r="AR639" s="2"/>
     </row>
-    <row r="640" spans="1:44" ht="16.5" customHeight="1">
+    <row r="640" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -30478,7 +30487,7 @@
       <c r="AQ640" s="2"/>
       <c r="AR640" s="2"/>
     </row>
-    <row r="641" spans="1:44" ht="16.5" customHeight="1">
+    <row r="641" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -30524,7 +30533,7 @@
       <c r="AQ641" s="2"/>
       <c r="AR641" s="2"/>
     </row>
-    <row r="642" spans="1:44" ht="16.5" customHeight="1">
+    <row r="642" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -30570,7 +30579,7 @@
       <c r="AQ642" s="2"/>
       <c r="AR642" s="2"/>
     </row>
-    <row r="643" spans="1:44" ht="16.5" customHeight="1">
+    <row r="643" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -30616,7 +30625,7 @@
       <c r="AQ643" s="2"/>
       <c r="AR643" s="2"/>
     </row>
-    <row r="644" spans="1:44" ht="16.5" customHeight="1">
+    <row r="644" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -30662,7 +30671,7 @@
       <c r="AQ644" s="2"/>
       <c r="AR644" s="2"/>
     </row>
-    <row r="645" spans="1:44" ht="16.5" customHeight="1">
+    <row r="645" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -30708,7 +30717,7 @@
       <c r="AQ645" s="2"/>
       <c r="AR645" s="2"/>
     </row>
-    <row r="646" spans="1:44" ht="16.5" customHeight="1">
+    <row r="646" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -30754,7 +30763,7 @@
       <c r="AQ646" s="2"/>
       <c r="AR646" s="2"/>
     </row>
-    <row r="647" spans="1:44" ht="16.5" customHeight="1">
+    <row r="647" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -30800,7 +30809,7 @@
       <c r="AQ647" s="2"/>
       <c r="AR647" s="2"/>
     </row>
-    <row r="648" spans="1:44" ht="16.5" customHeight="1">
+    <row r="648" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -30846,7 +30855,7 @@
       <c r="AQ648" s="2"/>
       <c r="AR648" s="2"/>
     </row>
-    <row r="649" spans="1:44" ht="16.5" customHeight="1">
+    <row r="649" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -30892,7 +30901,7 @@
       <c r="AQ649" s="2"/>
       <c r="AR649" s="2"/>
     </row>
-    <row r="650" spans="1:44" ht="16.5" customHeight="1">
+    <row r="650" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -30938,7 +30947,7 @@
       <c r="AQ650" s="2"/>
       <c r="AR650" s="2"/>
     </row>
-    <row r="651" spans="1:44" ht="16.5" customHeight="1">
+    <row r="651" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -30984,7 +30993,7 @@
       <c r="AQ651" s="2"/>
       <c r="AR651" s="2"/>
     </row>
-    <row r="652" spans="1:44" ht="16.5" customHeight="1">
+    <row r="652" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -31030,7 +31039,7 @@
       <c r="AQ652" s="2"/>
       <c r="AR652" s="2"/>
     </row>
-    <row r="653" spans="1:44" ht="16.5" customHeight="1">
+    <row r="653" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -31076,7 +31085,7 @@
       <c r="AQ653" s="2"/>
       <c r="AR653" s="2"/>
     </row>
-    <row r="654" spans="1:44" ht="16.5" customHeight="1">
+    <row r="654" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -31122,7 +31131,7 @@
       <c r="AQ654" s="2"/>
       <c r="AR654" s="2"/>
     </row>
-    <row r="655" spans="1:44" ht="16.5" customHeight="1">
+    <row r="655" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -31168,7 +31177,7 @@
       <c r="AQ655" s="2"/>
       <c r="AR655" s="2"/>
     </row>
-    <row r="656" spans="1:44" ht="16.5" customHeight="1">
+    <row r="656" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -31214,7 +31223,7 @@
       <c r="AQ656" s="2"/>
       <c r="AR656" s="2"/>
     </row>
-    <row r="657" spans="1:44" ht="16.5" customHeight="1">
+    <row r="657" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -31260,7 +31269,7 @@
       <c r="AQ657" s="2"/>
       <c r="AR657" s="2"/>
     </row>
-    <row r="658" spans="1:44" ht="16.5" customHeight="1">
+    <row r="658" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -31306,7 +31315,7 @@
       <c r="AQ658" s="2"/>
       <c r="AR658" s="2"/>
     </row>
-    <row r="659" spans="1:44" ht="16.5" customHeight="1">
+    <row r="659" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -31352,7 +31361,7 @@
       <c r="AQ659" s="2"/>
       <c r="AR659" s="2"/>
     </row>
-    <row r="660" spans="1:44" ht="16.5" customHeight="1">
+    <row r="660" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -31398,7 +31407,7 @@
       <c r="AQ660" s="2"/>
       <c r="AR660" s="2"/>
     </row>
-    <row r="661" spans="1:44" ht="16.5" customHeight="1">
+    <row r="661" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -31444,7 +31453,7 @@
       <c r="AQ661" s="2"/>
       <c r="AR661" s="2"/>
     </row>
-    <row r="662" spans="1:44" ht="16.5" customHeight="1">
+    <row r="662" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -31490,7 +31499,7 @@
       <c r="AQ662" s="2"/>
       <c r="AR662" s="2"/>
     </row>
-    <row r="663" spans="1:44" ht="16.5" customHeight="1">
+    <row r="663" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -31536,7 +31545,7 @@
       <c r="AQ663" s="2"/>
       <c r="AR663" s="2"/>
     </row>
-    <row r="664" spans="1:44" ht="16.5" customHeight="1">
+    <row r="664" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -31582,7 +31591,7 @@
       <c r="AQ664" s="2"/>
       <c r="AR664" s="2"/>
     </row>
-    <row r="665" spans="1:44" ht="16.5" customHeight="1">
+    <row r="665" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -31628,7 +31637,7 @@
       <c r="AQ665" s="2"/>
       <c r="AR665" s="2"/>
     </row>
-    <row r="666" spans="1:44" ht="16.5" customHeight="1">
+    <row r="666" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -31674,7 +31683,7 @@
       <c r="AQ666" s="2"/>
       <c r="AR666" s="2"/>
     </row>
-    <row r="667" spans="1:44" ht="16.5" customHeight="1">
+    <row r="667" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -31720,7 +31729,7 @@
       <c r="AQ667" s="2"/>
       <c r="AR667" s="2"/>
     </row>
-    <row r="668" spans="1:44" ht="16.5" customHeight="1">
+    <row r="668" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -31766,7 +31775,7 @@
       <c r="AQ668" s="2"/>
       <c r="AR668" s="2"/>
     </row>
-    <row r="669" spans="1:44" ht="16.5" customHeight="1">
+    <row r="669" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -31812,7 +31821,7 @@
       <c r="AQ669" s="2"/>
       <c r="AR669" s="2"/>
     </row>
-    <row r="670" spans="1:44" ht="16.5" customHeight="1">
+    <row r="670" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -31858,7 +31867,7 @@
       <c r="AQ670" s="2"/>
       <c r="AR670" s="2"/>
     </row>
-    <row r="671" spans="1:44" ht="16.5" customHeight="1">
+    <row r="671" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -31904,7 +31913,7 @@
       <c r="AQ671" s="2"/>
       <c r="AR671" s="2"/>
     </row>
-    <row r="672" spans="1:44" ht="16.5" customHeight="1">
+    <row r="672" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -31950,7 +31959,7 @@
       <c r="AQ672" s="2"/>
       <c r="AR672" s="2"/>
     </row>
-    <row r="673" spans="1:44" ht="16.5" customHeight="1">
+    <row r="673" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -31996,7 +32005,7 @@
       <c r="AQ673" s="2"/>
       <c r="AR673" s="2"/>
     </row>
-    <row r="674" spans="1:44" ht="16.5" customHeight="1">
+    <row r="674" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -32042,7 +32051,7 @@
       <c r="AQ674" s="2"/>
       <c r="AR674" s="2"/>
     </row>
-    <row r="675" spans="1:44" ht="16.5" customHeight="1">
+    <row r="675" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -32088,7 +32097,7 @@
       <c r="AQ675" s="2"/>
       <c r="AR675" s="2"/>
     </row>
-    <row r="676" spans="1:44" ht="16.5" customHeight="1">
+    <row r="676" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -32134,7 +32143,7 @@
       <c r="AQ676" s="2"/>
       <c r="AR676" s="2"/>
     </row>
-    <row r="677" spans="1:44" ht="16.5" customHeight="1">
+    <row r="677" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -32180,7 +32189,7 @@
       <c r="AQ677" s="2"/>
       <c r="AR677" s="2"/>
     </row>
-    <row r="678" spans="1:44" ht="16.5" customHeight="1">
+    <row r="678" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -32226,7 +32235,7 @@
       <c r="AQ678" s="2"/>
       <c r="AR678" s="2"/>
     </row>
-    <row r="679" spans="1:44" ht="16.5" customHeight="1">
+    <row r="679" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -32272,7 +32281,7 @@
       <c r="AQ679" s="2"/>
       <c r="AR679" s="2"/>
     </row>
-    <row r="680" spans="1:44" ht="16.5" customHeight="1">
+    <row r="680" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -32318,7 +32327,7 @@
       <c r="AQ680" s="2"/>
       <c r="AR680" s="2"/>
     </row>
-    <row r="681" spans="1:44" ht="16.5" customHeight="1">
+    <row r="681" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -32364,7 +32373,7 @@
       <c r="AQ681" s="2"/>
       <c r="AR681" s="2"/>
     </row>
-    <row r="682" spans="1:44" ht="16.5" customHeight="1">
+    <row r="682" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -32410,7 +32419,7 @@
       <c r="AQ682" s="2"/>
       <c r="AR682" s="2"/>
     </row>
-    <row r="683" spans="1:44" ht="16.5" customHeight="1">
+    <row r="683" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -32456,7 +32465,7 @@
       <c r="AQ683" s="2"/>
       <c r="AR683" s="2"/>
     </row>
-    <row r="684" spans="1:44" ht="16.5" customHeight="1">
+    <row r="684" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -32502,7 +32511,7 @@
       <c r="AQ684" s="2"/>
       <c r="AR684" s="2"/>
     </row>
-    <row r="685" spans="1:44" ht="16.5" customHeight="1">
+    <row r="685" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -32548,7 +32557,7 @@
       <c r="AQ685" s="2"/>
       <c r="AR685" s="2"/>
     </row>
-    <row r="686" spans="1:44" ht="16.5" customHeight="1">
+    <row r="686" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -32594,7 +32603,7 @@
       <c r="AQ686" s="2"/>
       <c r="AR686" s="2"/>
     </row>
-    <row r="687" spans="1:44" ht="16.5" customHeight="1">
+    <row r="687" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -32640,7 +32649,7 @@
       <c r="AQ687" s="2"/>
       <c r="AR687" s="2"/>
     </row>
-    <row r="688" spans="1:44" ht="16.5" customHeight="1">
+    <row r="688" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -32686,7 +32695,7 @@
       <c r="AQ688" s="2"/>
       <c r="AR688" s="2"/>
     </row>
-    <row r="689" spans="1:44" ht="16.5" customHeight="1">
+    <row r="689" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -32732,7 +32741,7 @@
       <c r="AQ689" s="2"/>
       <c r="AR689" s="2"/>
     </row>
-    <row r="690" spans="1:44" ht="16.5" customHeight="1">
+    <row r="690" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -32778,7 +32787,7 @@
       <c r="AQ690" s="2"/>
       <c r="AR690" s="2"/>
     </row>
-    <row r="691" spans="1:44" ht="16.5" customHeight="1">
+    <row r="691" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -32824,7 +32833,7 @@
       <c r="AQ691" s="2"/>
       <c r="AR691" s="2"/>
     </row>
-    <row r="692" spans="1:44" ht="16.5" customHeight="1">
+    <row r="692" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -32870,7 +32879,7 @@
       <c r="AQ692" s="2"/>
       <c r="AR692" s="2"/>
     </row>
-    <row r="693" spans="1:44" ht="16.5" customHeight="1">
+    <row r="693" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -32916,7 +32925,7 @@
       <c r="AQ693" s="2"/>
       <c r="AR693" s="2"/>
     </row>
-    <row r="694" spans="1:44" ht="16.5" customHeight="1">
+    <row r="694" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -32962,7 +32971,7 @@
       <c r="AQ694" s="2"/>
       <c r="AR694" s="2"/>
     </row>
-    <row r="695" spans="1:44" ht="16.5" customHeight="1">
+    <row r="695" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -33008,7 +33017,7 @@
       <c r="AQ695" s="2"/>
       <c r="AR695" s="2"/>
     </row>
-    <row r="696" spans="1:44" ht="16.5" customHeight="1">
+    <row r="696" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -33054,7 +33063,7 @@
       <c r="AQ696" s="2"/>
       <c r="AR696" s="2"/>
     </row>
-    <row r="697" spans="1:44" ht="16.5" customHeight="1">
+    <row r="697" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -33100,7 +33109,7 @@
       <c r="AQ697" s="2"/>
       <c r="AR697" s="2"/>
     </row>
-    <row r="698" spans="1:44" ht="16.5" customHeight="1">
+    <row r="698" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -33146,7 +33155,7 @@
       <c r="AQ698" s="2"/>
       <c r="AR698" s="2"/>
     </row>
-    <row r="699" spans="1:44" ht="16.5" customHeight="1">
+    <row r="699" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -33192,7 +33201,7 @@
       <c r="AQ699" s="2"/>
       <c r="AR699" s="2"/>
     </row>
-    <row r="700" spans="1:44" ht="16.5" customHeight="1">
+    <row r="700" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -33238,7 +33247,7 @@
       <c r="AQ700" s="2"/>
       <c r="AR700" s="2"/>
     </row>
-    <row r="701" spans="1:44" ht="16.5" customHeight="1">
+    <row r="701" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -33284,7 +33293,7 @@
       <c r="AQ701" s="2"/>
       <c r="AR701" s="2"/>
     </row>
-    <row r="702" spans="1:44" ht="16.5" customHeight="1">
+    <row r="702" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -33330,7 +33339,7 @@
       <c r="AQ702" s="2"/>
       <c r="AR702" s="2"/>
     </row>
-    <row r="703" spans="1:44" ht="16.5" customHeight="1">
+    <row r="703" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -33376,7 +33385,7 @@
       <c r="AQ703" s="2"/>
       <c r="AR703" s="2"/>
     </row>
-    <row r="704" spans="1:44" ht="16.5" customHeight="1">
+    <row r="704" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -33422,7 +33431,7 @@
       <c r="AQ704" s="2"/>
       <c r="AR704" s="2"/>
     </row>
-    <row r="705" spans="1:44" ht="16.5" customHeight="1">
+    <row r="705" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -33468,7 +33477,7 @@
       <c r="AQ705" s="2"/>
       <c r="AR705" s="2"/>
     </row>
-    <row r="706" spans="1:44" ht="16.5" customHeight="1">
+    <row r="706" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -33514,7 +33523,7 @@
       <c r="AQ706" s="2"/>
       <c r="AR706" s="2"/>
     </row>
-    <row r="707" spans="1:44" ht="16.5" customHeight="1">
+    <row r="707" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -33560,7 +33569,7 @@
       <c r="AQ707" s="2"/>
       <c r="AR707" s="2"/>
     </row>
-    <row r="708" spans="1:44" ht="16.5" customHeight="1">
+    <row r="708" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -33606,7 +33615,7 @@
       <c r="AQ708" s="2"/>
       <c r="AR708" s="2"/>
     </row>
-    <row r="709" spans="1:44" ht="16.5" customHeight="1">
+    <row r="709" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -33652,7 +33661,7 @@
       <c r="AQ709" s="2"/>
       <c r="AR709" s="2"/>
     </row>
-    <row r="710" spans="1:44" ht="16.5" customHeight="1">
+    <row r="710" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -33698,7 +33707,7 @@
       <c r="AQ710" s="2"/>
       <c r="AR710" s="2"/>
     </row>
-    <row r="711" spans="1:44" ht="16.5" customHeight="1">
+    <row r="711" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -33744,7 +33753,7 @@
       <c r="AQ711" s="2"/>
       <c r="AR711" s="2"/>
     </row>
-    <row r="712" spans="1:44" ht="16.5" customHeight="1">
+    <row r="712" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -33790,7 +33799,7 @@
       <c r="AQ712" s="2"/>
       <c r="AR712" s="2"/>
     </row>
-    <row r="713" spans="1:44" ht="16.5" customHeight="1">
+    <row r="713" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -33836,7 +33845,7 @@
       <c r="AQ713" s="2"/>
       <c r="AR713" s="2"/>
     </row>
-    <row r="714" spans="1:44" ht="16.5" customHeight="1">
+    <row r="714" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -33882,7 +33891,7 @@
       <c r="AQ714" s="2"/>
       <c r="AR714" s="2"/>
     </row>
-    <row r="715" spans="1:44" ht="16.5" customHeight="1">
+    <row r="715" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -33928,7 +33937,7 @@
       <c r="AQ715" s="2"/>
       <c r="AR715" s="2"/>
     </row>
-    <row r="716" spans="1:44" ht="16.5" customHeight="1">
+    <row r="716" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -33974,7 +33983,7 @@
       <c r="AQ716" s="2"/>
       <c r="AR716" s="2"/>
     </row>
-    <row r="717" spans="1:44" ht="16.5" customHeight="1">
+    <row r="717" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -34020,7 +34029,7 @@
       <c r="AQ717" s="2"/>
       <c r="AR717" s="2"/>
     </row>
-    <row r="718" spans="1:44" ht="16.5" customHeight="1">
+    <row r="718" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -34066,7 +34075,7 @@
       <c r="AQ718" s="2"/>
       <c r="AR718" s="2"/>
     </row>
-    <row r="719" spans="1:44" ht="16.5" customHeight="1">
+    <row r="719" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -34112,7 +34121,7 @@
       <c r="AQ719" s="2"/>
       <c r="AR719" s="2"/>
     </row>
-    <row r="720" spans="1:44" ht="16.5" customHeight="1">
+    <row r="720" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -34158,7 +34167,7 @@
       <c r="AQ720" s="2"/>
       <c r="AR720" s="2"/>
     </row>
-    <row r="721" spans="1:44" ht="16.5" customHeight="1">
+    <row r="721" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -34204,7 +34213,7 @@
       <c r="AQ721" s="2"/>
       <c r="AR721" s="2"/>
     </row>
-    <row r="722" spans="1:44" ht="16.5" customHeight="1">
+    <row r="722" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -34250,7 +34259,7 @@
       <c r="AQ722" s="2"/>
       <c r="AR722" s="2"/>
     </row>
-    <row r="723" spans="1:44" ht="16.5" customHeight="1">
+    <row r="723" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -34296,7 +34305,7 @@
       <c r="AQ723" s="2"/>
       <c r="AR723" s="2"/>
     </row>
-    <row r="724" spans="1:44" ht="16.5" customHeight="1">
+    <row r="724" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -34342,7 +34351,7 @@
       <c r="AQ724" s="2"/>
       <c r="AR724" s="2"/>
     </row>
-    <row r="725" spans="1:44" ht="16.5" customHeight="1">
+    <row r="725" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -34388,7 +34397,7 @@
       <c r="AQ725" s="2"/>
       <c r="AR725" s="2"/>
     </row>
-    <row r="726" spans="1:44" ht="16.5" customHeight="1">
+    <row r="726" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -34434,7 +34443,7 @@
       <c r="AQ726" s="2"/>
       <c r="AR726" s="2"/>
     </row>
-    <row r="727" spans="1:44" ht="16.5" customHeight="1">
+    <row r="727" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -34480,7 +34489,7 @@
       <c r="AQ727" s="2"/>
       <c r="AR727" s="2"/>
     </row>
-    <row r="728" spans="1:44" ht="16.5" customHeight="1">
+    <row r="728" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -34526,7 +34535,7 @@
       <c r="AQ728" s="2"/>
       <c r="AR728" s="2"/>
     </row>
-    <row r="729" spans="1:44" ht="16.5" customHeight="1">
+    <row r="729" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -34572,7 +34581,7 @@
       <c r="AQ729" s="2"/>
       <c r="AR729" s="2"/>
     </row>
-    <row r="730" spans="1:44" ht="16.5" customHeight="1">
+    <row r="730" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -34618,7 +34627,7 @@
       <c r="AQ730" s="2"/>
       <c r="AR730" s="2"/>
     </row>
-    <row r="731" spans="1:44" ht="16.5" customHeight="1">
+    <row r="731" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -34664,7 +34673,7 @@
       <c r="AQ731" s="2"/>
       <c r="AR731" s="2"/>
     </row>
-    <row r="732" spans="1:44" ht="16.5" customHeight="1">
+    <row r="732" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -34710,7 +34719,7 @@
       <c r="AQ732" s="2"/>
       <c r="AR732" s="2"/>
     </row>
-    <row r="733" spans="1:44" ht="16.5" customHeight="1">
+    <row r="733" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -34756,7 +34765,7 @@
       <c r="AQ733" s="2"/>
       <c r="AR733" s="2"/>
     </row>
-    <row r="734" spans="1:44" ht="16.5" customHeight="1">
+    <row r="734" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -34802,7 +34811,7 @@
       <c r="AQ734" s="2"/>
       <c r="AR734" s="2"/>
     </row>
-    <row r="735" spans="1:44" ht="16.5" customHeight="1">
+    <row r="735" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -34848,7 +34857,7 @@
       <c r="AQ735" s="2"/>
       <c r="AR735" s="2"/>
     </row>
-    <row r="736" spans="1:44" ht="16.5" customHeight="1">
+    <row r="736" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -34894,7 +34903,7 @@
       <c r="AQ736" s="2"/>
       <c r="AR736" s="2"/>
     </row>
-    <row r="737" spans="1:44" ht="16.5" customHeight="1">
+    <row r="737" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -34940,7 +34949,7 @@
       <c r="AQ737" s="2"/>
       <c r="AR737" s="2"/>
     </row>
-    <row r="738" spans="1:44" ht="16.5" customHeight="1">
+    <row r="738" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -34986,7 +34995,7 @@
       <c r="AQ738" s="2"/>
       <c r="AR738" s="2"/>
     </row>
-    <row r="739" spans="1:44" ht="16.5" customHeight="1">
+    <row r="739" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -35032,7 +35041,7 @@
       <c r="AQ739" s="2"/>
       <c r="AR739" s="2"/>
     </row>
-    <row r="740" spans="1:44" ht="16.5" customHeight="1">
+    <row r="740" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -35078,7 +35087,7 @@
       <c r="AQ740" s="2"/>
       <c r="AR740" s="2"/>
     </row>
-    <row r="741" spans="1:44" ht="16.5" customHeight="1">
+    <row r="741" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -35124,7 +35133,7 @@
       <c r="AQ741" s="2"/>
       <c r="AR741" s="2"/>
     </row>
-    <row r="742" spans="1:44" ht="16.5" customHeight="1">
+    <row r="742" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -35170,7 +35179,7 @@
       <c r="AQ742" s="2"/>
       <c r="AR742" s="2"/>
     </row>
-    <row r="743" spans="1:44" ht="16.5" customHeight="1">
+    <row r="743" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -35216,7 +35225,7 @@
       <c r="AQ743" s="2"/>
       <c r="AR743" s="2"/>
     </row>
-    <row r="744" spans="1:44" ht="16.5" customHeight="1">
+    <row r="744" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -35262,7 +35271,7 @@
       <c r="AQ744" s="2"/>
       <c r="AR744" s="2"/>
     </row>
-    <row r="745" spans="1:44" ht="16.5" customHeight="1">
+    <row r="745" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -35308,7 +35317,7 @@
       <c r="AQ745" s="2"/>
       <c r="AR745" s="2"/>
     </row>
-    <row r="746" spans="1:44" ht="16.5" customHeight="1">
+    <row r="746" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -35354,7 +35363,7 @@
       <c r="AQ746" s="2"/>
       <c r="AR746" s="2"/>
     </row>
-    <row r="747" spans="1:44" ht="16.5" customHeight="1">
+    <row r="747" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -35400,7 +35409,7 @@
       <c r="AQ747" s="2"/>
       <c r="AR747" s="2"/>
     </row>
-    <row r="748" spans="1:44" ht="16.5" customHeight="1">
+    <row r="748" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -35446,7 +35455,7 @@
       <c r="AQ748" s="2"/>
       <c r="AR748" s="2"/>
     </row>
-    <row r="749" spans="1:44" ht="16.5" customHeight="1">
+    <row r="749" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -35492,7 +35501,7 @@
       <c r="AQ749" s="2"/>
       <c r="AR749" s="2"/>
     </row>
-    <row r="750" spans="1:44" ht="16.5" customHeight="1">
+    <row r="750" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -35538,7 +35547,7 @@
       <c r="AQ750" s="2"/>
       <c r="AR750" s="2"/>
     </row>
-    <row r="751" spans="1:44" ht="16.5" customHeight="1">
+    <row r="751" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -35584,7 +35593,7 @@
       <c r="AQ751" s="2"/>
       <c r="AR751" s="2"/>
     </row>
-    <row r="752" spans="1:44" ht="16.5" customHeight="1">
+    <row r="752" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -35630,7 +35639,7 @@
       <c r="AQ752" s="2"/>
       <c r="AR752" s="2"/>
     </row>
-    <row r="753" spans="1:44" ht="16.5" customHeight="1">
+    <row r="753" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -35676,7 +35685,7 @@
       <c r="AQ753" s="2"/>
       <c r="AR753" s="2"/>
     </row>
-    <row r="754" spans="1:44" ht="16.5" customHeight="1">
+    <row r="754" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -35722,7 +35731,7 @@
       <c r="AQ754" s="2"/>
       <c r="AR754" s="2"/>
     </row>
-    <row r="755" spans="1:44" ht="16.5" customHeight="1">
+    <row r="755" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -35768,7 +35777,7 @@
       <c r="AQ755" s="2"/>
       <c r="AR755" s="2"/>
     </row>
-    <row r="756" spans="1:44" ht="16.5" customHeight="1">
+    <row r="756" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -35814,7 +35823,7 @@
       <c r="AQ756" s="2"/>
       <c r="AR756" s="2"/>
     </row>
-    <row r="757" spans="1:44" ht="16.5" customHeight="1">
+    <row r="757" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -35860,7 +35869,7 @@
       <c r="AQ757" s="2"/>
       <c r="AR757" s="2"/>
     </row>
-    <row r="758" spans="1:44" ht="16.5" customHeight="1">
+    <row r="758" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -35906,7 +35915,7 @@
       <c r="AQ758" s="2"/>
       <c r="AR758" s="2"/>
     </row>
-    <row r="759" spans="1:44" ht="16.5" customHeight="1">
+    <row r="759" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -35952,7 +35961,7 @@
       <c r="AQ759" s="2"/>
       <c r="AR759" s="2"/>
     </row>
-    <row r="760" spans="1:44" ht="16.5" customHeight="1">
+    <row r="760" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -35998,7 +36007,7 @@
       <c r="AQ760" s="2"/>
       <c r="AR760" s="2"/>
     </row>
-    <row r="761" spans="1:44" ht="16.5" customHeight="1">
+    <row r="761" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -36044,7 +36053,7 @@
       <c r="AQ761" s="2"/>
       <c r="AR761" s="2"/>
     </row>
-    <row r="762" spans="1:44" ht="16.5" customHeight="1">
+    <row r="762" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -36090,7 +36099,7 @@
       <c r="AQ762" s="2"/>
       <c r="AR762" s="2"/>
     </row>
-    <row r="763" spans="1:44" ht="16.5" customHeight="1">
+    <row r="763" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -36136,7 +36145,7 @@
       <c r="AQ763" s="2"/>
       <c r="AR763" s="2"/>
     </row>
-    <row r="764" spans="1:44" ht="16.5" customHeight="1">
+    <row r="764" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -36182,7 +36191,7 @@
       <c r="AQ764" s="2"/>
       <c r="AR764" s="2"/>
     </row>
-    <row r="765" spans="1:44" ht="16.5" customHeight="1">
+    <row r="765" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -36228,7 +36237,7 @@
       <c r="AQ765" s="2"/>
       <c r="AR765" s="2"/>
     </row>
-    <row r="766" spans="1:44" ht="16.5" customHeight="1">
+    <row r="766" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -36274,7 +36283,7 @@
       <c r="AQ766" s="2"/>
       <c r="AR766" s="2"/>
     </row>
-    <row r="767" spans="1:44" ht="16.5" customHeight="1">
+    <row r="767" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -36320,7 +36329,7 @@
       <c r="AQ767" s="2"/>
       <c r="AR767" s="2"/>
     </row>
-    <row r="768" spans="1:44" ht="16.5" customHeight="1">
+    <row r="768" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -36366,7 +36375,7 @@
       <c r="AQ768" s="2"/>
       <c r="AR768" s="2"/>
     </row>
-    <row r="769" spans="1:44" ht="16.5" customHeight="1">
+    <row r="769" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -36412,7 +36421,7 @@
       <c r="AQ769" s="2"/>
       <c r="AR769" s="2"/>
     </row>
-    <row r="770" spans="1:44" ht="16.5" customHeight="1">
+    <row r="770" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -36458,7 +36467,7 @@
       <c r="AQ770" s="2"/>
       <c r="AR770" s="2"/>
     </row>
-    <row r="771" spans="1:44" ht="16.5" customHeight="1">
+    <row r="771" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -36504,7 +36513,7 @@
       <c r="AQ771" s="2"/>
       <c r="AR771" s="2"/>
     </row>
-    <row r="772" spans="1:44" ht="16.5" customHeight="1">
+    <row r="772" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -36550,7 +36559,7 @@
       <c r="AQ772" s="2"/>
       <c r="AR772" s="2"/>
     </row>
-    <row r="773" spans="1:44" ht="16.5" customHeight="1">
+    <row r="773" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -36596,7 +36605,7 @@
       <c r="AQ773" s="2"/>
       <c r="AR773" s="2"/>
     </row>
-    <row r="774" spans="1:44" ht="16.5" customHeight="1">
+    <row r="774" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -36642,7 +36651,7 @@
       <c r="AQ774" s="2"/>
       <c r="AR774" s="2"/>
     </row>
-    <row r="775" spans="1:44" ht="16.5" customHeight="1">
+    <row r="775" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -36688,7 +36697,7 @@
       <c r="AQ775" s="2"/>
       <c r="AR775" s="2"/>
     </row>
-    <row r="776" spans="1:44" ht="16.5" customHeight="1">
+    <row r="776" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -36734,7 +36743,7 @@
       <c r="AQ776" s="2"/>
       <c r="AR776" s="2"/>
     </row>
-    <row r="777" spans="1:44" ht="16.5" customHeight="1">
+    <row r="777" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -36780,7 +36789,7 @@
       <c r="AQ777" s="2"/>
       <c r="AR777" s="2"/>
     </row>
-    <row r="778" spans="1:44" ht="16.5" customHeight="1">
+    <row r="778" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -36826,7 +36835,7 @@
       <c r="AQ778" s="2"/>
       <c r="AR778" s="2"/>
     </row>
-    <row r="779" spans="1:44" ht="16.5" customHeight="1">
+    <row r="779" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -36872,7 +36881,7 @@
       <c r="AQ779" s="2"/>
       <c r="AR779" s="2"/>
     </row>
-    <row r="780" spans="1:44" ht="16.5" customHeight="1">
+    <row r="780" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -36918,7 +36927,7 @@
       <c r="AQ780" s="2"/>
       <c r="AR780" s="2"/>
     </row>
-    <row r="781" spans="1:44" ht="16.5" customHeight="1">
+    <row r="781" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -36964,7 +36973,7 @@
       <c r="AQ781" s="2"/>
       <c r="AR781" s="2"/>
     </row>
-    <row r="782" spans="1:44" ht="16.5" customHeight="1">
+    <row r="782" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -37010,7 +37019,7 @@
       <c r="AQ782" s="2"/>
       <c r="AR782" s="2"/>
     </row>
-    <row r="783" spans="1:44" ht="16.5" customHeight="1">
+    <row r="783" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -37056,7 +37065,7 @@
       <c r="AQ783" s="2"/>
       <c r="AR783" s="2"/>
     </row>
-    <row r="784" spans="1:44" ht="16.5" customHeight="1">
+    <row r="784" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -37102,7 +37111,7 @@
       <c r="AQ784" s="2"/>
       <c r="AR784" s="2"/>
     </row>
-    <row r="785" spans="1:44" ht="16.5" customHeight="1">
+    <row r="785" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -37148,7 +37157,7 @@
       <c r="AQ785" s="2"/>
       <c r="AR785" s="2"/>
     </row>
-    <row r="786" spans="1:44" ht="16.5" customHeight="1">
+    <row r="786" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -37194,7 +37203,7 @@
       <c r="AQ786" s="2"/>
       <c r="AR786" s="2"/>
     </row>
-    <row r="787" spans="1:44" ht="16.5" customHeight="1">
+    <row r="787" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -37240,7 +37249,7 @@
       <c r="AQ787" s="2"/>
       <c r="AR787" s="2"/>
     </row>
-    <row r="788" spans="1:44" ht="16.5" customHeight="1">
+    <row r="788" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -37286,7 +37295,7 @@
       <c r="AQ788" s="2"/>
       <c r="AR788" s="2"/>
     </row>
-    <row r="789" spans="1:44" ht="16.5" customHeight="1">
+    <row r="789" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -37332,7 +37341,7 @@
       <c r="AQ789" s="2"/>
       <c r="AR789" s="2"/>
     </row>
-    <row r="790" spans="1:44" ht="16.5" customHeight="1">
+    <row r="790" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -37378,7 +37387,7 @@
       <c r="AQ790" s="2"/>
       <c r="AR790" s="2"/>
     </row>
-    <row r="791" spans="1:44" ht="16.5" customHeight="1">
+    <row r="791" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -37424,7 +37433,7 @@
       <c r="AQ791" s="2"/>
       <c r="AR791" s="2"/>
     </row>
-    <row r="792" spans="1:44" ht="16.5" customHeight="1">
+    <row r="792" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -37470,7 +37479,7 @@
       <c r="AQ792" s="2"/>
       <c r="AR792" s="2"/>
     </row>
-    <row r="793" spans="1:44" ht="16.5" customHeight="1">
+    <row r="793" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -37516,7 +37525,7 @@
       <c r="AQ793" s="2"/>
       <c r="AR793" s="2"/>
     </row>
-    <row r="794" spans="1:44" ht="16.5" customHeight="1">
+    <row r="794" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -37562,7 +37571,7 @@
       <c r="AQ794" s="2"/>
       <c r="AR794" s="2"/>
     </row>
-    <row r="795" spans="1:44" ht="16.5" customHeight="1">
+    <row r="795" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -37608,7 +37617,7 @@
       <c r="AQ795" s="2"/>
       <c r="AR795" s="2"/>
     </row>
-    <row r="796" spans="1:44" ht="16.5" customHeight="1">
+    <row r="796" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -37654,7 +37663,7 @@
       <c r="AQ796" s="2"/>
       <c r="AR796" s="2"/>
     </row>
-    <row r="797" spans="1:44" ht="16.5" customHeight="1">
+    <row r="797" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -37700,7 +37709,7 @@
       <c r="AQ797" s="2"/>
       <c r="AR797" s="2"/>
     </row>
-    <row r="798" spans="1:44" ht="16.5" customHeight="1">
+    <row r="798" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -37746,7 +37755,7 @@
       <c r="AQ798" s="2"/>
       <c r="AR798" s="2"/>
     </row>
-    <row r="799" spans="1:44" ht="16.5" customHeight="1">
+    <row r="799" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -37792,7 +37801,7 @@
       <c r="AQ799" s="2"/>
       <c r="AR799" s="2"/>
     </row>
-    <row r="800" spans="1:44" ht="16.5" customHeight="1">
+    <row r="800" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -37838,7 +37847,7 @@
       <c r="AQ800" s="2"/>
       <c r="AR800" s="2"/>
     </row>
-    <row r="801" spans="1:44" ht="16.5" customHeight="1">
+    <row r="801" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -37884,7 +37893,7 @@
       <c r="AQ801" s="2"/>
       <c r="AR801" s="2"/>
     </row>
-    <row r="802" spans="1:44" ht="16.5" customHeight="1">
+    <row r="802" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -37930,7 +37939,7 @@
       <c r="AQ802" s="2"/>
       <c r="AR802" s="2"/>
     </row>
-    <row r="803" spans="1:44" ht="16.5" customHeight="1">
+    <row r="803" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -37976,7 +37985,7 @@
       <c r="AQ803" s="2"/>
       <c r="AR803" s="2"/>
     </row>
-    <row r="804" spans="1:44" ht="16.5" customHeight="1">
+    <row r="804" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -38022,7 +38031,7 @@
       <c r="AQ804" s="2"/>
       <c r="AR804" s="2"/>
     </row>
-    <row r="805" spans="1:44" ht="16.5" customHeight="1">
+    <row r="805" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -38068,7 +38077,7 @@
       <c r="AQ805" s="2"/>
       <c r="AR805" s="2"/>
     </row>
-    <row r="806" spans="1:44" ht="16.5" customHeight="1">
+    <row r="806" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -38114,7 +38123,7 @@
       <c r="AQ806" s="2"/>
       <c r="AR806" s="2"/>
     </row>
-    <row r="807" spans="1:44" ht="16.5" customHeight="1">
+    <row r="807" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -38160,7 +38169,7 @@
       <c r="AQ807" s="2"/>
       <c r="AR807" s="2"/>
     </row>
-    <row r="808" spans="1:44" ht="16.5" customHeight="1">
+    <row r="808" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -38206,7 +38215,7 @@
       <c r="AQ808" s="2"/>
       <c r="AR808" s="2"/>
     </row>
-    <row r="809" spans="1:44" ht="16.5" customHeight="1">
+    <row r="809" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -38252,7 +38261,7 @@
       <c r="AQ809" s="2"/>
       <c r="AR809" s="2"/>
     </row>
-    <row r="810" spans="1:44" ht="16.5" customHeight="1">
+    <row r="810" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -38298,7 +38307,7 @@
       <c r="AQ810" s="2"/>
       <c r="AR810" s="2"/>
     </row>
-    <row r="811" spans="1:44" ht="16.5" customHeight="1">
+    <row r="811" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -38344,7 +38353,7 @@
       <c r="AQ811" s="2"/>
       <c r="AR811" s="2"/>
     </row>
-    <row r="812" spans="1:44" ht="16.5" customHeight="1">
+    <row r="812" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -38390,7 +38399,7 @@
       <c r="AQ812" s="2"/>
       <c r="AR812" s="2"/>
     </row>
-    <row r="813" spans="1:44" ht="16.5" customHeight="1">
+    <row r="813" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -38436,7 +38445,7 @@
       <c r="AQ813" s="2"/>
       <c r="AR813" s="2"/>
     </row>
-    <row r="814" spans="1:44" ht="16.5" customHeight="1">
+    <row r="814" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -38482,7 +38491,7 @@
       <c r="AQ814" s="2"/>
       <c r="AR814" s="2"/>
     </row>
-    <row r="815" spans="1:44" ht="16.5" customHeight="1">
+    <row r="815" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -38528,7 +38537,7 @@
       <c r="AQ815" s="2"/>
       <c r="AR815" s="2"/>
     </row>
-    <row r="816" spans="1:44" ht="16.5" customHeight="1">
+    <row r="816" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -38574,7 +38583,7 @@
       <c r="AQ816" s="2"/>
       <c r="AR816" s="2"/>
     </row>
-    <row r="817" spans="1:44" ht="16.5" customHeight="1">
+    <row r="817" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -38620,7 +38629,7 @@
       <c r="AQ817" s="2"/>
       <c r="AR817" s="2"/>
     </row>
-    <row r="818" spans="1:44" ht="16.5" customHeight="1">
+    <row r="818" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -38666,7 +38675,7 @@
       <c r="AQ818" s="2"/>
       <c r="AR818" s="2"/>
     </row>
-    <row r="819" spans="1:44" ht="16.5" customHeight="1">
+    <row r="819" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -38712,7 +38721,7 @@
       <c r="AQ819" s="2"/>
       <c r="AR819" s="2"/>
     </row>
-    <row r="820" spans="1:44" ht="16.5" customHeight="1">
+    <row r="820" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -38758,7 +38767,7 @@
       <c r="AQ820" s="2"/>
       <c r="AR820" s="2"/>
     </row>
-    <row r="821" spans="1:44" ht="16.5" customHeight="1">
+    <row r="821" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -38804,7 +38813,7 @@
       <c r="AQ821" s="2"/>
       <c r="AR821" s="2"/>
     </row>
-    <row r="822" spans="1:44" ht="16.5" customHeight="1">
+    <row r="822" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -38850,7 +38859,7 @@
       <c r="AQ822" s="2"/>
       <c r="AR822" s="2"/>
     </row>
-    <row r="823" spans="1:44" ht="16.5" customHeight="1">
+    <row r="823" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -38896,7 +38905,7 @@
       <c r="AQ823" s="2"/>
       <c r="AR823" s="2"/>
     </row>
-    <row r="824" spans="1:44" ht="16.5" customHeight="1">
+    <row r="824" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -38942,7 +38951,7 @@
       <c r="AQ824" s="2"/>
       <c r="AR824" s="2"/>
     </row>
-    <row r="825" spans="1:44" ht="16.5" customHeight="1">
+    <row r="825" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -38988,7 +38997,7 @@
       <c r="AQ825" s="2"/>
       <c r="AR825" s="2"/>
     </row>
-    <row r="826" spans="1:44" ht="16.5" customHeight="1">
+    <row r="826" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -39034,7 +39043,7 @@
       <c r="AQ826" s="2"/>
       <c r="AR826" s="2"/>
     </row>
-    <row r="827" spans="1:44" ht="16.5" customHeight="1">
+    <row r="827" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -39080,7 +39089,7 @@
       <c r="AQ827" s="2"/>
       <c r="AR827" s="2"/>
     </row>
-    <row r="828" spans="1:44" ht="16.5" customHeight="1">
+    <row r="828" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -39126,7 +39135,7 @@
       <c r="AQ828" s="2"/>
       <c r="AR828" s="2"/>
     </row>
-    <row r="829" spans="1:44" ht="16.5" customHeight="1">
+    <row r="829" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -39172,7 +39181,7 @@
       <c r="AQ829" s="2"/>
       <c r="AR829" s="2"/>
     </row>
-    <row r="830" spans="1:44" ht="16.5" customHeight="1">
+    <row r="830" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -39218,7 +39227,7 @@
       <c r="AQ830" s="2"/>
       <c r="AR830" s="2"/>
     </row>
-    <row r="831" spans="1:44" ht="16.5" customHeight="1">
+    <row r="831" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -39264,7 +39273,7 @@
       <c r="AQ831" s="2"/>
       <c r="AR831" s="2"/>
     </row>
-    <row r="832" spans="1:44" ht="16.5" customHeight="1">
+    <row r="832" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -39310,7 +39319,7 @@
       <c r="AQ832" s="2"/>
       <c r="AR832" s="2"/>
     </row>
-    <row r="833" spans="1:44" ht="16.5" customHeight="1">
+    <row r="833" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -39356,7 +39365,7 @@
       <c r="AQ833" s="2"/>
       <c r="AR833" s="2"/>
     </row>
-    <row r="834" spans="1:44" ht="16.5" customHeight="1">
+    <row r="834" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -39402,7 +39411,7 @@
       <c r="AQ834" s="2"/>
       <c r="AR834" s="2"/>
     </row>
-    <row r="835" spans="1:44" ht="16.5" customHeight="1">
+    <row r="835" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -39448,7 +39457,7 @@
       <c r="AQ835" s="2"/>
       <c r="AR835" s="2"/>
     </row>
-    <row r="836" spans="1:44" ht="16.5" customHeight="1">
+    <row r="836" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -39494,7 +39503,7 @@
       <c r="AQ836" s="2"/>
       <c r="AR836" s="2"/>
     </row>
-    <row r="837" spans="1:44" ht="16.5" customHeight="1">
+    <row r="837" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -39540,7 +39549,7 @@
       <c r="AQ837" s="2"/>
       <c r="AR837" s="2"/>
     </row>
-    <row r="838" spans="1:44" ht="16.5" customHeight="1">
+    <row r="838" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -39586,7 +39595,7 @@
       <c r="AQ838" s="2"/>
       <c r="AR838" s="2"/>
     </row>
-    <row r="839" spans="1:44" ht="16.5" customHeight="1">
+    <row r="839" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -39632,7 +39641,7 @@
       <c r="AQ839" s="2"/>
       <c r="AR839" s="2"/>
     </row>
-    <row r="840" spans="1:44" ht="16.5" customHeight="1">
+    <row r="840" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -39678,7 +39687,7 @@
       <c r="AQ840" s="2"/>
       <c r="AR840" s="2"/>
     </row>
-    <row r="841" spans="1:44" ht="16.5" customHeight="1">
+    <row r="841" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -39724,7 +39733,7 @@
       <c r="AQ841" s="2"/>
       <c r="AR841" s="2"/>
     </row>
-    <row r="842" spans="1:44" ht="16.5" customHeight="1">
+    <row r="842" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -39770,7 +39779,7 @@
       <c r="AQ842" s="2"/>
       <c r="AR842" s="2"/>
     </row>
-    <row r="843" spans="1:44" ht="16.5" customHeight="1">
+    <row r="843" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -39816,7 +39825,7 @@
       <c r="AQ843" s="2"/>
       <c r="AR843" s="2"/>
     </row>
-    <row r="844" spans="1:44" ht="16.5" customHeight="1">
+    <row r="844" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -39862,7 +39871,7 @@
       <c r="AQ844" s="2"/>
       <c r="AR844" s="2"/>
     </row>
-    <row r="845" spans="1:44" ht="16.5" customHeight="1">
+    <row r="845" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -39908,7 +39917,7 @@
       <c r="AQ845" s="2"/>
       <c r="AR845" s="2"/>
     </row>
-    <row r="846" spans="1:44" ht="16.5" customHeight="1">
+    <row r="846" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -39954,7 +39963,7 @@
       <c r="AQ846" s="2"/>
       <c r="AR846" s="2"/>
     </row>
-    <row r="847" spans="1:44" ht="16.5" customHeight="1">
+    <row r="847" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -40000,7 +40009,7 @@
       <c r="AQ847" s="2"/>
       <c r="AR847" s="2"/>
     </row>
-    <row r="848" spans="1:44" ht="16.5" customHeight="1">
+    <row r="848" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -40046,7 +40055,7 @@
       <c r="AQ848" s="2"/>
       <c r="AR848" s="2"/>
     </row>
-    <row r="849" spans="1:44" ht="16.5" customHeight="1">
+    <row r="849" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -40092,7 +40101,7 @@
       <c r="AQ849" s="2"/>
       <c r="AR849" s="2"/>
     </row>
-    <row r="850" spans="1:44" ht="16.5" customHeight="1">
+    <row r="850" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -40138,7 +40147,7 @@
       <c r="AQ850" s="2"/>
       <c r="AR850" s="2"/>
     </row>
-    <row r="851" spans="1:44" ht="16.5" customHeight="1">
+    <row r="851" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -40184,7 +40193,7 @@
       <c r="AQ851" s="2"/>
       <c r="AR851" s="2"/>
     </row>
-    <row r="852" spans="1:44" ht="16.5" customHeight="1">
+    <row r="852" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -40230,7 +40239,7 @@
       <c r="AQ852" s="2"/>
       <c r="AR852" s="2"/>
     </row>
-    <row r="853" spans="1:44" ht="16.5" customHeight="1">
+    <row r="853" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -40276,7 +40285,7 @@
       <c r="AQ853" s="2"/>
       <c r="AR853" s="2"/>
     </row>
-    <row r="854" spans="1:44" ht="16.5" customHeight="1">
+    <row r="854" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -40322,7 +40331,7 @@
       <c r="AQ854" s="2"/>
       <c r="AR854" s="2"/>
     </row>
-    <row r="855" spans="1:44" ht="16.5" customHeight="1">
+    <row r="855" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -40368,7 +40377,7 @@
       <c r="AQ855" s="2"/>
       <c r="AR855" s="2"/>
     </row>
-    <row r="856" spans="1:44" ht="16.5" customHeight="1">
+    <row r="856" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -40414,7 +40423,7 @@
       <c r="AQ856" s="2"/>
       <c r="AR856" s="2"/>
     </row>
-    <row r="857" spans="1:44" ht="16.5" customHeight="1">
+    <row r="857" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -40460,7 +40469,7 @@
       <c r="AQ857" s="2"/>
       <c r="AR857" s="2"/>
     </row>
-    <row r="858" spans="1:44" ht="16.5" customHeight="1">
+    <row r="858" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -40506,7 +40515,7 @@
       <c r="AQ858" s="2"/>
       <c r="AR858" s="2"/>
     </row>
-    <row r="859" spans="1:44" ht="16.5" customHeight="1">
+    <row r="859" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -40552,7 +40561,7 @@
       <c r="AQ859" s="2"/>
       <c r="AR859" s="2"/>
     </row>
-    <row r="860" spans="1:44" ht="16.5" customHeight="1">
+    <row r="860" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -40598,7 +40607,7 @@
       <c r="AQ860" s="2"/>
       <c r="AR860" s="2"/>
     </row>
-    <row r="861" spans="1:44" ht="16.5" customHeight="1">
+    <row r="861" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -40644,7 +40653,7 @@
       <c r="AQ861" s="2"/>
       <c r="AR861" s="2"/>
     </row>
-    <row r="862" spans="1:44" ht="16.5" customHeight="1">
+    <row r="862" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -40690,7 +40699,7 @@
       <c r="AQ862" s="2"/>
       <c r="AR862" s="2"/>
     </row>
-    <row r="863" spans="1:44" ht="16.5" customHeight="1">
+    <row r="863" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -40736,7 +40745,7 @@
       <c r="AQ863" s="2"/>
       <c r="AR863" s="2"/>
     </row>
-    <row r="864" spans="1:44" ht="16.5" customHeight="1">
+    <row r="864" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -40782,7 +40791,7 @@
       <c r="AQ864" s="2"/>
       <c r="AR864" s="2"/>
     </row>
-    <row r="865" spans="1:44" ht="16.5" customHeight="1">
+    <row r="865" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -40828,7 +40837,7 @@
       <c r="AQ865" s="2"/>
       <c r="AR865" s="2"/>
     </row>
-    <row r="866" spans="1:44" ht="16.5" customHeight="1">
+    <row r="866" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -40874,7 +40883,7 @@
       <c r="AQ866" s="2"/>
       <c r="AR866" s="2"/>
     </row>
-    <row r="867" spans="1:44" ht="16.5" customHeight="1">
+    <row r="867" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -40920,7 +40929,7 @@
       <c r="AQ867" s="2"/>
       <c r="AR867" s="2"/>
     </row>
-    <row r="868" spans="1:44" ht="16.5" customHeight="1">
+    <row r="868" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -40966,7 +40975,7 @@
       <c r="AQ868" s="2"/>
       <c r="AR868" s="2"/>
     </row>
-    <row r="869" spans="1:44" ht="16.5" customHeight="1">
+    <row r="869" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -41012,7 +41021,7 @@
       <c r="AQ869" s="2"/>
       <c r="AR869" s="2"/>
     </row>
-    <row r="870" spans="1:44" ht="16.5" customHeight="1">
+    <row r="870" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -41058,7 +41067,7 @@
       <c r="AQ870" s="2"/>
       <c r="AR870" s="2"/>
     </row>
-    <row r="871" spans="1:44" ht="16.5" customHeight="1">
+    <row r="871" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -41104,7 +41113,7 @@
       <c r="AQ871" s="2"/>
       <c r="AR871" s="2"/>
     </row>
-    <row r="872" spans="1:44" ht="16.5" customHeight="1">
+    <row r="872" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -41150,7 +41159,7 @@
       <c r="AQ872" s="2"/>
       <c r="AR872" s="2"/>
     </row>
-    <row r="873" spans="1:44" ht="16.5" customHeight="1">
+    <row r="873" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -41196,7 +41205,7 @@
       <c r="AQ873" s="2"/>
       <c r="AR873" s="2"/>
     </row>
-    <row r="874" spans="1:44" ht="16.5" customHeight="1">
+    <row r="874" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -41242,7 +41251,7 @@
       <c r="AQ874" s="2"/>
       <c r="AR874" s="2"/>
     </row>
-    <row r="875" spans="1:44" ht="16.5" customHeight="1">
+    <row r="875" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -41288,7 +41297,7 @@
       <c r="AQ875" s="2"/>
       <c r="AR875" s="2"/>
     </row>
-    <row r="876" spans="1:44" ht="16.5" customHeight="1">
+    <row r="876" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -41334,7 +41343,7 @@
       <c r="AQ876" s="2"/>
       <c r="AR876" s="2"/>
     </row>
-    <row r="877" spans="1:44" ht="16.5" customHeight="1">
+    <row r="877" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -41380,7 +41389,7 @@
       <c r="AQ877" s="2"/>
       <c r="AR877" s="2"/>
     </row>
-    <row r="878" spans="1:44" ht="16.5" customHeight="1">
+    <row r="878" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -41426,7 +41435,7 @@
       <c r="AQ878" s="2"/>
       <c r="AR878" s="2"/>
     </row>
-    <row r="879" spans="1:44" ht="16.5" customHeight="1">
+    <row r="879" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -41472,7 +41481,7 @@
       <c r="AQ879" s="2"/>
       <c r="AR879" s="2"/>
     </row>
-    <row r="880" spans="1:44" ht="16.5" customHeight="1">
+    <row r="880" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -41518,7 +41527,7 @@
       <c r="AQ880" s="2"/>
       <c r="AR880" s="2"/>
     </row>
-    <row r="881" spans="1:44" ht="16.5" customHeight="1">
+    <row r="881" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -41564,7 +41573,7 @@
       <c r="AQ881" s="2"/>
       <c r="AR881" s="2"/>
     </row>
-    <row r="882" spans="1:44" ht="16.5" customHeight="1">
+    <row r="882" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -41610,7 +41619,7 @@
       <c r="AQ882" s="2"/>
       <c r="AR882" s="2"/>
     </row>
-    <row r="883" spans="1:44" ht="16.5" customHeight="1">
+    <row r="883" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -41656,7 +41665,7 @@
       <c r="AQ883" s="2"/>
       <c r="AR883" s="2"/>
     </row>
-    <row r="884" spans="1:44" ht="16.5" customHeight="1">
+    <row r="884" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -41702,7 +41711,7 @@
       <c r="AQ884" s="2"/>
       <c r="AR884" s="2"/>
     </row>
-    <row r="885" spans="1:44" ht="16.5" customHeight="1">
+    <row r="885" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -41748,7 +41757,7 @@
       <c r="AQ885" s="2"/>
       <c r="AR885" s="2"/>
     </row>
-    <row r="886" spans="1:44" ht="16.5" customHeight="1">
+    <row r="886" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -41794,7 +41803,7 @@
       <c r="AQ886" s="2"/>
       <c r="AR886" s="2"/>
     </row>
-    <row r="887" spans="1:44" ht="16.5" customHeight="1">
+    <row r="887" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -41840,7 +41849,7 @@
       <c r="AQ887" s="2"/>
       <c r="AR887" s="2"/>
     </row>
-    <row r="888" spans="1:44" ht="16.5" customHeight="1">
+    <row r="888" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -41886,7 +41895,7 @@
       <c r="AQ888" s="2"/>
       <c r="AR888" s="2"/>
     </row>
-    <row r="889" spans="1:44" ht="16.5" customHeight="1">
+    <row r="889" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -41932,7 +41941,7 @@
       <c r="AQ889" s="2"/>
       <c r="AR889" s="2"/>
     </row>
-    <row r="890" spans="1:44" ht="16.5" customHeight="1">
+    <row r="890" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -41978,7 +41987,7 @@
       <c r="AQ890" s="2"/>
       <c r="AR890" s="2"/>
     </row>
-    <row r="891" spans="1:44" ht="16.5" customHeight="1">
+    <row r="891" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -42024,7 +42033,7 @@
       <c r="AQ891" s="2"/>
       <c r="AR891" s="2"/>
     </row>
-    <row r="892" spans="1:44" ht="16.5" customHeight="1">
+    <row r="892" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -42070,7 +42079,7 @@
       <c r="AQ892" s="2"/>
       <c r="AR892" s="2"/>
     </row>
-    <row r="893" spans="1:44" ht="16.5" customHeight="1">
+    <row r="893" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -42116,7 +42125,7 @@
       <c r="AQ893" s="2"/>
       <c r="AR893" s="2"/>
     </row>
-    <row r="894" spans="1:44" ht="16.5" customHeight="1">
+    <row r="894" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -42162,7 +42171,7 @@
       <c r="AQ894" s="2"/>
       <c r="AR894" s="2"/>
     </row>
-    <row r="895" spans="1:44" ht="16.5" customHeight="1">
+    <row r="895" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -42208,7 +42217,7 @@
       <c r="AQ895" s="2"/>
       <c r="AR895" s="2"/>
     </row>
-    <row r="896" spans="1:44" ht="16.5" customHeight="1">
+    <row r="896" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -42254,7 +42263,7 @@
       <c r="AQ896" s="2"/>
       <c r="AR896" s="2"/>
     </row>
-    <row r="897" spans="1:44" ht="16.5" customHeight="1">
+    <row r="897" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -42300,7 +42309,7 @@
       <c r="AQ897" s="2"/>
       <c r="AR897" s="2"/>
     </row>
-    <row r="898" spans="1:44" ht="16.5" customHeight="1">
+    <row r="898" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -42346,7 +42355,7 @@
       <c r="AQ898" s="2"/>
       <c r="AR898" s="2"/>
     </row>
-    <row r="899" spans="1:44" ht="16.5" customHeight="1">
+    <row r="899" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -42392,7 +42401,7 @@
       <c r="AQ899" s="2"/>
       <c r="AR899" s="2"/>
     </row>
-    <row r="900" spans="1:44" ht="16.5" customHeight="1">
+    <row r="900" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -42438,7 +42447,7 @@
       <c r="AQ900" s="2"/>
       <c r="AR900" s="2"/>
     </row>
-    <row r="901" spans="1:44" ht="16.5" customHeight="1">
+    <row r="901" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -42484,7 +42493,7 @@
       <c r="AQ901" s="2"/>
       <c r="AR901" s="2"/>
     </row>
-    <row r="902" spans="1:44" ht="16.5" customHeight="1">
+    <row r="902" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -42530,7 +42539,7 @@
       <c r="AQ902" s="2"/>
       <c r="AR902" s="2"/>
     </row>
-    <row r="903" spans="1:44" ht="16.5" customHeight="1">
+    <row r="903" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -42576,7 +42585,7 @@
       <c r="AQ903" s="2"/>
       <c r="AR903" s="2"/>
     </row>
-    <row r="904" spans="1:44" ht="16.5" customHeight="1">
+    <row r="904" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -42622,7 +42631,7 @@
       <c r="AQ904" s="2"/>
       <c r="AR904" s="2"/>
     </row>
-    <row r="905" spans="1:44" ht="16.5" customHeight="1">
+    <row r="905" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -42668,7 +42677,7 @@
       <c r="AQ905" s="2"/>
       <c r="AR905" s="2"/>
     </row>
-    <row r="906" spans="1:44" ht="16.5" customHeight="1">
+    <row r="906" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -42714,7 +42723,7 @@
       <c r="AQ906" s="2"/>
       <c r="AR906" s="2"/>
     </row>
-    <row r="907" spans="1:44" ht="16.5" customHeight="1">
+    <row r="907" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -42760,7 +42769,7 @@
       <c r="AQ907" s="2"/>
       <c r="AR907" s="2"/>
     </row>
-    <row r="908" spans="1:44" ht="16.5" customHeight="1">
+    <row r="908" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -42806,7 +42815,7 @@
       <c r="AQ908" s="2"/>
       <c r="AR908" s="2"/>
     </row>
-    <row r="909" spans="1:44" ht="16.5" customHeight="1">
+    <row r="909" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -42852,7 +42861,7 @@
       <c r="AQ909" s="2"/>
       <c r="AR909" s="2"/>
     </row>
-    <row r="910" spans="1:44" ht="16.5" customHeight="1">
+    <row r="910" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -42898,7 +42907,7 @@
       <c r="AQ910" s="2"/>
       <c r="AR910" s="2"/>
     </row>
-    <row r="911" spans="1:44" ht="16.5" customHeight="1">
+    <row r="911" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -42944,7 +42953,7 @@
       <c r="AQ911" s="2"/>
       <c r="AR911" s="2"/>
     </row>
-    <row r="912" spans="1:44" ht="16.5" customHeight="1">
+    <row r="912" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -42990,7 +42999,7 @@
       <c r="AQ912" s="2"/>
       <c r="AR912" s="2"/>
     </row>
-    <row r="913" spans="1:44" ht="16.5" customHeight="1">
+    <row r="913" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -43036,7 +43045,7 @@
       <c r="AQ913" s="2"/>
       <c r="AR913" s="2"/>
     </row>
-    <row r="914" spans="1:44" ht="16.5" customHeight="1">
+    <row r="914" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -43082,7 +43091,7 @@
       <c r="AQ914" s="2"/>
       <c r="AR914" s="2"/>
     </row>
-    <row r="915" spans="1:44" ht="16.5" customHeight="1">
+    <row r="915" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -43128,7 +43137,7 @@
       <c r="AQ915" s="2"/>
       <c r="AR915" s="2"/>
     </row>
-    <row r="916" spans="1:44" ht="16.5" customHeight="1">
+    <row r="916" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -43174,7 +43183,7 @@
       <c r="AQ916" s="2"/>
       <c r="AR916" s="2"/>
     </row>
-    <row r="917" spans="1:44" ht="16.5" customHeight="1">
+    <row r="917" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -43220,7 +43229,7 @@
       <c r="AQ917" s="2"/>
       <c r="AR917" s="2"/>
     </row>
-    <row r="918" spans="1:44" ht="16.5" customHeight="1">
+    <row r="918" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -43266,7 +43275,7 @@
       <c r="AQ918" s="2"/>
       <c r="AR918" s="2"/>
     </row>
-    <row r="919" spans="1:44" ht="16.5" customHeight="1">
+    <row r="919" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -43312,7 +43321,7 @@
       <c r="AQ919" s="2"/>
       <c r="AR919" s="2"/>
     </row>
-    <row r="920" spans="1:44" ht="16.5" customHeight="1">
+    <row r="920" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -43358,7 +43367,7 @@
       <c r="AQ920" s="2"/>
       <c r="AR920" s="2"/>
     </row>
-    <row r="921" spans="1:44" ht="16.5" customHeight="1">
+    <row r="921" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -43404,7 +43413,7 @@
       <c r="AQ921" s="2"/>
       <c r="AR921" s="2"/>
     </row>
-    <row r="922" spans="1:44" ht="16.5" customHeight="1">
+    <row r="922" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -43450,7 +43459,7 @@
       <c r="AQ922" s="2"/>
       <c r="AR922" s="2"/>
     </row>
-    <row r="923" spans="1:44" ht="16.5" customHeight="1">
+    <row r="923" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -43496,7 +43505,7 @@
       <c r="AQ923" s="2"/>
       <c r="AR923" s="2"/>
     </row>
-    <row r="924" spans="1:44" ht="16.5" customHeight="1">
+    <row r="924" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -43542,7 +43551,7 @@
       <c r="AQ924" s="2"/>
       <c r="AR924" s="2"/>
     </row>
-    <row r="925" spans="1:44" ht="16.5" customHeight="1">
+    <row r="925" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -43588,7 +43597,7 @@
       <c r="AQ925" s="2"/>
       <c r="AR925" s="2"/>
     </row>
-    <row r="926" spans="1:44" ht="16.5" customHeight="1">
+    <row r="926" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -43634,7 +43643,7 @@
       <c r="AQ926" s="2"/>
       <c r="AR926" s="2"/>
     </row>
-    <row r="927" spans="1:44" ht="16.5" customHeight="1">
+    <row r="927" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -43680,7 +43689,7 @@
       <c r="AQ927" s="2"/>
       <c r="AR927" s="2"/>
     </row>
-    <row r="928" spans="1:44" ht="16.5" customHeight="1">
+    <row r="928" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -43726,7 +43735,7 @@
       <c r="AQ928" s="2"/>
       <c r="AR928" s="2"/>
     </row>
-    <row r="929" spans="1:44" ht="16.5" customHeight="1">
+    <row r="929" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -43772,7 +43781,7 @@
       <c r="AQ929" s="2"/>
       <c r="AR929" s="2"/>
     </row>
-    <row r="930" spans="1:44" ht="16.5" customHeight="1">
+    <row r="930" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -43818,7 +43827,7 @@
       <c r="AQ930" s="2"/>
       <c r="AR930" s="2"/>
     </row>
-    <row r="931" spans="1:44" ht="16.5" customHeight="1">
+    <row r="931" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -43864,7 +43873,7 @@
       <c r="AQ931" s="2"/>
       <c r="AR931" s="2"/>
     </row>
-    <row r="932" spans="1:44" ht="16.5" customHeight="1">
+    <row r="932" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -43910,7 +43919,7 @@
       <c r="AQ932" s="2"/>
       <c r="AR932" s="2"/>
     </row>
-    <row r="933" spans="1:44" ht="16.5" customHeight="1">
+    <row r="933" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -43956,7 +43965,7 @@
       <c r="AQ933" s="2"/>
       <c r="AR933" s="2"/>
     </row>
-    <row r="934" spans="1:44" ht="16.5" customHeight="1">
+    <row r="934" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -44002,7 +44011,7 @@
       <c r="AQ934" s="2"/>
       <c r="AR934" s="2"/>
     </row>
-    <row r="935" spans="1:44" ht="16.5" customHeight="1">
+    <row r="935" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -44048,7 +44057,7 @@
       <c r="AQ935" s="2"/>
       <c r="AR935" s="2"/>
     </row>
-    <row r="936" spans="1:44" ht="16.5" customHeight="1">
+    <row r="936" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -44094,7 +44103,7 @@
       <c r="AQ936" s="2"/>
       <c r="AR936" s="2"/>
     </row>
-    <row r="937" spans="1:44" ht="16.5" customHeight="1">
+    <row r="937" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -44140,7 +44149,7 @@
       <c r="AQ937" s="2"/>
       <c r="AR937" s="2"/>
     </row>
-    <row r="938" spans="1:44" ht="16.5" customHeight="1">
+    <row r="938" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -44186,7 +44195,7 @@
       <c r="AQ938" s="2"/>
       <c r="AR938" s="2"/>
     </row>
-    <row r="939" spans="1:44" ht="16.5" customHeight="1">
+    <row r="939" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -44232,7 +44241,7 @@
       <c r="AQ939" s="2"/>
       <c r="AR939" s="2"/>
     </row>
-    <row r="940" spans="1:44" ht="16.5" customHeight="1">
+    <row r="940" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -44278,7 +44287,7 @@
       <c r="AQ940" s="2"/>
       <c r="AR940" s="2"/>
     </row>
-    <row r="941" spans="1:44" ht="16.5" customHeight="1">
+    <row r="941" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -44324,7 +44333,7 @@
       <c r="AQ941" s="2"/>
       <c r="AR941" s="2"/>
     </row>
-    <row r="942" spans="1:44" ht="16.5" customHeight="1">
+    <row r="942" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -44370,7 +44379,7 @@
       <c r="AQ942" s="2"/>
       <c r="AR942" s="2"/>
     </row>
-    <row r="943" spans="1:44" ht="16.5" customHeight="1">
+    <row r="943" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -44416,7 +44425,7 @@
       <c r="AQ943" s="2"/>
       <c r="AR943" s="2"/>
     </row>
-    <row r="944" spans="1:44" ht="16.5" customHeight="1">
+    <row r="944" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -44462,7 +44471,7 @@
       <c r="AQ944" s="2"/>
       <c r="AR944" s="2"/>
     </row>
-    <row r="945" spans="1:44" ht="16.5" customHeight="1">
+    <row r="945" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -44508,7 +44517,7 @@
       <c r="AQ945" s="2"/>
       <c r="AR945" s="2"/>
     </row>
-    <row r="946" spans="1:44" ht="16.5" customHeight="1">
+    <row r="946" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -44554,7 +44563,7 @@
       <c r="AQ946" s="2"/>
       <c r="AR946" s="2"/>
     </row>
-    <row r="947" spans="1:44" ht="16.5" customHeight="1">
+    <row r="947" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -44600,7 +44609,7 @@
       <c r="AQ947" s="2"/>
       <c r="AR947" s="2"/>
     </row>
-    <row r="948" spans="1:44" ht="16.5" customHeight="1">
+    <row r="948" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -44646,7 +44655,7 @@
       <c r="AQ948" s="2"/>
       <c r="AR948" s="2"/>
     </row>
-    <row r="949" spans="1:44" ht="16.5" customHeight="1">
+    <row r="949" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -44692,7 +44701,7 @@
       <c r="AQ949" s="2"/>
       <c r="AR949" s="2"/>
     </row>
-    <row r="950" spans="1:44" ht="16.5" customHeight="1">
+    <row r="950" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -44738,7 +44747,7 @@
       <c r="AQ950" s="2"/>
       <c r="AR950" s="2"/>
     </row>
-    <row r="951" spans="1:44" ht="16.5" customHeight="1">
+    <row r="951" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -44784,7 +44793,7 @@
       <c r="AQ951" s="2"/>
       <c r="AR951" s="2"/>
     </row>
-    <row r="952" spans="1:44" ht="16.5" customHeight="1">
+    <row r="952" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -44830,7 +44839,7 @@
       <c r="AQ952" s="2"/>
       <c r="AR952" s="2"/>
     </row>
-    <row r="953" spans="1:44" ht="16.5" customHeight="1">
+    <row r="953" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -44876,7 +44885,7 @@
       <c r="AQ953" s="2"/>
       <c r="AR953" s="2"/>
     </row>
-    <row r="954" spans="1:44" ht="16.5" customHeight="1">
+    <row r="954" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -44922,7 +44931,7 @@
       <c r="AQ954" s="2"/>
       <c r="AR954" s="2"/>
     </row>
-    <row r="955" spans="1:44" ht="16.5" customHeight="1">
+    <row r="955" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -44968,7 +44977,7 @@
       <c r="AQ955" s="2"/>
       <c r="AR955" s="2"/>
     </row>
-    <row r="956" spans="1:44" ht="16.5" customHeight="1">
+    <row r="956" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -45014,7 +45023,7 @@
       <c r="AQ956" s="2"/>
       <c r="AR956" s="2"/>
     </row>
-    <row r="957" spans="1:44" ht="16.5" customHeight="1">
+    <row r="957" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -45060,7 +45069,7 @@
       <c r="AQ957" s="2"/>
       <c r="AR957" s="2"/>
     </row>
-    <row r="958" spans="1:44" ht="16.5" customHeight="1">
+    <row r="958" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -45106,7 +45115,7 @@
       <c r="AQ958" s="2"/>
       <c r="AR958" s="2"/>
     </row>
-    <row r="959" spans="1:44" ht="16.5" customHeight="1">
+    <row r="959" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -45152,7 +45161,7 @@
       <c r="AQ959" s="2"/>
       <c r="AR959" s="2"/>
     </row>
-    <row r="960" spans="1:44" ht="16.5" customHeight="1">
+    <row r="960" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -45198,7 +45207,7 @@
       <c r="AQ960" s="2"/>
       <c r="AR960" s="2"/>
     </row>
-    <row r="961" spans="1:44" ht="16.5" customHeight="1">
+    <row r="961" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -45244,7 +45253,7 @@
       <c r="AQ961" s="2"/>
       <c r="AR961" s="2"/>
     </row>
-    <row r="962" spans="1:44" ht="16.5" customHeight="1">
+    <row r="962" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -45290,7 +45299,7 @@
       <c r="AQ962" s="2"/>
       <c r="AR962" s="2"/>
     </row>
-    <row r="963" spans="1:44" ht="16.5" customHeight="1">
+    <row r="963" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -45336,7 +45345,7 @@
       <c r="AQ963" s="2"/>
       <c r="AR963" s="2"/>
     </row>
-    <row r="964" spans="1:44" ht="16.5" customHeight="1">
+    <row r="964" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -45382,7 +45391,7 @@
       <c r="AQ964" s="2"/>
       <c r="AR964" s="2"/>
     </row>
-    <row r="965" spans="1:44" ht="16.5" customHeight="1">
+    <row r="965" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -45428,7 +45437,7 @@
       <c r="AQ965" s="2"/>
       <c r="AR965" s="2"/>
     </row>
-    <row r="966" spans="1:44" ht="16.5" customHeight="1">
+    <row r="966" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -45474,7 +45483,7 @@
       <c r="AQ966" s="2"/>
       <c r="AR966" s="2"/>
     </row>
-    <row r="967" spans="1:44" ht="16.5" customHeight="1">
+    <row r="967" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -45520,7 +45529,7 @@
       <c r="AQ967" s="2"/>
       <c r="AR967" s="2"/>
     </row>
-    <row r="968" spans="1:44" ht="16.5" customHeight="1">
+    <row r="968" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -45566,7 +45575,7 @@
       <c r="AQ968" s="2"/>
       <c r="AR968" s="2"/>
     </row>
-    <row r="969" spans="1:44" ht="16.5" customHeight="1">
+    <row r="969" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -45612,7 +45621,7 @@
       <c r="AQ969" s="2"/>
       <c r="AR969" s="2"/>
     </row>
-    <row r="970" spans="1:44" ht="16.5" customHeight="1">
+    <row r="970" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -45658,7 +45667,7 @@
       <c r="AQ970" s="2"/>
       <c r="AR970" s="2"/>
     </row>
-    <row r="971" spans="1:44" ht="16.5" customHeight="1">
+    <row r="971" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -45704,7 +45713,7 @@
       <c r="AQ971" s="2"/>
       <c r="AR971" s="2"/>
     </row>
-    <row r="972" spans="1:44" ht="16.5" customHeight="1">
+    <row r="972" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -45750,7 +45759,7 @@
       <c r="AQ972" s="2"/>
       <c r="AR972" s="2"/>
     </row>
-    <row r="973" spans="1:44" ht="16.5" customHeight="1">
+    <row r="973" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -45796,7 +45805,7 @@
       <c r="AQ973" s="2"/>
       <c r="AR973" s="2"/>
     </row>
-    <row r="974" spans="1:44" ht="16.5" customHeight="1">
+    <row r="974" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -45842,7 +45851,7 @@
       <c r="AQ974" s="2"/>
       <c r="AR974" s="2"/>
     </row>
-    <row r="975" spans="1:44" ht="16.5" customHeight="1">
+    <row r="975" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -45888,7 +45897,7 @@
       <c r="AQ975" s="2"/>
       <c r="AR975" s="2"/>
     </row>
-    <row r="976" spans="1:44" ht="16.5" customHeight="1">
+    <row r="976" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -45934,7 +45943,7 @@
       <c r="AQ976" s="2"/>
       <c r="AR976" s="2"/>
     </row>
-    <row r="977" spans="1:44" ht="16.5" customHeight="1">
+    <row r="977" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -45980,7 +45989,7 @@
       <c r="AQ977" s="2"/>
       <c r="AR977" s="2"/>
     </row>
-    <row r="978" spans="1:44" ht="16.5" customHeight="1">
+    <row r="978" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -46026,7 +46035,7 @@
       <c r="AQ978" s="2"/>
       <c r="AR978" s="2"/>
     </row>
-    <row r="979" spans="1:44" ht="16.5" customHeight="1">
+    <row r="979" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -46072,7 +46081,7 @@
       <c r="AQ979" s="2"/>
       <c r="AR979" s="2"/>
     </row>
-    <row r="980" spans="1:44" ht="16.5" customHeight="1">
+    <row r="980" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -46118,7 +46127,7 @@
       <c r="AQ980" s="2"/>
       <c r="AR980" s="2"/>
     </row>
-    <row r="981" spans="1:44" ht="16.5" customHeight="1">
+    <row r="981" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -46164,7 +46173,7 @@
       <c r="AQ981" s="2"/>
       <c r="AR981" s="2"/>
     </row>
-    <row r="982" spans="1:44" ht="16.5" customHeight="1">
+    <row r="982" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -46210,7 +46219,7 @@
       <c r="AQ982" s="2"/>
       <c r="AR982" s="2"/>
     </row>
-    <row r="983" spans="1:44" ht="16.5" customHeight="1">
+    <row r="983" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -46256,7 +46265,7 @@
       <c r="AQ983" s="2"/>
       <c r="AR983" s="2"/>
     </row>
-    <row r="984" spans="1:44" ht="16.5" customHeight="1">
+    <row r="984" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -46302,7 +46311,7 @@
       <c r="AQ984" s="2"/>
       <c r="AR984" s="2"/>
     </row>
-    <row r="985" spans="1:44" ht="16.5" customHeight="1">
+    <row r="985" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -46348,7 +46357,7 @@
       <c r="AQ985" s="2"/>
       <c r="AR985" s="2"/>
     </row>
-    <row r="986" spans="1:44" ht="16.5" customHeight="1">
+    <row r="986" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -46394,7 +46403,7 @@
       <c r="AQ986" s="2"/>
       <c r="AR986" s="2"/>
     </row>
-    <row r="987" spans="1:44" ht="16.5" customHeight="1">
+    <row r="987" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -46440,7 +46449,7 @@
       <c r="AQ987" s="2"/>
       <c r="AR987" s="2"/>
     </row>
-    <row r="988" spans="1:44" ht="16.5" customHeight="1">
+    <row r="988" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -46486,7 +46495,7 @@
       <c r="AQ988" s="2"/>
       <c r="AR988" s="2"/>
     </row>
-    <row r="989" spans="1:44" ht="16.5" customHeight="1">
+    <row r="989" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -46532,7 +46541,7 @@
       <c r="AQ989" s="2"/>
       <c r="AR989" s="2"/>
     </row>
-    <row r="990" spans="1:44" ht="16.5" customHeight="1">
+    <row r="990" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -46578,7 +46587,7 @@
       <c r="AQ990" s="2"/>
       <c r="AR990" s="2"/>
     </row>
-    <row r="991" spans="1:44" ht="16.5" customHeight="1">
+    <row r="991" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -46624,7 +46633,7 @@
       <c r="AQ991" s="2"/>
       <c r="AR991" s="2"/>
     </row>
-    <row r="992" spans="1:44" ht="16.5" customHeight="1">
+    <row r="992" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -46670,7 +46679,7 @@
       <c r="AQ992" s="2"/>
       <c r="AR992" s="2"/>
     </row>
-    <row r="993" spans="1:44" ht="16.5" customHeight="1">
+    <row r="993" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -46716,7 +46725,7 @@
       <c r="AQ993" s="2"/>
       <c r="AR993" s="2"/>
     </row>
-    <row r="994" spans="1:44" ht="16.5" customHeight="1">
+    <row r="994" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -46762,7 +46771,7 @@
       <c r="AQ994" s="2"/>
       <c r="AR994" s="2"/>
     </row>
-    <row r="995" spans="1:44" ht="16.5" customHeight="1">
+    <row r="995" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -46808,7 +46817,7 @@
       <c r="AQ995" s="2"/>
       <c r="AR995" s="2"/>
     </row>
-    <row r="996" spans="1:44" ht="16.5" customHeight="1">
+    <row r="996" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -46854,7 +46863,7 @@
       <c r="AQ996" s="2"/>
       <c r="AR996" s="2"/>
     </row>
-    <row r="997" spans="1:44" ht="16.5" customHeight="1">
+    <row r="997" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
@@ -46900,7 +46909,7 @@
       <c r="AQ997" s="2"/>
       <c r="AR997" s="2"/>
     </row>
-    <row r="998" spans="1:44" ht="16.5" customHeight="1">
+    <row r="998" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
@@ -46946,7 +46955,7 @@
       <c r="AQ998" s="2"/>
       <c r="AR998" s="2"/>
     </row>
-    <row r="999" spans="1:44" ht="16.5" customHeight="1">
+    <row r="999" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
@@ -46992,7 +47001,7 @@
       <c r="AQ999" s="2"/>
       <c r="AR999" s="2"/>
     </row>
-    <row r="1000" spans="1:44" ht="16.5" customHeight="1">
+    <row r="1000" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>

--- a/core/assets/levels/tut0.xlsx
+++ b/core/assets/levels/tut0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Git\MangoSnoopers\core\assets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252A2C32-1A7A-4266-8D54-64DE2DF68259}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2E3EEC-E91C-4418-8C07-637C7D90FC75}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="0" windowWidth="15240" windowHeight="6660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8625" yWindow="0" windowWidth="15240" windowHeight="6660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>Region</t>
   </si>
@@ -718,7 +718,7 @@
   <dimension ref="A1:AS1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
@@ -1047,9 +1047,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="2"/>
     </row>
@@ -1061,9 +1059,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="2"/>
     </row>
@@ -1077,9 +1073,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="H21" s="2"/>
       <c r="I21" s="5"/>
       <c r="J21" s="2"/>
     </row>
@@ -1096,7 +1090,9 @@
       <c r="H22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:45" ht="16.5" customHeight="1">

--- a/core/assets/levels/tut0.xlsx
+++ b/core/assets/levels/tut0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Git\MangoSnoopers\core\assets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2E3EEC-E91C-4418-8C07-637C7D90FC75}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419146E9-AF7C-49AA-9011-815220E566E5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8625" yWindow="0" windowWidth="15240" windowHeight="6660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -718,7 +718,7 @@
   <dimension ref="A1:AS1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
@@ -826,13 +826,6 @@
         <v>44</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1">
       <c r="A5">
@@ -845,11 +838,6 @@
         <v>0</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="5"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1">
@@ -857,11 +845,6 @@
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1">
@@ -870,17 +853,6 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1">
@@ -892,53 +864,21 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1">
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1">
@@ -946,11 +886,6 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1">
@@ -958,11 +893,6 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1">
@@ -970,11 +900,6 @@
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="5"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1">
@@ -984,11 +909,6 @@
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1">
@@ -996,15 +916,6 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="5"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:45" ht="16.5" customHeight="1">
@@ -1012,13 +923,6 @@
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="5"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:45" ht="16.5" customHeight="1">
@@ -1028,10 +932,8 @@
       <c r="D18" s="6"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="2" t="s">
+      <c r="G18" s="5"/>
+      <c r="H18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I18" s="5"/>
@@ -1047,7 +949,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="5"/>
       <c r="J19" s="2"/>
     </row>
@@ -1058,9 +960,9 @@
       <c r="D20" s="6"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:45" ht="16.5" customHeight="1">
@@ -1070,11 +972,17 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="5"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:45" ht="16.5" customHeight="1">
@@ -1086,11 +994,13 @@
       <c r="D22" s="6"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="2" t="s">
+      <c r="G22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="H22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="J22" s="2"/>
@@ -1104,11 +1014,15 @@
       <c r="D23" s="6"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="5" t="s">
+      <c r="G23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="2"/>
+      <c r="H23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:45" ht="16.5" customHeight="1">
@@ -1118,13 +1032,11 @@
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="5"/>
+      <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:45" ht="16.5" customHeight="1">
@@ -1136,9 +1048,9 @@
       <c r="D25" s="6"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:45" ht="16.5" customHeight="1">
@@ -1148,9 +1060,11 @@
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:45" ht="16.5" customHeight="1">
@@ -1160,6 +1074,11 @@
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="1"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1170,8 +1089,11 @@
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="1"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1184,6 +1106,11 @@
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1196,6 +1123,15 @@
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="5"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -1208,6 +1144,13 @@
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="5"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -1220,6 +1163,15 @@
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="5"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -1264,6 +1216,11 @@
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -1306,6 +1263,11 @@
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -1350,6 +1312,11 @@
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="5"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -1394,6 +1361,15 @@
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -1438,6 +1414,13 @@
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -1482,6 +1465,13 @@
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
+      <c r="E38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -46683,6 +46673,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/core/assets/levels/tut0.xlsx
+++ b/core/assets/levels/tut0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Git\MangoSnoopers\core\assets\levels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshyD\Documents\School\CS 3152 - Computer Game Architecture\MangoSnoopers\MangoSnoopers\core\assets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419146E9-AF7C-49AA-9011-815220E566E5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0D25F2-B565-4338-ADB7-49A14E4A7720}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8625" yWindow="0" windowWidth="15240" windowHeight="6660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>Region</t>
   </si>
@@ -296,6 +296,18 @@
   </si>
   <si>
     <t>Which blocks to use</t>
+  </si>
+  <si>
+    <t>Grill Start</t>
+  </si>
+  <si>
+    <t>Grill End</t>
+  </si>
+  <si>
+    <t>Flamingo</t>
+  </si>
+  <si>
+    <t>gnome</t>
   </si>
 </sst>
 </file>
@@ -717,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
@@ -853,6 +865,9 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1">
@@ -864,11 +879,20 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1">
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">

--- a/core/assets/levels/tut0.xlsx
+++ b/core/assets/levels/tut0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Git\MangoSnoopers\core\assets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419146E9-AF7C-49AA-9011-815220E566E5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E539FB1-9F1A-4676-BA37-DD34BA3E2F87}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8625" yWindow="0" windowWidth="15240" windowHeight="6660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="27855" windowHeight="12810" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/core/assets/levels/tut0.xlsx
+++ b/core/assets/levels/tut0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Git\MangoSnoopers\core\assets\levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E539FB1-9F1A-4676-BA37-DD34BA3E2F87}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4216B62C-509B-459A-8A7E-23C739BCAB1E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="27855" windowHeight="12810" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="12810" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="47">
   <si>
     <t>Region</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>Which blocks to use</t>
+  </si>
+  <si>
+    <t>topiary</t>
   </si>
 </sst>
 </file>
@@ -717,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
@@ -809,11 +812,15 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="G3" s="5"/>
       <c r="H3" s="3"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1">
       <c r="A4" s="9" t="s">
@@ -826,6 +833,12 @@
         <v>44</v>
       </c>
       <c r="D4" s="10"/>
+      <c r="F4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1">
       <c r="A5">
@@ -838,14 +851,24 @@
         <v>0</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="J5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="J6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1">
       <c r="A7" s="9" t="s">
@@ -853,7 +876,12 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="J7" s="1"/>
+      <c r="F7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1">
       <c r="A8" t="s">
@@ -864,43 +892,78 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="J8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1">
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="J9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="J10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="J11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="J14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1">
       <c r="A15" s="6" t="s">
@@ -1415,13 +1478,17 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="G37" s="2"/>
       <c r="H37" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="J37" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
